--- a/database/industries/foroushgah/ofogh/product/monthly_seprated.xlsx
+++ b/database/industries/foroushgah/ofogh/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\foroushgah\ofogh\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\foroushgah\ofogh\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A1DB65-C561-4C9D-8DFB-16F5AEE48660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="92">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -186,6 +184,9 @@
     <t>ماه 10 منتهی به 1401/10</t>
   </si>
   <si>
+    <t>ماه 11 منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -300,7 +301,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -493,7 +494,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -505,7 +506,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -552,6 +553,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -587,6 +605,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -738,7 +773,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -1472,8 +1507,8 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>0</v>
       </c>
       <c r="X11" s="11">
         <v>0</v>
@@ -1502,8 +1537,8 @@
       <c r="AF11" s="11">
         <v>0</v>
       </c>
-      <c r="AG11" s="11">
-        <v>0</v>
+      <c r="AG11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH11" s="11" t="s">
         <v>58</v>
@@ -1514,11 +1549,11 @@
       <c r="AJ11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>0</v>
+      <c r="AK11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>58</v>
@@ -1526,14 +1561,14 @@
       <c r="AN11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="11" t="s">
-        <v>58</v>
+      <c r="AO11" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>0</v>
       </c>
       <c r="AR11" s="11">
         <v>0</v>
@@ -1631,8 +1666,8 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>0</v>
       </c>
       <c r="X12" s="13">
         <v>0</v>
@@ -1661,8 +1696,8 @@
       <c r="AF12" s="13">
         <v>0</v>
       </c>
-      <c r="AG12" s="13">
-        <v>0</v>
+      <c r="AG12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH12" s="13" t="s">
         <v>58</v>
@@ -1673,11 +1708,11 @@
       <c r="AJ12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>0</v>
+      <c r="AK12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM12" s="13" t="s">
         <v>58</v>
@@ -1685,14 +1720,14 @@
       <c r="AN12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="13" t="s">
-        <v>58</v>
+      <c r="AO12" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>0</v>
       </c>
       <c r="AR12" s="13">
         <v>0</v>
@@ -1790,8 +1825,8 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>0</v>
       </c>
       <c r="X13" s="11">
         <v>0</v>
@@ -1820,8 +1855,8 @@
       <c r="AF13" s="11">
         <v>0</v>
       </c>
-      <c r="AG13" s="11">
-        <v>0</v>
+      <c r="AG13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH13" s="11" t="s">
         <v>58</v>
@@ -1832,11 +1867,11 @@
       <c r="AJ13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>0</v>
+      <c r="AK13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM13" s="11" t="s">
         <v>58</v>
@@ -1844,14 +1879,14 @@
       <c r="AN13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="11" t="s">
-        <v>58</v>
+      <c r="AO13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>0</v>
       </c>
       <c r="AR13" s="11">
         <v>0</v>
@@ -1949,8 +1984,8 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>0</v>
       </c>
       <c r="X14" s="13">
         <v>0</v>
@@ -1979,8 +2014,8 @@
       <c r="AF14" s="13">
         <v>0</v>
       </c>
-      <c r="AG14" s="13">
-        <v>0</v>
+      <c r="AG14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH14" s="13" t="s">
         <v>58</v>
@@ -1991,11 +2026,11 @@
       <c r="AJ14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>0</v>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM14" s="13" t="s">
         <v>58</v>
@@ -2003,14 +2038,14 @@
       <c r="AN14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="13" t="s">
-        <v>58</v>
+      <c r="AO14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ14" s="13">
+        <v>0</v>
       </c>
       <c r="AR14" s="13">
         <v>0</v>
@@ -2108,8 +2143,8 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>0</v>
       </c>
       <c r="X15" s="11">
         <v>0</v>
@@ -2138,8 +2173,8 @@
       <c r="AF15" s="11">
         <v>0</v>
       </c>
-      <c r="AG15" s="11">
-        <v>0</v>
+      <c r="AG15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH15" s="11" t="s">
         <v>58</v>
@@ -2150,11 +2185,11 @@
       <c r="AJ15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>0</v>
+      <c r="AK15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM15" s="11" t="s">
         <v>58</v>
@@ -2162,14 +2197,14 @@
       <c r="AN15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="11" t="s">
-        <v>58</v>
+      <c r="AO15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>0</v>
       </c>
       <c r="AR15" s="11">
         <v>0</v>
@@ -2267,8 +2302,8 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>0</v>
       </c>
       <c r="X16" s="13">
         <v>0</v>
@@ -2297,8 +2332,8 @@
       <c r="AF16" s="13">
         <v>0</v>
       </c>
-      <c r="AG16" s="13">
-        <v>0</v>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH16" s="13" t="s">
         <v>58</v>
@@ -2309,11 +2344,11 @@
       <c r="AJ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>0</v>
+      <c r="AK16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM16" s="13" t="s">
         <v>58</v>
@@ -2321,14 +2356,14 @@
       <c r="AN16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="13" t="s">
-        <v>58</v>
+      <c r="AO16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>0</v>
       </c>
       <c r="AR16" s="13">
         <v>0</v>
@@ -2426,8 +2461,8 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>0</v>
       </c>
       <c r="X17" s="11">
         <v>0</v>
@@ -2456,8 +2491,8 @@
       <c r="AF17" s="11">
         <v>0</v>
       </c>
-      <c r="AG17" s="11">
-        <v>0</v>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH17" s="11" t="s">
         <v>58</v>
@@ -2468,11 +2503,11 @@
       <c r="AJ17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL17" s="11">
-        <v>0</v>
+      <c r="AK17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM17" s="11" t="s">
         <v>58</v>
@@ -2480,14 +2515,14 @@
       <c r="AN17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
+      <c r="AO17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ17" s="11">
+        <v>0</v>
       </c>
       <c r="AR17" s="11">
         <v>0</v>
@@ -2585,8 +2620,8 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>0</v>
       </c>
       <c r="X18" s="13">
         <v>0</v>
@@ -2615,8 +2650,8 @@
       <c r="AF18" s="13">
         <v>0</v>
       </c>
-      <c r="AG18" s="13">
-        <v>0</v>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH18" s="13" t="s">
         <v>58</v>
@@ -2627,11 +2662,11 @@
       <c r="AJ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL18" s="13">
-        <v>0</v>
+      <c r="AK18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM18" s="13" t="s">
         <v>58</v>
@@ -2639,14 +2674,14 @@
       <c r="AN18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
+      <c r="AO18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ18" s="13">
+        <v>0</v>
       </c>
       <c r="AR18" s="13">
         <v>0</v>
@@ -2744,8 +2779,8 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
       </c>
       <c r="X19" s="11">
         <v>0</v>
@@ -2774,8 +2809,8 @@
       <c r="AF19" s="11">
         <v>0</v>
       </c>
-      <c r="AG19" s="11">
-        <v>0</v>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH19" s="11" t="s">
         <v>58</v>
@@ -2786,11 +2821,11 @@
       <c r="AJ19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>0</v>
+      <c r="AK19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM19" s="11" t="s">
         <v>58</v>
@@ -2798,14 +2833,14 @@
       <c r="AN19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
+      <c r="AO19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>0</v>
       </c>
       <c r="AR19" s="11">
         <v>0</v>
@@ -2969,8 +3004,8 @@
       <c r="AR20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="13" t="s">
-        <v>58</v>
+      <c r="AS20" s="13">
+        <v>0</v>
       </c>
       <c r="AT20" s="13">
         <v>0</v>
@@ -3488,8 +3523,8 @@
       <c r="V25" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W25" s="15" t="s">
-        <v>58</v>
+      <c r="W25" s="15">
+        <v>0</v>
       </c>
       <c r="X25" s="15">
         <v>0</v>
@@ -4238,101 +4273,101 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>148020</v>
       </c>
       <c r="X33" s="11">
-        <v>148020</v>
+        <v>134579</v>
       </c>
       <c r="Y33" s="11">
-        <v>134579</v>
+        <v>151045</v>
       </c>
       <c r="Z33" s="11">
-        <v>151045</v>
+        <v>164685</v>
       </c>
       <c r="AA33" s="11">
-        <v>164685</v>
+        <v>166231</v>
       </c>
       <c r="AB33" s="11">
-        <v>166231</v>
+        <v>178115</v>
       </c>
       <c r="AC33" s="11">
-        <v>178115</v>
+        <v>152155</v>
       </c>
       <c r="AD33" s="11">
-        <v>152155</v>
+        <v>138295</v>
       </c>
       <c r="AE33" s="11">
-        <v>138295</v>
+        <v>165676</v>
       </c>
       <c r="AF33" s="11">
-        <v>165676</v>
+        <v>97085</v>
       </c>
       <c r="AG33" s="11">
-        <v>97085</v>
+        <v>66837</v>
       </c>
       <c r="AH33" s="11">
-        <v>66837</v>
+        <v>329719</v>
       </c>
       <c r="AI33" s="11">
-        <v>329719</v>
+        <v>51105</v>
       </c>
       <c r="AJ33" s="11">
-        <v>51105</v>
+        <v>49099</v>
       </c>
       <c r="AK33" s="11">
-        <v>49099</v>
+        <v>52153</v>
       </c>
       <c r="AL33" s="11">
-        <v>52153</v>
+        <v>150750</v>
       </c>
       <c r="AM33" s="11">
-        <v>150750</v>
+        <v>146185</v>
       </c>
       <c r="AN33" s="11">
-        <v>146185</v>
+        <v>154809</v>
       </c>
       <c r="AO33" s="11">
-        <v>154809</v>
+        <v>142001</v>
       </c>
       <c r="AP33" s="11">
-        <v>142001</v>
+        <v>132760</v>
       </c>
       <c r="AQ33" s="11">
-        <v>132760</v>
+        <v>101470</v>
       </c>
       <c r="AR33" s="11">
-        <v>101470</v>
+        <v>97236</v>
       </c>
       <c r="AS33" s="11">
-        <v>97236</v>
+        <v>104540</v>
       </c>
       <c r="AT33" s="11">
-        <v>104540</v>
+        <v>80012</v>
       </c>
       <c r="AU33" s="11">
-        <v>80012</v>
+        <v>75815</v>
       </c>
       <c r="AV33" s="11">
-        <v>75815</v>
+        <v>82855</v>
       </c>
       <c r="AW33" s="11">
-        <v>82855</v>
+        <v>90743</v>
       </c>
       <c r="AX33" s="11">
-        <v>90743</v>
+        <v>103275</v>
       </c>
       <c r="AY33" s="11">
-        <v>103275</v>
+        <v>89151</v>
       </c>
       <c r="AZ33" s="11">
-        <v>89151</v>
+        <v>82208</v>
       </c>
       <c r="BA33" s="11">
-        <v>82208</v>
+        <v>88774</v>
       </c>
       <c r="BB33" s="11">
-        <v>88774</v>
+        <v>144915</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.25">
@@ -4397,101 +4432,101 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>12338105</v>
       </c>
       <c r="X34" s="13">
-        <v>12338105</v>
+        <v>14830812</v>
       </c>
       <c r="Y34" s="13">
-        <v>14830812</v>
+        <v>12661600</v>
       </c>
       <c r="Z34" s="13">
-        <v>12661600</v>
+        <v>11488044</v>
       </c>
       <c r="AA34" s="13">
-        <v>11488044</v>
+        <v>11179961</v>
       </c>
       <c r="AB34" s="13">
-        <v>11179961</v>
+        <v>9351162</v>
       </c>
       <c r="AC34" s="13">
-        <v>9351162</v>
+        <v>8971867</v>
       </c>
       <c r="AD34" s="13">
-        <v>8971867</v>
+        <v>9717055</v>
       </c>
       <c r="AE34" s="13">
-        <v>9717055</v>
+        <v>11412688</v>
       </c>
       <c r="AF34" s="13">
-        <v>11412688</v>
+        <v>12624384</v>
       </c>
       <c r="AG34" s="13">
-        <v>12624384</v>
+        <v>13805974</v>
       </c>
       <c r="AH34" s="13">
-        <v>13805974</v>
+        <v>15961267</v>
       </c>
       <c r="AI34" s="13">
-        <v>15961267</v>
+        <v>17976227</v>
       </c>
       <c r="AJ34" s="13">
-        <v>17976227</v>
+        <v>16154420</v>
       </c>
       <c r="AK34" s="13">
-        <v>16154420</v>
+        <v>16084035</v>
       </c>
       <c r="AL34" s="13">
-        <v>16084035</v>
+        <v>13610934</v>
       </c>
       <c r="AM34" s="13">
-        <v>13610934</v>
+        <v>11101258</v>
       </c>
       <c r="AN34" s="13">
-        <v>11101258</v>
+        <v>11947247</v>
       </c>
       <c r="AO34" s="13">
-        <v>11947247</v>
+        <v>9825457</v>
       </c>
       <c r="AP34" s="13">
-        <v>9825457</v>
+        <v>9774660</v>
       </c>
       <c r="AQ34" s="13">
-        <v>9774660</v>
+        <v>10634712</v>
       </c>
       <c r="AR34" s="13">
-        <v>10634712</v>
+        <v>12641007</v>
       </c>
       <c r="AS34" s="13">
-        <v>12641007</v>
+        <v>13889100</v>
       </c>
       <c r="AT34" s="13">
-        <v>13889100</v>
+        <v>13916922</v>
       </c>
       <c r="AU34" s="13">
-        <v>13916922</v>
+        <v>14790107</v>
       </c>
       <c r="AV34" s="13">
-        <v>14790107</v>
+        <v>14444561</v>
       </c>
       <c r="AW34" s="13">
-        <v>14444561</v>
+        <v>15479125</v>
       </c>
       <c r="AX34" s="13">
-        <v>15479125</v>
+        <v>12622103</v>
       </c>
       <c r="AY34" s="13">
-        <v>12622103</v>
+        <v>9181529</v>
       </c>
       <c r="AZ34" s="13">
-        <v>9181529</v>
+        <v>8876590</v>
       </c>
       <c r="BA34" s="13">
-        <v>8876590</v>
+        <v>9697925</v>
       </c>
       <c r="BB34" s="13">
-        <v>9697925</v>
+        <v>10032474</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.25">
@@ -4556,101 +4591,101 @@
       <c r="V35" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="11" t="s">
-        <v>58</v>
+      <c r="W35" s="11">
+        <v>17206660</v>
       </c>
       <c r="X35" s="11">
-        <v>17206660</v>
+        <v>17568099</v>
       </c>
       <c r="Y35" s="11">
-        <v>17568099</v>
+        <v>17706350</v>
       </c>
       <c r="Z35" s="11">
-        <v>17706350</v>
+        <v>18388526</v>
       </c>
       <c r="AA35" s="11">
-        <v>18388526</v>
+        <v>20708554</v>
       </c>
       <c r="AB35" s="11">
-        <v>20708554</v>
+        <v>17183591</v>
       </c>
       <c r="AC35" s="11">
-        <v>17183591</v>
+        <v>16376941</v>
       </c>
       <c r="AD35" s="11">
-        <v>16376941</v>
+        <v>16376968</v>
       </c>
       <c r="AE35" s="11">
-        <v>16376968</v>
+        <v>21248616</v>
       </c>
       <c r="AF35" s="11">
-        <v>21248616</v>
+        <v>15281382</v>
       </c>
       <c r="AG35" s="11">
-        <v>15281382</v>
+        <v>17220459</v>
       </c>
       <c r="AH35" s="11">
-        <v>17220459</v>
+        <v>18912959</v>
       </c>
       <c r="AI35" s="11">
-        <v>18912959</v>
+        <v>20079295</v>
       </c>
       <c r="AJ35" s="11">
-        <v>20079295</v>
+        <v>19301896</v>
       </c>
       <c r="AK35" s="11">
-        <v>19301896</v>
+        <v>20535799</v>
       </c>
       <c r="AL35" s="11">
-        <v>20535799</v>
+        <v>17651054</v>
       </c>
       <c r="AM35" s="11">
-        <v>17651054</v>
+        <v>16965670</v>
       </c>
       <c r="AN35" s="11">
-        <v>16965670</v>
+        <v>17600543</v>
       </c>
       <c r="AO35" s="11">
-        <v>17600543</v>
+        <v>17329932</v>
       </c>
       <c r="AP35" s="11">
-        <v>17329932</v>
+        <v>17099020</v>
       </c>
       <c r="AQ35" s="11">
-        <v>17099020</v>
+        <v>21483638</v>
       </c>
       <c r="AR35" s="11">
-        <v>21483638</v>
+        <v>13981098</v>
       </c>
       <c r="AS35" s="11">
-        <v>13981098</v>
+        <v>22754245</v>
       </c>
       <c r="AT35" s="11">
-        <v>22754245</v>
+        <v>18090677</v>
       </c>
       <c r="AU35" s="11">
-        <v>18090677</v>
+        <v>14466236</v>
       </c>
       <c r="AV35" s="11">
-        <v>14466236</v>
+        <v>14758053</v>
       </c>
       <c r="AW35" s="11">
-        <v>14758053</v>
+        <v>15563697</v>
       </c>
       <c r="AX35" s="11">
-        <v>15563697</v>
+        <v>15348170</v>
       </c>
       <c r="AY35" s="11">
-        <v>15348170</v>
+        <v>14203833</v>
       </c>
       <c r="AZ35" s="11">
-        <v>14203833</v>
+        <v>14533789</v>
       </c>
       <c r="BA35" s="11">
-        <v>14533789</v>
+        <v>16464210</v>
       </c>
       <c r="BB35" s="11">
-        <v>16464210</v>
+        <v>16814303</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.25">
@@ -4715,101 +4750,101 @@
       <c r="V36" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W36" s="13" t="s">
-        <v>58</v>
+      <c r="W36" s="13">
+        <v>57571414</v>
       </c>
       <c r="X36" s="13">
-        <v>57571414</v>
+        <v>59646278</v>
       </c>
       <c r="Y36" s="13">
-        <v>59646278</v>
+        <v>58140459</v>
       </c>
       <c r="Z36" s="13">
-        <v>58140459</v>
+        <v>57773285</v>
       </c>
       <c r="AA36" s="13">
-        <v>57773285</v>
+        <v>64515930</v>
       </c>
       <c r="AB36" s="13">
-        <v>64515930</v>
+        <v>65714642</v>
       </c>
       <c r="AC36" s="13">
-        <v>65714642</v>
+        <v>62726377</v>
       </c>
       <c r="AD36" s="13">
-        <v>62726377</v>
+        <v>60609553</v>
       </c>
       <c r="AE36" s="13">
-        <v>60609553</v>
+        <v>67659907</v>
       </c>
       <c r="AF36" s="13">
-        <v>67659907</v>
+        <v>53457828</v>
       </c>
       <c r="AG36" s="13">
-        <v>53457828</v>
+        <v>66812305</v>
       </c>
       <c r="AH36" s="13">
-        <v>66812305</v>
+        <v>59614939</v>
       </c>
       <c r="AI36" s="13">
-        <v>59614939</v>
+        <v>58232320</v>
       </c>
       <c r="AJ36" s="13">
-        <v>58232320</v>
+        <v>56946505</v>
       </c>
       <c r="AK36" s="13">
-        <v>56946505</v>
+        <v>71602593</v>
       </c>
       <c r="AL36" s="13">
-        <v>71602593</v>
+        <v>57629702</v>
       </c>
       <c r="AM36" s="13">
-        <v>57629702</v>
+        <v>57386405</v>
       </c>
       <c r="AN36" s="13">
-        <v>57386405</v>
+        <v>66711181</v>
       </c>
       <c r="AO36" s="13">
-        <v>66711181</v>
+        <v>66548565</v>
       </c>
       <c r="AP36" s="13">
-        <v>66548565</v>
+        <v>63538266</v>
       </c>
       <c r="AQ36" s="13">
-        <v>63538266</v>
+        <v>66380136</v>
       </c>
       <c r="AR36" s="13">
-        <v>66380136</v>
+        <v>52970275</v>
       </c>
       <c r="AS36" s="13">
-        <v>52970275</v>
+        <v>67639588</v>
       </c>
       <c r="AT36" s="13">
-        <v>67639588</v>
+        <v>48804861</v>
       </c>
       <c r="AU36" s="13">
-        <v>48804861</v>
+        <v>47432831</v>
       </c>
       <c r="AV36" s="13">
-        <v>47432831</v>
+        <v>45354285</v>
       </c>
       <c r="AW36" s="13">
-        <v>45354285</v>
+        <v>48477286</v>
       </c>
       <c r="AX36" s="13">
-        <v>48477286</v>
+        <v>50169920</v>
       </c>
       <c r="AY36" s="13">
-        <v>50169920</v>
+        <v>45702718</v>
       </c>
       <c r="AZ36" s="13">
-        <v>45702718</v>
+        <v>47416084</v>
       </c>
       <c r="BA36" s="13">
-        <v>47416084</v>
+        <v>51214725</v>
       </c>
       <c r="BB36" s="13">
-        <v>51214725</v>
+        <v>59424541</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.25">
@@ -4874,8 +4909,8 @@
       <c r="V37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>58</v>
+      <c r="W37" s="11">
+        <v>0</v>
       </c>
       <c r="X37" s="11">
         <v>0</v>
@@ -4904,8 +4939,8 @@
       <c r="AF37" s="11">
         <v>0</v>
       </c>
-      <c r="AG37" s="11">
-        <v>0</v>
+      <c r="AG37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH37" s="11" t="s">
         <v>58</v>
@@ -4916,20 +4951,20 @@
       <c r="AJ37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL37" s="11">
+      <c r="AK37" s="11">
         <v>1656</v>
       </c>
+      <c r="AL37" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM37" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AN37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AO37" s="11" t="s">
-        <v>58</v>
+      <c r="AO37" s="11">
+        <v>0</v>
       </c>
       <c r="AP37" s="11">
         <v>0</v>
@@ -4947,28 +4982,28 @@
         <v>0</v>
       </c>
       <c r="AU37" s="11">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="AV37" s="11">
-        <v>1334</v>
+        <v>1114</v>
       </c>
       <c r="AW37" s="11">
-        <v>1114</v>
+        <v>7122</v>
       </c>
       <c r="AX37" s="11">
-        <v>7122</v>
+        <v>1260</v>
       </c>
       <c r="AY37" s="11">
-        <v>1260</v>
+        <v>152</v>
       </c>
       <c r="AZ37" s="11">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="11">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="BB37" s="11">
-        <v>308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:54" x14ac:dyDescent="0.25">
@@ -5033,41 +5068,41 @@
       <c r="V38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
+      <c r="W38" s="13">
+        <v>745530</v>
       </c>
       <c r="X38" s="13">
-        <v>745530</v>
+        <v>900893</v>
       </c>
       <c r="Y38" s="13">
-        <v>900893</v>
+        <v>726292</v>
       </c>
       <c r="Z38" s="13">
-        <v>726292</v>
+        <v>574826</v>
       </c>
       <c r="AA38" s="13">
-        <v>574826</v>
+        <v>283033</v>
       </c>
       <c r="AB38" s="13">
-        <v>283033</v>
+        <v>272393</v>
       </c>
       <c r="AC38" s="13">
-        <v>272393</v>
+        <v>210621</v>
       </c>
       <c r="AD38" s="13">
-        <v>210621</v>
+        <v>174080</v>
       </c>
       <c r="AE38" s="13">
-        <v>174080</v>
+        <v>121738</v>
       </c>
       <c r="AF38" s="13">
-        <v>121738</v>
+        <v>86250</v>
       </c>
       <c r="AG38" s="13">
-        <v>86250</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>58</v>
@@ -5075,11 +5110,11 @@
       <c r="AJ38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AK38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL38" s="13">
-        <v>0</v>
+      <c r="AK38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM38" s="13" t="s">
         <v>58</v>
@@ -5087,8 +5122,8 @@
       <c r="AN38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="13" t="s">
-        <v>58</v>
+      <c r="AO38" s="13">
+        <v>0</v>
       </c>
       <c r="AP38" s="13">
         <v>0</v>
@@ -5192,101 +5227,101 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>2541700</v>
       </c>
       <c r="X39" s="11">
-        <v>2541700</v>
+        <v>2635036</v>
       </c>
       <c r="Y39" s="11">
-        <v>2635036</v>
+        <v>2593815</v>
       </c>
       <c r="Z39" s="11">
-        <v>2593815</v>
+        <v>2611827</v>
       </c>
       <c r="AA39" s="11">
-        <v>2611827</v>
+        <v>2550881</v>
       </c>
       <c r="AB39" s="11">
-        <v>2550881</v>
+        <v>2391337</v>
       </c>
       <c r="AC39" s="11">
-        <v>2391337</v>
+        <v>2106565</v>
       </c>
       <c r="AD39" s="11">
-        <v>2106565</v>
+        <v>2095587</v>
       </c>
       <c r="AE39" s="11">
-        <v>2095587</v>
+        <v>2775670</v>
       </c>
       <c r="AF39" s="11">
-        <v>2775670</v>
+        <v>2242860</v>
       </c>
       <c r="AG39" s="11">
-        <v>2242860</v>
+        <v>2304370</v>
       </c>
       <c r="AH39" s="11">
-        <v>2304370</v>
+        <v>2639319</v>
       </c>
       <c r="AI39" s="11">
-        <v>2639319</v>
+        <v>2427523</v>
       </c>
       <c r="AJ39" s="11">
-        <v>2427523</v>
+        <v>2562359</v>
       </c>
       <c r="AK39" s="11">
-        <v>2562359</v>
+        <v>2800216</v>
       </c>
       <c r="AL39" s="11">
-        <v>2800216</v>
+        <v>2523846</v>
       </c>
       <c r="AM39" s="11">
-        <v>2523846</v>
+        <v>2331925</v>
       </c>
       <c r="AN39" s="11">
-        <v>2331925</v>
+        <v>2410115</v>
       </c>
       <c r="AO39" s="11">
-        <v>2410115</v>
+        <v>2330385</v>
       </c>
       <c r="AP39" s="11">
-        <v>2330385</v>
+        <v>2337703</v>
       </c>
       <c r="AQ39" s="11">
-        <v>2337703</v>
+        <v>2605945</v>
       </c>
       <c r="AR39" s="11">
-        <v>2605945</v>
+        <v>1996719</v>
       </c>
       <c r="AS39" s="11">
-        <v>1996719</v>
+        <v>2315970</v>
       </c>
       <c r="AT39" s="11">
-        <v>2315970</v>
+        <v>1876064</v>
       </c>
       <c r="AU39" s="11">
-        <v>1876064</v>
+        <v>1873813</v>
       </c>
       <c r="AV39" s="11">
-        <v>1873813</v>
+        <v>1952996</v>
       </c>
       <c r="AW39" s="11">
-        <v>1952996</v>
+        <v>1989907</v>
       </c>
       <c r="AX39" s="11">
-        <v>1989907</v>
+        <v>1940115</v>
       </c>
       <c r="AY39" s="11">
-        <v>1940115</v>
+        <v>1852241</v>
       </c>
       <c r="AZ39" s="11">
-        <v>1852241</v>
+        <v>1802272</v>
       </c>
       <c r="BA39" s="11">
-        <v>1802272</v>
+        <v>1983721</v>
       </c>
       <c r="BB39" s="11">
-        <v>1983721</v>
+        <v>2551461</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.25">
@@ -5351,101 +5386,101 @@
       <c r="V40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
+      <c r="W40" s="13">
+        <v>30339987</v>
       </c>
       <c r="X40" s="13">
-        <v>30339987</v>
+        <v>33185494</v>
       </c>
       <c r="Y40" s="13">
-        <v>33185494</v>
+        <v>31092530</v>
       </c>
       <c r="Z40" s="13">
-        <v>31092530</v>
+        <v>29467135</v>
       </c>
       <c r="AA40" s="13">
-        <v>29467135</v>
+        <v>30089287</v>
       </c>
       <c r="AB40" s="13">
-        <v>30089287</v>
+        <v>30598330</v>
       </c>
       <c r="AC40" s="13">
-        <v>30598330</v>
+        <v>28352398</v>
       </c>
       <c r="AD40" s="13">
-        <v>28352398</v>
+        <v>27728429</v>
       </c>
       <c r="AE40" s="13">
-        <v>27728429</v>
+        <v>29817853</v>
       </c>
       <c r="AF40" s="13">
-        <v>29817853</v>
+        <v>27253387</v>
       </c>
       <c r="AG40" s="13">
-        <v>27253387</v>
+        <v>31028661</v>
       </c>
       <c r="AH40" s="13">
-        <v>31028661</v>
+        <v>33228542</v>
       </c>
       <c r="AI40" s="13">
-        <v>33228542</v>
+        <v>33720402</v>
       </c>
       <c r="AJ40" s="13">
-        <v>33720402</v>
+        <v>33519755</v>
       </c>
       <c r="AK40" s="13">
-        <v>33519755</v>
+        <v>33756058</v>
       </c>
       <c r="AL40" s="13">
-        <v>33756058</v>
+        <v>29258226</v>
       </c>
       <c r="AM40" s="13">
-        <v>29258226</v>
+        <v>27508476</v>
       </c>
       <c r="AN40" s="13">
-        <v>27508476</v>
+        <v>27884234</v>
       </c>
       <c r="AO40" s="13">
-        <v>27884234</v>
+        <v>27053859</v>
       </c>
       <c r="AP40" s="13">
-        <v>27053859</v>
+        <v>27624335</v>
       </c>
       <c r="AQ40" s="13">
-        <v>27624335</v>
+        <v>28596619</v>
       </c>
       <c r="AR40" s="13">
-        <v>28596619</v>
+        <v>27720113</v>
       </c>
       <c r="AS40" s="13">
-        <v>27720113</v>
+        <v>35902084</v>
       </c>
       <c r="AT40" s="13">
-        <v>35902084</v>
+        <v>28405738</v>
       </c>
       <c r="AU40" s="13">
-        <v>28405738</v>
+        <v>27973099</v>
       </c>
       <c r="AV40" s="13">
-        <v>27973099</v>
+        <v>25968930</v>
       </c>
       <c r="AW40" s="13">
-        <v>25968930</v>
+        <v>27613600</v>
       </c>
       <c r="AX40" s="13">
-        <v>27613600</v>
+        <v>26757928</v>
       </c>
       <c r="AY40" s="13">
-        <v>26757928</v>
+        <v>22485348</v>
       </c>
       <c r="AZ40" s="13">
-        <v>22485348</v>
+        <v>21782670</v>
       </c>
       <c r="BA40" s="13">
-        <v>21782670</v>
+        <v>23835702</v>
       </c>
       <c r="BB40" s="13">
-        <v>23835702</v>
+        <v>27280784</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.25">
@@ -5510,80 +5545,80 @@
       <c r="V41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W41" s="11" t="s">
-        <v>58</v>
+      <c r="W41" s="11">
+        <v>5655</v>
       </c>
       <c r="X41" s="11">
-        <v>5655</v>
+        <v>5494</v>
       </c>
       <c r="Y41" s="11">
-        <v>5494</v>
+        <v>4796</v>
       </c>
       <c r="Z41" s="11">
-        <v>4796</v>
+        <v>161421120</v>
       </c>
       <c r="AA41" s="11">
-        <v>161421120</v>
+        <v>2597</v>
       </c>
       <c r="AB41" s="11">
-        <v>2597</v>
+        <v>2248</v>
       </c>
       <c r="AC41" s="11">
-        <v>2248</v>
+        <v>1914</v>
       </c>
       <c r="AD41" s="11">
-        <v>1914</v>
+        <v>2085</v>
       </c>
       <c r="AE41" s="11">
-        <v>2085</v>
+        <v>2759</v>
       </c>
       <c r="AF41" s="11">
-        <v>2759</v>
+        <v>2822</v>
       </c>
       <c r="AG41" s="11">
-        <v>2822</v>
+        <v>111810</v>
       </c>
       <c r="AH41" s="11">
-        <v>111810</v>
+        <v>106030</v>
       </c>
       <c r="AI41" s="11">
-        <v>106030</v>
+        <v>57510</v>
       </c>
       <c r="AJ41" s="11">
-        <v>57510</v>
+        <v>25041</v>
       </c>
       <c r="AK41" s="11">
-        <v>25041</v>
+        <v>0</v>
       </c>
       <c r="AL41" s="11">
-        <v>0</v>
+        <v>6443</v>
       </c>
       <c r="AM41" s="11">
-        <v>6443</v>
+        <v>5988</v>
       </c>
       <c r="AN41" s="11">
-        <v>5988</v>
+        <v>9023</v>
       </c>
       <c r="AO41" s="11">
-        <v>9023</v>
+        <v>215</v>
       </c>
       <c r="AP41" s="11">
-        <v>215</v>
+        <v>1117</v>
       </c>
       <c r="AQ41" s="11">
-        <v>1117</v>
+        <v>0</v>
       </c>
       <c r="AR41" s="11">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="AS41" s="11">
-        <v>713</v>
+        <v>251</v>
       </c>
       <c r="AT41" s="11">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="AU41" s="11">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AV41" s="11">
         <v>0</v>
@@ -5592,19 +5627,19 @@
         <v>0</v>
       </c>
       <c r="AX41" s="11">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AY41" s="11">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="11">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="BA41" s="11">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="11">
-        <v>0</v>
+        <v>229</v>
       </c>
     </row>
     <row r="42" spans="2:54" x14ac:dyDescent="0.25">
@@ -5735,35 +5770,35 @@
       <c r="AR42" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS42" s="13" t="s">
-        <v>58</v>
+      <c r="AS42" s="13">
+        <v>201266</v>
       </c>
       <c r="AT42" s="13">
-        <v>201266</v>
+        <v>395223</v>
       </c>
       <c r="AU42" s="13">
-        <v>395223</v>
+        <v>507987</v>
       </c>
       <c r="AV42" s="13">
-        <v>507987</v>
+        <v>824330</v>
       </c>
       <c r="AW42" s="13">
-        <v>824330</v>
+        <v>1346724</v>
       </c>
       <c r="AX42" s="13">
-        <v>1346724</v>
+        <v>901773</v>
       </c>
       <c r="AY42" s="13">
-        <v>901773</v>
+        <v>744313</v>
       </c>
       <c r="AZ42" s="13">
-        <v>744313</v>
+        <v>809954</v>
       </c>
       <c r="BA42" s="13">
-        <v>809954</v>
+        <v>981146</v>
       </c>
       <c r="BB42" s="13">
-        <v>981146</v>
+        <v>991745</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.25">
@@ -5827,100 +5862,100 @@
         <v>0</v>
       </c>
       <c r="W43" s="15">
-        <v>0</v>
+        <v>120897071</v>
       </c>
       <c r="X43" s="15">
-        <v>120897071</v>
+        <v>128906685</v>
       </c>
       <c r="Y43" s="15">
-        <v>128906685</v>
+        <v>123076887</v>
       </c>
       <c r="Z43" s="15">
-        <v>123076887</v>
+        <v>281889448</v>
       </c>
       <c r="AA43" s="15">
-        <v>281889448</v>
+        <v>129496474</v>
       </c>
       <c r="AB43" s="15">
-        <v>129496474</v>
+        <v>125691818</v>
       </c>
       <c r="AC43" s="15">
-        <v>125691818</v>
+        <v>118898838</v>
       </c>
       <c r="AD43" s="15">
-        <v>118898838</v>
+        <v>116842052</v>
       </c>
       <c r="AE43" s="15">
-        <v>116842052</v>
+        <v>133204907</v>
       </c>
       <c r="AF43" s="15">
-        <v>133204907</v>
+        <v>111045998</v>
       </c>
       <c r="AG43" s="15">
-        <v>111045998</v>
+        <v>131350416</v>
       </c>
       <c r="AH43" s="15">
-        <v>131350416</v>
+        <v>130792775</v>
       </c>
       <c r="AI43" s="15">
-        <v>130792775</v>
+        <v>132544382</v>
       </c>
       <c r="AJ43" s="15">
-        <v>132544382</v>
+        <v>128559075</v>
       </c>
       <c r="AK43" s="15">
-        <v>128559075</v>
+        <v>144832510</v>
       </c>
       <c r="AL43" s="15">
-        <v>144832510</v>
+        <v>120830955</v>
       </c>
       <c r="AM43" s="15">
-        <v>120830955</v>
+        <v>115445907</v>
       </c>
       <c r="AN43" s="15">
-        <v>115445907</v>
+        <v>126717152</v>
       </c>
       <c r="AO43" s="15">
-        <v>126717152</v>
+        <v>123230414</v>
       </c>
       <c r="AP43" s="15">
-        <v>123230414</v>
+        <v>120507861</v>
       </c>
       <c r="AQ43" s="15">
-        <v>120507861</v>
+        <v>129802520</v>
       </c>
       <c r="AR43" s="15">
-        <v>129802520</v>
+        <v>109407161</v>
       </c>
       <c r="AS43" s="15">
-        <v>109407161</v>
+        <v>142807044</v>
       </c>
       <c r="AT43" s="15">
-        <v>142807044</v>
+        <v>111569580</v>
       </c>
       <c r="AU43" s="15">
-        <v>111569580</v>
+        <v>107121222</v>
       </c>
       <c r="AV43" s="15">
-        <v>107121222</v>
+        <v>103387124</v>
       </c>
       <c r="AW43" s="15">
-        <v>103387124</v>
+        <v>110568204</v>
       </c>
       <c r="AX43" s="15">
-        <v>110568204</v>
+        <v>107844579</v>
       </c>
       <c r="AY43" s="15">
-        <v>107844579</v>
+        <v>94259285</v>
       </c>
       <c r="AZ43" s="15">
-        <v>94259285</v>
+        <v>95304167</v>
       </c>
       <c r="BA43" s="15">
-        <v>95304167</v>
+        <v>104266511</v>
       </c>
       <c r="BB43" s="15">
-        <v>104266511</v>
+        <v>117240452</v>
       </c>
     </row>
     <row r="44" spans="2:54" x14ac:dyDescent="0.25">
@@ -6254,8 +6289,8 @@
       <c r="V47" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="15" t="s">
-        <v>58</v>
+      <c r="W47" s="15">
+        <v>0</v>
       </c>
       <c r="X47" s="15">
         <v>0</v>
@@ -6468,8 +6503,8 @@
       <c r="V49" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="15" t="s">
-        <v>58</v>
+      <c r="W49" s="15">
+        <v>0</v>
       </c>
       <c r="X49" s="15">
         <v>0</v>
@@ -6626,100 +6661,100 @@
         <v>0</v>
       </c>
       <c r="W50" s="19">
-        <v>0</v>
+        <v>120897071</v>
       </c>
       <c r="X50" s="19">
-        <v>120897071</v>
+        <v>128906685</v>
       </c>
       <c r="Y50" s="19">
-        <v>128906685</v>
+        <v>123076887</v>
       </c>
       <c r="Z50" s="19">
-        <v>123076887</v>
+        <v>281889448</v>
       </c>
       <c r="AA50" s="19">
-        <v>281889448</v>
+        <v>129496474</v>
       </c>
       <c r="AB50" s="19">
-        <v>129496474</v>
+        <v>125691818</v>
       </c>
       <c r="AC50" s="19">
-        <v>125691818</v>
+        <v>118898838</v>
       </c>
       <c r="AD50" s="19">
-        <v>118898838</v>
+        <v>116842052</v>
       </c>
       <c r="AE50" s="19">
-        <v>116842052</v>
+        <v>133204907</v>
       </c>
       <c r="AF50" s="19">
-        <v>133204907</v>
+        <v>111045998</v>
       </c>
       <c r="AG50" s="19">
-        <v>111045998</v>
+        <v>131350416</v>
       </c>
       <c r="AH50" s="19">
-        <v>131350416</v>
+        <v>130792775</v>
       </c>
       <c r="AI50" s="19">
-        <v>130792775</v>
+        <v>132544382</v>
       </c>
       <c r="AJ50" s="19">
-        <v>132544382</v>
+        <v>128559075</v>
       </c>
       <c r="AK50" s="19">
-        <v>128559075</v>
+        <v>144832510</v>
       </c>
       <c r="AL50" s="19">
-        <v>144832510</v>
+        <v>120830955</v>
       </c>
       <c r="AM50" s="19">
-        <v>120830955</v>
+        <v>115445907</v>
       </c>
       <c r="AN50" s="19">
-        <v>115445907</v>
+        <v>126717152</v>
       </c>
       <c r="AO50" s="19">
-        <v>126717152</v>
+        <v>123230414</v>
       </c>
       <c r="AP50" s="19">
-        <v>123230414</v>
+        <v>120507861</v>
       </c>
       <c r="AQ50" s="19">
-        <v>120507861</v>
+        <v>129802520</v>
       </c>
       <c r="AR50" s="19">
-        <v>129802520</v>
+        <v>109407161</v>
       </c>
       <c r="AS50" s="19">
-        <v>109407161</v>
+        <v>142807044</v>
       </c>
       <c r="AT50" s="19">
-        <v>142807044</v>
+        <v>111569580</v>
       </c>
       <c r="AU50" s="19">
-        <v>111569580</v>
+        <v>107121222</v>
       </c>
       <c r="AV50" s="19">
-        <v>107121222</v>
+        <v>103387124</v>
       </c>
       <c r="AW50" s="19">
-        <v>103387124</v>
+        <v>110568204</v>
       </c>
       <c r="AX50" s="19">
-        <v>110568204</v>
+        <v>107844579</v>
       </c>
       <c r="AY50" s="19">
-        <v>107844579</v>
+        <v>94259285</v>
       </c>
       <c r="AZ50" s="19">
-        <v>94259285</v>
+        <v>95304167</v>
       </c>
       <c r="BA50" s="19">
-        <v>95304167</v>
+        <v>104266511</v>
       </c>
       <c r="BB50" s="19">
-        <v>104266511</v>
+        <v>117240452</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.25">
@@ -7218,101 +7253,101 @@
       <c r="V57" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="11" t="s">
-        <v>58</v>
+      <c r="W57" s="11">
+        <v>19257</v>
       </c>
       <c r="X57" s="11">
-        <v>19257</v>
+        <v>19091</v>
       </c>
       <c r="Y57" s="11">
-        <v>19091</v>
+        <v>21686</v>
       </c>
       <c r="Z57" s="11">
-        <v>21686</v>
+        <v>25120</v>
       </c>
       <c r="AA57" s="11">
-        <v>25120</v>
+        <v>28085</v>
       </c>
       <c r="AB57" s="11">
-        <v>28085</v>
+        <v>31177</v>
       </c>
       <c r="AC57" s="11">
-        <v>31177</v>
+        <v>26729</v>
       </c>
       <c r="AD57" s="11">
-        <v>26729</v>
+        <v>24057</v>
       </c>
       <c r="AE57" s="11">
-        <v>24057</v>
+        <v>29822</v>
       </c>
       <c r="AF57" s="11">
-        <v>29822</v>
+        <v>16880</v>
       </c>
       <c r="AG57" s="11">
-        <v>16880</v>
+        <v>11091</v>
       </c>
       <c r="AH57" s="11">
-        <v>11091</v>
+        <v>19898</v>
       </c>
       <c r="AI57" s="11">
-        <v>19898</v>
+        <v>22155</v>
       </c>
       <c r="AJ57" s="11">
-        <v>22155</v>
+        <v>21017</v>
       </c>
       <c r="AK57" s="11">
-        <v>21017</v>
+        <v>29361</v>
       </c>
       <c r="AL57" s="11">
-        <v>29361</v>
+        <v>30583</v>
       </c>
       <c r="AM57" s="11">
-        <v>30583</v>
+        <v>29217</v>
       </c>
       <c r="AN57" s="11">
-        <v>29217</v>
+        <v>32352</v>
       </c>
       <c r="AO57" s="11">
-        <v>32352</v>
+        <v>30611</v>
       </c>
       <c r="AP57" s="11">
-        <v>30611</v>
+        <v>28504</v>
       </c>
       <c r="AQ57" s="11">
-        <v>28504</v>
+        <v>25982</v>
       </c>
       <c r="AR57" s="11">
-        <v>25982</v>
+        <v>21147</v>
       </c>
       <c r="AS57" s="11">
-        <v>21147</v>
+        <v>24586</v>
       </c>
       <c r="AT57" s="11">
-        <v>24586</v>
+        <v>20484</v>
       </c>
       <c r="AU57" s="11">
-        <v>20484</v>
+        <v>22006</v>
       </c>
       <c r="AV57" s="11">
-        <v>22006</v>
+        <v>22320</v>
       </c>
       <c r="AW57" s="11">
-        <v>22320</v>
+        <v>24122</v>
       </c>
       <c r="AX57" s="11">
-        <v>24122</v>
+        <v>26782</v>
       </c>
       <c r="AY57" s="11">
-        <v>26782</v>
+        <v>24834</v>
       </c>
       <c r="AZ57" s="11">
-        <v>24834</v>
+        <v>23821</v>
       </c>
       <c r="BA57" s="11">
-        <v>23821</v>
+        <v>29723</v>
       </c>
       <c r="BB57" s="11">
-        <v>29723</v>
+        <v>47070</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.25">
@@ -7377,101 +7412,101 @@
       <c r="V58" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="13" t="s">
-        <v>58</v>
+      <c r="W58" s="13">
+        <v>585002</v>
       </c>
       <c r="X58" s="13">
-        <v>585002</v>
+        <v>729611</v>
       </c>
       <c r="Y58" s="13">
-        <v>729611</v>
+        <v>648355</v>
       </c>
       <c r="Z58" s="13">
-        <v>648355</v>
+        <v>636887</v>
       </c>
       <c r="AA58" s="13">
-        <v>636887</v>
+        <v>670461</v>
       </c>
       <c r="AB58" s="13">
-        <v>670461</v>
+        <v>599483</v>
       </c>
       <c r="AC58" s="13">
-        <v>599483</v>
+        <v>583108</v>
       </c>
       <c r="AD58" s="13">
-        <v>583108</v>
+        <v>643083</v>
       </c>
       <c r="AE58" s="13">
-        <v>643083</v>
+        <v>756688</v>
       </c>
       <c r="AF58" s="13">
-        <v>756688</v>
+        <v>914139</v>
       </c>
       <c r="AG58" s="13">
-        <v>914139</v>
+        <v>1091281</v>
       </c>
       <c r="AH58" s="13">
-        <v>1091281</v>
+        <v>1359509</v>
       </c>
       <c r="AI58" s="13">
-        <v>1359509</v>
+        <v>1545280</v>
       </c>
       <c r="AJ58" s="13">
-        <v>1545280</v>
+        <v>1508859</v>
       </c>
       <c r="AK58" s="13">
-        <v>1508859</v>
+        <v>1523560</v>
       </c>
       <c r="AL58" s="13">
-        <v>1523560</v>
+        <v>1249471</v>
       </c>
       <c r="AM58" s="13">
-        <v>1249471</v>
+        <v>1017604</v>
       </c>
       <c r="AN58" s="13">
-        <v>1017604</v>
+        <v>1072647</v>
       </c>
       <c r="AO58" s="13">
-        <v>1072647</v>
+        <v>945572</v>
       </c>
       <c r="AP58" s="13">
-        <v>945572</v>
+        <v>938030</v>
       </c>
       <c r="AQ58" s="13">
-        <v>938030</v>
+        <v>1011912</v>
       </c>
       <c r="AR58" s="13">
-        <v>1011912</v>
+        <v>1159348</v>
       </c>
       <c r="AS58" s="13">
-        <v>1159348</v>
+        <v>1356891</v>
       </c>
       <c r="AT58" s="13">
-        <v>1356891</v>
+        <v>1526004</v>
       </c>
       <c r="AU58" s="13">
-        <v>1526004</v>
+        <v>1727081</v>
       </c>
       <c r="AV58" s="13">
-        <v>1727081</v>
+        <v>1710685</v>
       </c>
       <c r="AW58" s="13">
-        <v>1710685</v>
+        <v>1747365</v>
       </c>
       <c r="AX58" s="13">
-        <v>1747365</v>
+        <v>1436820</v>
       </c>
       <c r="AY58" s="13">
-        <v>1436820</v>
+        <v>1064517</v>
       </c>
       <c r="AZ58" s="13">
-        <v>1064517</v>
+        <v>1047146</v>
       </c>
       <c r="BA58" s="13">
-        <v>1047146</v>
+        <v>1143177</v>
       </c>
       <c r="BB58" s="13">
-        <v>1143177</v>
+        <v>1228545</v>
       </c>
     </row>
     <row r="59" spans="2:54" x14ac:dyDescent="0.25">
@@ -7536,101 +7571,101 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>2151811</v>
       </c>
       <c r="X59" s="11">
-        <v>2151811</v>
+        <v>2285483</v>
       </c>
       <c r="Y59" s="11">
-        <v>2285483</v>
+        <v>2425327</v>
       </c>
       <c r="Z59" s="11">
-        <v>2425327</v>
+        <v>2631987</v>
       </c>
       <c r="AA59" s="11">
-        <v>2631987</v>
+        <v>3093213</v>
       </c>
       <c r="AB59" s="11">
-        <v>3093213</v>
+        <v>2844327</v>
       </c>
       <c r="AC59" s="11">
-        <v>2844327</v>
+        <v>2898215</v>
       </c>
       <c r="AD59" s="11">
-        <v>2898215</v>
+        <v>2997082</v>
       </c>
       <c r="AE59" s="11">
-        <v>2997082</v>
+        <v>3925203</v>
       </c>
       <c r="AF59" s="11">
-        <v>3925203</v>
+        <v>2999325</v>
       </c>
       <c r="AG59" s="11">
-        <v>2999325</v>
+        <v>3449680</v>
       </c>
       <c r="AH59" s="11">
-        <v>3449680</v>
+        <v>3743355</v>
       </c>
       <c r="AI59" s="11">
-        <v>3743355</v>
+        <v>3920905</v>
       </c>
       <c r="AJ59" s="11">
-        <v>3920905</v>
+        <v>3993741</v>
       </c>
       <c r="AK59" s="11">
-        <v>3993741</v>
+        <v>4439205</v>
       </c>
       <c r="AL59" s="11">
-        <v>4439205</v>
+        <v>4062786</v>
       </c>
       <c r="AM59" s="11">
-        <v>4062786</v>
+        <v>4009310</v>
       </c>
       <c r="AN59" s="11">
-        <v>4009310</v>
+        <v>4211898</v>
       </c>
       <c r="AO59" s="11">
-        <v>4211898</v>
+        <v>4130260</v>
       </c>
       <c r="AP59" s="11">
-        <v>4130260</v>
+        <v>4061542</v>
       </c>
       <c r="AQ59" s="11">
-        <v>4061542</v>
+        <v>5012506</v>
       </c>
       <c r="AR59" s="11">
-        <v>5012506</v>
+        <v>3503471</v>
       </c>
       <c r="AS59" s="11">
-        <v>3503471</v>
+        <v>5722771</v>
       </c>
       <c r="AT59" s="11">
-        <v>5722771</v>
+        <v>4711193</v>
       </c>
       <c r="AU59" s="11">
-        <v>4711193</v>
+        <v>3967881</v>
       </c>
       <c r="AV59" s="11">
-        <v>3967881</v>
+        <v>4241702</v>
       </c>
       <c r="AW59" s="11">
-        <v>4241702</v>
+        <v>4603288</v>
       </c>
       <c r="AX59" s="11">
-        <v>4603288</v>
+        <v>4744859</v>
       </c>
       <c r="AY59" s="11">
-        <v>4744859</v>
+        <v>4443387</v>
       </c>
       <c r="AZ59" s="11">
-        <v>4443387</v>
+        <v>4607831</v>
       </c>
       <c r="BA59" s="11">
-        <v>4607831</v>
+        <v>5307938</v>
       </c>
       <c r="BB59" s="11">
-        <v>5307938</v>
+        <v>5428002</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.25">
@@ -7695,101 +7730,101 @@
       <c r="V60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
+      <c r="W60" s="13">
+        <v>4990908</v>
       </c>
       <c r="X60" s="13">
-        <v>4990908</v>
+        <v>5265812</v>
       </c>
       <c r="Y60" s="13">
-        <v>5265812</v>
+        <v>5900747</v>
       </c>
       <c r="Z60" s="13">
-        <v>5900747</v>
+        <v>6504085</v>
       </c>
       <c r="AA60" s="13">
-        <v>6504085</v>
+        <v>7219003</v>
       </c>
       <c r="AB60" s="13">
-        <v>7219003</v>
+        <v>7311372</v>
       </c>
       <c r="AC60" s="13">
-        <v>7311372</v>
+        <v>6935743</v>
       </c>
       <c r="AD60" s="13">
-        <v>6935743</v>
+        <v>7296125</v>
       </c>
       <c r="AE60" s="13">
-        <v>7296125</v>
+        <v>8748094</v>
       </c>
       <c r="AF60" s="13">
-        <v>8748094</v>
+        <v>6509840</v>
       </c>
       <c r="AG60" s="13">
-        <v>6509840</v>
+        <v>8066608</v>
       </c>
       <c r="AH60" s="13">
-        <v>8066608</v>
+        <v>7626220</v>
       </c>
       <c r="AI60" s="13">
-        <v>7626220</v>
+        <v>7920911</v>
       </c>
       <c r="AJ60" s="13">
-        <v>7920911</v>
+        <v>8360736</v>
       </c>
       <c r="AK60" s="13">
-        <v>8360736</v>
+        <v>10101834</v>
       </c>
       <c r="AL60" s="13">
-        <v>10101834</v>
+        <v>8398934</v>
       </c>
       <c r="AM60" s="13">
-        <v>8398934</v>
+        <v>8499351</v>
       </c>
       <c r="AN60" s="13">
-        <v>8499351</v>
+        <v>9596331</v>
       </c>
       <c r="AO60" s="13">
-        <v>9596331</v>
+        <v>10347719</v>
       </c>
       <c r="AP60" s="13">
-        <v>10347719</v>
+        <v>10772289</v>
       </c>
       <c r="AQ60" s="13">
-        <v>10772289</v>
+        <v>13235697</v>
       </c>
       <c r="AR60" s="13">
-        <v>13235697</v>
+        <v>9796097</v>
       </c>
       <c r="AS60" s="13">
-        <v>9796097</v>
+        <v>14324572</v>
       </c>
       <c r="AT60" s="13">
-        <v>14324572</v>
+        <v>13498000</v>
       </c>
       <c r="AU60" s="13">
-        <v>13498000</v>
+        <v>14494598</v>
       </c>
       <c r="AV60" s="13">
-        <v>14494598</v>
+        <v>14227007</v>
       </c>
       <c r="AW60" s="13">
-        <v>14227007</v>
+        <v>14823623</v>
       </c>
       <c r="AX60" s="13">
-        <v>14823623</v>
+        <v>14758883</v>
       </c>
       <c r="AY60" s="13">
-        <v>14758883</v>
+        <v>13660816</v>
       </c>
       <c r="AZ60" s="13">
-        <v>13660816</v>
+        <v>14326316</v>
       </c>
       <c r="BA60" s="13">
-        <v>14326316</v>
+        <v>16814363</v>
       </c>
       <c r="BB60" s="13">
-        <v>16814363</v>
+        <v>18473690</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.25">
@@ -7854,8 +7889,8 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>0</v>
       </c>
       <c r="X61" s="11">
         <v>0</v>
@@ -7897,10 +7932,10 @@
         <v>0</v>
       </c>
       <c r="AK61" s="11">
-        <v>0</v>
+        <v>2755119</v>
       </c>
       <c r="AL61" s="11">
-        <v>2755119</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="11">
         <v>0</v>
@@ -7924,31 +7959,31 @@
         <v>0</v>
       </c>
       <c r="AT61" s="11">
-        <v>0</v>
+        <v>103535</v>
       </c>
       <c r="AU61" s="11">
-        <v>103535</v>
+        <v>8731</v>
       </c>
       <c r="AV61" s="11">
-        <v>8731</v>
+        <v>5038</v>
       </c>
       <c r="AW61" s="11">
-        <v>5038</v>
+        <v>279748</v>
       </c>
       <c r="AX61" s="11">
-        <v>279748</v>
+        <v>4506</v>
       </c>
       <c r="AY61" s="11">
-        <v>4506</v>
+        <v>4331</v>
       </c>
       <c r="AZ61" s="11">
-        <v>4331</v>
+        <v>164511</v>
       </c>
       <c r="BA61" s="11">
-        <v>164511</v>
+        <v>4526</v>
       </c>
       <c r="BB61" s="11">
-        <v>4526</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.25">
@@ -8013,38 +8048,38 @@
       <c r="V62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="13" t="s">
-        <v>58</v>
+      <c r="W62" s="13">
+        <v>44553</v>
       </c>
       <c r="X62" s="13">
-        <v>44553</v>
+        <v>54408</v>
       </c>
       <c r="Y62" s="13">
-        <v>54408</v>
+        <v>49016</v>
       </c>
       <c r="Z62" s="13">
-        <v>49016</v>
+        <v>46330</v>
       </c>
       <c r="AA62" s="13">
-        <v>46330</v>
+        <v>32613</v>
       </c>
       <c r="AB62" s="13">
-        <v>32613</v>
+        <v>33980</v>
       </c>
       <c r="AC62" s="13">
-        <v>33980</v>
+        <v>26077</v>
       </c>
       <c r="AD62" s="13">
-        <v>26077</v>
+        <v>22750</v>
       </c>
       <c r="AE62" s="13">
-        <v>22750</v>
+        <v>15354</v>
       </c>
       <c r="AF62" s="13">
-        <v>15354</v>
+        <v>10058</v>
       </c>
       <c r="AG62" s="13">
-        <v>10058</v>
+        <v>0</v>
       </c>
       <c r="AH62" s="13">
         <v>0</v>
@@ -8172,101 +8207,101 @@
       <c r="V63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W63" s="11" t="s">
-        <v>58</v>
+      <c r="W63" s="11">
+        <v>212010</v>
       </c>
       <c r="X63" s="11">
-        <v>212010</v>
+        <v>228097</v>
       </c>
       <c r="Y63" s="11">
-        <v>228097</v>
+        <v>232289</v>
       </c>
       <c r="Z63" s="11">
-        <v>232289</v>
+        <v>244016</v>
       </c>
       <c r="AA63" s="11">
-        <v>244016</v>
+        <v>276674</v>
       </c>
       <c r="AB63" s="11">
-        <v>276674</v>
+        <v>288483</v>
       </c>
       <c r="AC63" s="11">
-        <v>288483</v>
+        <v>274387</v>
       </c>
       <c r="AD63" s="11">
-        <v>274387</v>
+        <v>273734</v>
       </c>
       <c r="AE63" s="11">
-        <v>273734</v>
+        <v>359663</v>
       </c>
       <c r="AF63" s="11">
-        <v>359663</v>
+        <v>297043</v>
       </c>
       <c r="AG63" s="11">
-        <v>297043</v>
+        <v>308827</v>
       </c>
       <c r="AH63" s="11">
-        <v>308827</v>
+        <v>335207</v>
       </c>
       <c r="AI63" s="11">
-        <v>335207</v>
+        <v>369689</v>
       </c>
       <c r="AJ63" s="11">
-        <v>369689</v>
+        <v>365617</v>
       </c>
       <c r="AK63" s="11">
-        <v>365617</v>
+        <v>422248</v>
       </c>
       <c r="AL63" s="11">
-        <v>422248</v>
+        <v>399701</v>
       </c>
       <c r="AM63" s="11">
-        <v>399701</v>
+        <v>378506</v>
       </c>
       <c r="AN63" s="11">
-        <v>378506</v>
+        <v>386569</v>
       </c>
       <c r="AO63" s="11">
-        <v>386569</v>
+        <v>377865</v>
       </c>
       <c r="AP63" s="11">
-        <v>377865</v>
+        <v>380540</v>
       </c>
       <c r="AQ63" s="11">
-        <v>380540</v>
+        <v>446524</v>
       </c>
       <c r="AR63" s="11">
-        <v>446524</v>
+        <v>352952</v>
       </c>
       <c r="AS63" s="11">
-        <v>352952</v>
+        <v>433235</v>
       </c>
       <c r="AT63" s="11">
-        <v>433235</v>
+        <v>372635</v>
       </c>
       <c r="AU63" s="11">
-        <v>372635</v>
+        <v>408102</v>
       </c>
       <c r="AV63" s="11">
-        <v>408102</v>
+        <v>423248</v>
       </c>
       <c r="AW63" s="11">
-        <v>423248</v>
+        <v>443416</v>
       </c>
       <c r="AX63" s="11">
-        <v>443416</v>
+        <v>434388</v>
       </c>
       <c r="AY63" s="11">
-        <v>434388</v>
+        <v>410089</v>
       </c>
       <c r="AZ63" s="11">
-        <v>410089</v>
+        <v>423647</v>
       </c>
       <c r="BA63" s="11">
-        <v>423647</v>
+        <v>473244</v>
       </c>
       <c r="BB63" s="11">
-        <v>473244</v>
+        <v>636315</v>
       </c>
     </row>
     <row r="64" spans="2:54" x14ac:dyDescent="0.25">
@@ -8331,101 +8366,101 @@
       <c r="V64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W64" s="13" t="s">
-        <v>58</v>
+      <c r="W64" s="13">
+        <v>2972383</v>
       </c>
       <c r="X64" s="13">
-        <v>2972383</v>
+        <v>3257940</v>
       </c>
       <c r="Y64" s="13">
-        <v>3257940</v>
+        <v>3206542</v>
       </c>
       <c r="Z64" s="13">
-        <v>3206542</v>
+        <v>3351039</v>
       </c>
       <c r="AA64" s="13">
-        <v>3351039</v>
+        <v>3612938</v>
       </c>
       <c r="AB64" s="13">
-        <v>3612938</v>
+        <v>3941276</v>
       </c>
       <c r="AC64" s="13">
-        <v>3941276</v>
+        <v>3637068</v>
       </c>
       <c r="AD64" s="13">
-        <v>3637068</v>
+        <v>3530372</v>
       </c>
       <c r="AE64" s="13">
-        <v>3530372</v>
+        <v>4060749</v>
       </c>
       <c r="AF64" s="13">
-        <v>4060749</v>
+        <v>3332831</v>
       </c>
       <c r="AG64" s="13">
-        <v>3332831</v>
+        <v>3940472</v>
       </c>
       <c r="AH64" s="13">
-        <v>3940472</v>
+        <v>4271109</v>
       </c>
       <c r="AI64" s="13">
-        <v>4271109</v>
+        <v>4518665</v>
       </c>
       <c r="AJ64" s="13">
-        <v>4518665</v>
+        <v>4474989</v>
       </c>
       <c r="AK64" s="13">
-        <v>4474989</v>
+        <v>5096411</v>
       </c>
       <c r="AL64" s="13">
-        <v>5096411</v>
+        <v>4951513</v>
       </c>
       <c r="AM64" s="13">
-        <v>4951513</v>
+        <v>4951413</v>
       </c>
       <c r="AN64" s="13">
-        <v>4951413</v>
+        <v>4968123</v>
       </c>
       <c r="AO64" s="13">
-        <v>4968123</v>
+        <v>4819676</v>
       </c>
       <c r="AP64" s="13">
-        <v>4819676</v>
+        <v>4964394</v>
       </c>
       <c r="AQ64" s="13">
-        <v>4964394</v>
+        <v>5484395</v>
       </c>
       <c r="AR64" s="13">
-        <v>5484395</v>
+        <v>4787700</v>
       </c>
       <c r="AS64" s="13">
-        <v>4787700</v>
+        <v>6629414</v>
       </c>
       <c r="AT64" s="13">
-        <v>6629414</v>
+        <v>6264816</v>
       </c>
       <c r="AU64" s="13">
-        <v>6264816</v>
+        <v>6871349</v>
       </c>
       <c r="AV64" s="13">
-        <v>6871349</v>
+        <v>6677201</v>
       </c>
       <c r="AW64" s="13">
-        <v>6677201</v>
+        <v>7461348</v>
       </c>
       <c r="AX64" s="13">
-        <v>7461348</v>
+        <v>7721704</v>
       </c>
       <c r="AY64" s="13">
-        <v>7721704</v>
+        <v>6895939</v>
       </c>
       <c r="AZ64" s="13">
-        <v>6895939</v>
+        <v>6708641</v>
       </c>
       <c r="BA64" s="13">
-        <v>6708641</v>
+        <v>7401744</v>
       </c>
       <c r="BB64" s="13">
-        <v>7401744</v>
+        <v>8967356</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.25">
@@ -8490,101 +8525,101 @@
       <c r="V65" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>58</v>
+      <c r="W65" s="11">
+        <v>982</v>
       </c>
       <c r="X65" s="11">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="Y65" s="11">
-        <v>954</v>
+        <v>832</v>
       </c>
       <c r="Z65" s="11">
-        <v>832</v>
+        <v>629</v>
       </c>
       <c r="AA65" s="11">
-        <v>629</v>
+        <v>451</v>
       </c>
       <c r="AB65" s="11">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="AC65" s="11">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="AD65" s="11">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="AE65" s="11">
-        <v>362</v>
+        <v>479</v>
       </c>
       <c r="AF65" s="11">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AG65" s="11">
-        <v>490</v>
+        <v>12179</v>
       </c>
       <c r="AH65" s="11">
-        <v>12179</v>
+        <v>12743</v>
       </c>
       <c r="AI65" s="11">
-        <v>12743</v>
+        <v>7060</v>
       </c>
       <c r="AJ65" s="11">
-        <v>7060</v>
+        <v>2935</v>
       </c>
       <c r="AK65" s="11">
-        <v>2935</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="11">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="AM65" s="11">
-        <v>952</v>
+        <v>866</v>
       </c>
       <c r="AN65" s="11">
-        <v>866</v>
+        <v>995</v>
       </c>
       <c r="AO65" s="11">
-        <v>995</v>
+        <v>53</v>
       </c>
       <c r="AP65" s="11">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="AQ65" s="11">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="AR65" s="11">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="AS65" s="11">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="AT65" s="11">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="AU65" s="11">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AV65" s="11">
         <v>0</v>
       </c>
       <c r="AW65" s="11">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AX65" s="11">
         <v>9</v>
       </c>
       <c r="AY65" s="11">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="11">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="BA65" s="11">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="11">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.25">
@@ -8715,35 +8750,35 @@
       <c r="AR66" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS66" s="13" t="s">
-        <v>58</v>
+      <c r="AS66" s="13">
+        <v>20447</v>
       </c>
       <c r="AT66" s="13">
-        <v>20447</v>
+        <v>40470</v>
       </c>
       <c r="AU66" s="13">
-        <v>40470</v>
+        <v>53595</v>
       </c>
       <c r="AV66" s="13">
-        <v>53595</v>
+        <v>84891</v>
       </c>
       <c r="AW66" s="13">
-        <v>84891</v>
+        <v>142170</v>
       </c>
       <c r="AX66" s="13">
-        <v>142170</v>
+        <v>99683</v>
       </c>
       <c r="AY66" s="13">
-        <v>99683</v>
+        <v>84776</v>
       </c>
       <c r="AZ66" s="13">
-        <v>84776</v>
+        <v>94643</v>
       </c>
       <c r="BA66" s="13">
-        <v>94643</v>
+        <v>115263</v>
       </c>
       <c r="BB66" s="13">
-        <v>115263</v>
+        <v>117047</v>
       </c>
     </row>
     <row r="67" spans="2:54" x14ac:dyDescent="0.25">
@@ -8807,100 +8842,100 @@
         <v>0</v>
       </c>
       <c r="W67" s="15">
-        <v>0</v>
+        <v>10976906</v>
       </c>
       <c r="X67" s="15">
-        <v>10976906</v>
+        <v>11841396</v>
       </c>
       <c r="Y67" s="15">
-        <v>11841396</v>
+        <v>12484794</v>
       </c>
       <c r="Z67" s="15">
-        <v>12484794</v>
+        <v>13440093</v>
       </c>
       <c r="AA67" s="15">
-        <v>13440093</v>
+        <v>14933438</v>
       </c>
       <c r="AB67" s="15">
-        <v>14933438</v>
+        <v>15050488</v>
       </c>
       <c r="AC67" s="15">
-        <v>15050488</v>
+        <v>14381659</v>
       </c>
       <c r="AD67" s="15">
-        <v>14381659</v>
+        <v>14787565</v>
       </c>
       <c r="AE67" s="15">
-        <v>14787565</v>
+        <v>17896052</v>
       </c>
       <c r="AF67" s="15">
-        <v>17896052</v>
+        <v>14080606</v>
       </c>
       <c r="AG67" s="15">
-        <v>14080606</v>
+        <v>16880138</v>
       </c>
       <c r="AH67" s="15">
-        <v>16880138</v>
+        <v>17368041</v>
       </c>
       <c r="AI67" s="15">
-        <v>17368041</v>
+        <v>18304665</v>
       </c>
       <c r="AJ67" s="15">
-        <v>18304665</v>
+        <v>18727894</v>
       </c>
       <c r="AK67" s="15">
-        <v>18727894</v>
+        <v>24367738</v>
       </c>
       <c r="AL67" s="15">
-        <v>24367738</v>
+        <v>19093940</v>
       </c>
       <c r="AM67" s="15">
-        <v>19093940</v>
+        <v>18886267</v>
       </c>
       <c r="AN67" s="15">
-        <v>18886267</v>
+        <v>20268915</v>
       </c>
       <c r="AO67" s="15">
-        <v>20268915</v>
+        <v>20651756</v>
       </c>
       <c r="AP67" s="15">
-        <v>20651756</v>
+        <v>21145585</v>
       </c>
       <c r="AQ67" s="15">
-        <v>21145585</v>
+        <v>25217016</v>
       </c>
       <c r="AR67" s="15">
-        <v>25217016</v>
+        <v>19620907</v>
       </c>
       <c r="AS67" s="15">
-        <v>19620907</v>
+        <v>28511983</v>
       </c>
       <c r="AT67" s="15">
-        <v>28511983</v>
+        <v>26537159</v>
       </c>
       <c r="AU67" s="15">
-        <v>26537159</v>
+        <v>27553343</v>
       </c>
       <c r="AV67" s="15">
-        <v>27553343</v>
+        <v>27392092</v>
       </c>
       <c r="AW67" s="15">
-        <v>27392092</v>
+        <v>29525089</v>
       </c>
       <c r="AX67" s="15">
-        <v>29525089</v>
+        <v>29227634</v>
       </c>
       <c r="AY67" s="15">
-        <v>29227634</v>
+        <v>26588689</v>
       </c>
       <c r="AZ67" s="15">
-        <v>26588689</v>
+        <v>27396744</v>
       </c>
       <c r="BA67" s="15">
-        <v>27396744</v>
+        <v>31289978</v>
       </c>
       <c r="BB67" s="15">
-        <v>31289978</v>
+        <v>34898059</v>
       </c>
     </row>
     <row r="68" spans="2:54" x14ac:dyDescent="0.25">
@@ -9236,8 +9271,8 @@
       <c r="V71" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W71" s="15" t="s">
-        <v>58</v>
+      <c r="W71" s="15">
+        <v>0</v>
       </c>
       <c r="X71" s="15">
         <v>0</v>
@@ -9452,8 +9487,8 @@
       <c r="V73" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W73" s="15" t="s">
-        <v>58</v>
+      <c r="W73" s="15">
+        <v>0</v>
       </c>
       <c r="X73" s="15">
         <v>0</v>
@@ -9668,8 +9703,8 @@
       <c r="V75" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W75" s="11" t="s">
-        <v>58</v>
+      <c r="W75" s="11">
+        <v>0</v>
       </c>
       <c r="X75" s="11">
         <v>0</v>
@@ -9826,100 +9861,100 @@
         <v>0</v>
       </c>
       <c r="W76" s="19">
-        <v>0</v>
+        <v>10976906</v>
       </c>
       <c r="X76" s="19">
-        <v>10976906</v>
+        <v>11841396</v>
       </c>
       <c r="Y76" s="19">
-        <v>11841396</v>
+        <v>12484794</v>
       </c>
       <c r="Z76" s="19">
-        <v>12484794</v>
+        <v>13440093</v>
       </c>
       <c r="AA76" s="19">
-        <v>13440093</v>
+        <v>14933438</v>
       </c>
       <c r="AB76" s="19">
-        <v>14933438</v>
+        <v>15050488</v>
       </c>
       <c r="AC76" s="19">
-        <v>15050488</v>
+        <v>14381659</v>
       </c>
       <c r="AD76" s="19">
-        <v>14381659</v>
+        <v>14787565</v>
       </c>
       <c r="AE76" s="19">
-        <v>14787565</v>
+        <v>17896052</v>
       </c>
       <c r="AF76" s="19">
-        <v>17896052</v>
+        <v>14080606</v>
       </c>
       <c r="AG76" s="19">
-        <v>14080606</v>
+        <v>16880138</v>
       </c>
       <c r="AH76" s="19">
-        <v>16880138</v>
+        <v>17368041</v>
       </c>
       <c r="AI76" s="19">
-        <v>17368041</v>
+        <v>18304665</v>
       </c>
       <c r="AJ76" s="19">
-        <v>18304665</v>
+        <v>18727894</v>
       </c>
       <c r="AK76" s="19">
-        <v>18727894</v>
+        <v>24367738</v>
       </c>
       <c r="AL76" s="19">
-        <v>24367738</v>
+        <v>19093940</v>
       </c>
       <c r="AM76" s="19">
-        <v>19093940</v>
+        <v>18886267</v>
       </c>
       <c r="AN76" s="19">
-        <v>18886267</v>
+        <v>20268915</v>
       </c>
       <c r="AO76" s="19">
-        <v>20268915</v>
+        <v>20651756</v>
       </c>
       <c r="AP76" s="19">
-        <v>20651756</v>
+        <v>21145585</v>
       </c>
       <c r="AQ76" s="19">
-        <v>21145585</v>
+        <v>25217016</v>
       </c>
       <c r="AR76" s="19">
-        <v>25217016</v>
+        <v>19620907</v>
       </c>
       <c r="AS76" s="19">
-        <v>19620907</v>
+        <v>28511983</v>
       </c>
       <c r="AT76" s="19">
-        <v>28511983</v>
+        <v>26537159</v>
       </c>
       <c r="AU76" s="19">
-        <v>26537159</v>
+        <v>27553343</v>
       </c>
       <c r="AV76" s="19">
-        <v>27553343</v>
+        <v>27392092</v>
       </c>
       <c r="AW76" s="19">
-        <v>27392092</v>
+        <v>29525089</v>
       </c>
       <c r="AX76" s="19">
-        <v>29525089</v>
+        <v>29227634</v>
       </c>
       <c r="AY76" s="19">
-        <v>29227634</v>
+        <v>26588689</v>
       </c>
       <c r="AZ76" s="19">
-        <v>26588689</v>
+        <v>27396744</v>
       </c>
       <c r="BA76" s="19">
-        <v>27396744</v>
+        <v>31289978</v>
       </c>
       <c r="BB76" s="19">
-        <v>31289978</v>
+        <v>34898059</v>
       </c>
     </row>
     <row r="77" spans="2:54" x14ac:dyDescent="0.25">
@@ -10418,101 +10453,101 @@
       <c r="V83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>58</v>
+      <c r="W83" s="11">
+        <v>130097</v>
       </c>
       <c r="X83" s="11">
-        <v>130097</v>
+        <v>141857</v>
       </c>
       <c r="Y83" s="11">
-        <v>141857</v>
+        <v>143573</v>
       </c>
       <c r="Z83" s="11">
-        <v>143573</v>
+        <v>152534</v>
       </c>
       <c r="AA83" s="11">
-        <v>152534</v>
+        <v>168952</v>
       </c>
       <c r="AB83" s="11">
-        <v>168952</v>
+        <v>175039</v>
       </c>
       <c r="AC83" s="11">
-        <v>175039</v>
+        <v>175670</v>
       </c>
       <c r="AD83" s="11">
-        <v>175670</v>
+        <v>173954</v>
       </c>
       <c r="AE83" s="11">
-        <v>173954</v>
+        <v>180002</v>
       </c>
       <c r="AF83" s="11">
-        <v>180002</v>
+        <v>173868</v>
       </c>
       <c r="AG83" s="11">
-        <v>173868</v>
+        <v>165941</v>
       </c>
       <c r="AH83" s="11">
-        <v>165941</v>
+        <v>60348</v>
       </c>
       <c r="AI83" s="11">
-        <v>60348</v>
+        <v>433519</v>
       </c>
       <c r="AJ83" s="11">
-        <v>433519</v>
+        <v>428054</v>
       </c>
       <c r="AK83" s="11">
-        <v>428054</v>
+        <v>562978</v>
       </c>
       <c r="AL83" s="11">
-        <v>562978</v>
+        <v>202872</v>
       </c>
       <c r="AM83" s="11">
-        <v>202872</v>
+        <v>199863</v>
       </c>
       <c r="AN83" s="11">
-        <v>199863</v>
+        <v>208980</v>
       </c>
       <c r="AO83" s="11">
-        <v>208980</v>
+        <v>215569</v>
       </c>
       <c r="AP83" s="11">
-        <v>215569</v>
+        <v>214703</v>
       </c>
       <c r="AQ83" s="11">
-        <v>214703</v>
+        <v>256056</v>
       </c>
       <c r="AR83" s="11">
-        <v>256056</v>
+        <v>217481</v>
       </c>
       <c r="AS83" s="11">
-        <v>217481</v>
+        <v>235183</v>
       </c>
       <c r="AT83" s="11">
-        <v>235183</v>
+        <v>256012</v>
       </c>
       <c r="AU83" s="11">
-        <v>256012</v>
+        <v>290259</v>
       </c>
       <c r="AV83" s="11">
-        <v>290259</v>
+        <v>269386</v>
       </c>
       <c r="AW83" s="11">
-        <v>269386</v>
+        <v>265828</v>
       </c>
       <c r="AX83" s="11">
-        <v>265828</v>
+        <v>259327</v>
       </c>
       <c r="AY83" s="11">
-        <v>259327</v>
+        <v>278561</v>
       </c>
       <c r="AZ83" s="11">
-        <v>278561</v>
+        <v>289765</v>
       </c>
       <c r="BA83" s="11">
-        <v>289765</v>
+        <v>334817</v>
       </c>
       <c r="BB83" s="11">
-        <v>334817</v>
+        <v>324811</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.25">
@@ -10577,101 +10612,101 @@
       <c r="V84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W84" s="13" t="s">
-        <v>58</v>
+      <c r="W84" s="13">
+        <v>47414</v>
       </c>
       <c r="X84" s="13">
-        <v>47414</v>
+        <v>49196</v>
       </c>
       <c r="Y84" s="13">
-        <v>49196</v>
+        <v>51206</v>
       </c>
       <c r="Z84" s="13">
-        <v>51206</v>
+        <v>55439</v>
       </c>
       <c r="AA84" s="13">
-        <v>55439</v>
+        <v>59970</v>
       </c>
       <c r="AB84" s="13">
-        <v>59970</v>
+        <v>64108</v>
       </c>
       <c r="AC84" s="13">
-        <v>64108</v>
+        <v>64993</v>
       </c>
       <c r="AD84" s="13">
-        <v>64993</v>
+        <v>66181</v>
       </c>
       <c r="AE84" s="13">
-        <v>66181</v>
+        <v>66302</v>
       </c>
       <c r="AF84" s="13">
-        <v>66302</v>
+        <v>72411</v>
       </c>
       <c r="AG84" s="13">
-        <v>72411</v>
+        <v>79044</v>
       </c>
       <c r="AH84" s="13">
-        <v>79044</v>
+        <v>85176</v>
       </c>
       <c r="AI84" s="13">
-        <v>85176</v>
+        <v>85962</v>
       </c>
       <c r="AJ84" s="13">
-        <v>85962</v>
+        <v>93402</v>
       </c>
       <c r="AK84" s="13">
-        <v>93402</v>
+        <v>94725</v>
       </c>
       <c r="AL84" s="13">
-        <v>94725</v>
+        <v>91799</v>
       </c>
       <c r="AM84" s="13">
-        <v>91799</v>
+        <v>91666</v>
       </c>
       <c r="AN84" s="13">
-        <v>91666</v>
+        <v>89782</v>
       </c>
       <c r="AO84" s="13">
-        <v>89782</v>
+        <v>96237</v>
       </c>
       <c r="AP84" s="13">
-        <v>96237</v>
+        <v>95965</v>
       </c>
       <c r="AQ84" s="13">
-        <v>95965</v>
+        <v>95152</v>
       </c>
       <c r="AR84" s="13">
-        <v>95152</v>
+        <v>91713</v>
       </c>
       <c r="AS84" s="13">
-        <v>91713</v>
+        <v>97695</v>
       </c>
       <c r="AT84" s="13">
-        <v>97695</v>
+        <v>109651</v>
       </c>
       <c r="AU84" s="13">
-        <v>109651</v>
+        <v>116773</v>
       </c>
       <c r="AV84" s="13">
-        <v>116773</v>
+        <v>118431</v>
       </c>
       <c r="AW84" s="13">
-        <v>118431</v>
+        <v>112885</v>
       </c>
       <c r="AX84" s="13">
-        <v>112885</v>
+        <v>113834</v>
       </c>
       <c r="AY84" s="13">
-        <v>113834</v>
+        <v>115941</v>
       </c>
       <c r="AZ84" s="13">
-        <v>115941</v>
+        <v>117967</v>
       </c>
       <c r="BA84" s="13">
-        <v>117967</v>
+        <v>117879</v>
       </c>
       <c r="BB84" s="13">
-        <v>117879</v>
+        <v>122457</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.25">
@@ -10736,101 +10771,101 @@
       <c r="V85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="11" t="s">
-        <v>58</v>
+      <c r="W85" s="11">
+        <v>125057</v>
       </c>
       <c r="X85" s="11">
-        <v>125057</v>
+        <v>130093</v>
       </c>
       <c r="Y85" s="11">
-        <v>130093</v>
+        <v>136975</v>
       </c>
       <c r="Z85" s="11">
-        <v>136975</v>
+        <v>143132</v>
       </c>
       <c r="AA85" s="11">
-        <v>143132</v>
+        <v>149369</v>
       </c>
       <c r="AB85" s="11">
-        <v>149369</v>
+        <v>165526</v>
       </c>
       <c r="AC85" s="11">
-        <v>165526</v>
+        <v>176969</v>
       </c>
       <c r="AD85" s="11">
-        <v>176969</v>
+        <v>183006</v>
       </c>
       <c r="AE85" s="11">
-        <v>183006</v>
+        <v>184727</v>
       </c>
       <c r="AF85" s="11">
-        <v>184727</v>
+        <v>196273</v>
       </c>
       <c r="AG85" s="11">
-        <v>196273</v>
+        <v>200325</v>
       </c>
       <c r="AH85" s="11">
-        <v>200325</v>
+        <v>197925</v>
       </c>
       <c r="AI85" s="11">
-        <v>197925</v>
+        <v>195271</v>
       </c>
       <c r="AJ85" s="11">
-        <v>195271</v>
+        <v>206909</v>
       </c>
       <c r="AK85" s="11">
-        <v>206909</v>
+        <v>216169</v>
       </c>
       <c r="AL85" s="11">
-        <v>216169</v>
+        <v>230172</v>
       </c>
       <c r="AM85" s="11">
-        <v>230172</v>
+        <v>236319</v>
       </c>
       <c r="AN85" s="11">
-        <v>236319</v>
+        <v>239305</v>
       </c>
       <c r="AO85" s="11">
-        <v>239305</v>
+        <v>238331</v>
       </c>
       <c r="AP85" s="11">
-        <v>238331</v>
+        <v>237531</v>
       </c>
       <c r="AQ85" s="11">
-        <v>237531</v>
+        <v>233317</v>
       </c>
       <c r="AR85" s="11">
-        <v>233317</v>
+        <v>250586</v>
       </c>
       <c r="AS85" s="11">
-        <v>250586</v>
+        <v>251503</v>
       </c>
       <c r="AT85" s="11">
-        <v>251503</v>
+        <v>260421</v>
       </c>
       <c r="AU85" s="11">
-        <v>260421</v>
+        <v>274286</v>
       </c>
       <c r="AV85" s="11">
-        <v>274286</v>
+        <v>287416</v>
       </c>
       <c r="AW85" s="11">
-        <v>287416</v>
+        <v>295771</v>
       </c>
       <c r="AX85" s="11">
-        <v>295771</v>
+        <v>309148</v>
       </c>
       <c r="AY85" s="11">
-        <v>309148</v>
+        <v>312830</v>
       </c>
       <c r="AZ85" s="11">
-        <v>312830</v>
+        <v>317043</v>
       </c>
       <c r="BA85" s="11">
-        <v>317043</v>
+        <v>322393</v>
       </c>
       <c r="BB85" s="11">
-        <v>322393</v>
+        <v>322821</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.25">
@@ -10895,101 +10930,101 @@
       <c r="V86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="13" t="s">
-        <v>58</v>
+      <c r="W86" s="13">
+        <v>86691</v>
       </c>
       <c r="X86" s="13">
-        <v>86691</v>
+        <v>88284</v>
       </c>
       <c r="Y86" s="13">
-        <v>88284</v>
+        <v>101491</v>
       </c>
       <c r="Z86" s="13">
-        <v>101491</v>
+        <v>112579</v>
       </c>
       <c r="AA86" s="13">
-        <v>112579</v>
+        <v>111895</v>
       </c>
       <c r="AB86" s="13">
-        <v>111895</v>
+        <v>111259</v>
       </c>
       <c r="AC86" s="13">
-        <v>111259</v>
+        <v>110571</v>
       </c>
       <c r="AD86" s="13">
-        <v>110571</v>
+        <v>120379</v>
       </c>
       <c r="AE86" s="13">
-        <v>120379</v>
+        <v>129295</v>
       </c>
       <c r="AF86" s="13">
-        <v>129295</v>
+        <v>121775</v>
       </c>
       <c r="AG86" s="13">
-        <v>121775</v>
+        <v>120735</v>
       </c>
       <c r="AH86" s="13">
-        <v>120735</v>
+        <v>127925</v>
       </c>
       <c r="AI86" s="13">
-        <v>127925</v>
+        <v>136023</v>
       </c>
       <c r="AJ86" s="13">
-        <v>136023</v>
+        <v>146817</v>
       </c>
       <c r="AK86" s="13">
-        <v>146817</v>
+        <v>141082</v>
       </c>
       <c r="AL86" s="13">
-        <v>141082</v>
+        <v>145740</v>
       </c>
       <c r="AM86" s="13">
-        <v>145740</v>
+        <v>148107</v>
       </c>
       <c r="AN86" s="13">
-        <v>148107</v>
+        <v>143849</v>
       </c>
       <c r="AO86" s="13">
-        <v>143849</v>
+        <v>155491</v>
       </c>
       <c r="AP86" s="13">
-        <v>155491</v>
+        <v>169540</v>
       </c>
       <c r="AQ86" s="13">
-        <v>169540</v>
+        <v>199392</v>
       </c>
       <c r="AR86" s="13">
-        <v>199392</v>
+        <v>184936</v>
       </c>
       <c r="AS86" s="13">
-        <v>184936</v>
+        <v>211778</v>
       </c>
       <c r="AT86" s="13">
-        <v>211778</v>
+        <v>276571</v>
       </c>
       <c r="AU86" s="13">
-        <v>276571</v>
+        <v>305582</v>
       </c>
       <c r="AV86" s="13">
-        <v>305582</v>
+        <v>313686</v>
       </c>
       <c r="AW86" s="13">
-        <v>313686</v>
+        <v>305785</v>
       </c>
       <c r="AX86" s="13">
-        <v>305785</v>
+        <v>294178</v>
       </c>
       <c r="AY86" s="13">
-        <v>294178</v>
+        <v>298906</v>
       </c>
       <c r="AZ86" s="13">
-        <v>298906</v>
+        <v>302140</v>
       </c>
       <c r="BA86" s="13">
-        <v>302140</v>
+        <v>328311</v>
       </c>
       <c r="BB86" s="13">
-        <v>328311</v>
+        <v>310876</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.25">
@@ -11096,12 +11131,12 @@
       <c r="AJ87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL87" s="11">
+      <c r="AK87" s="11">
         <v>1663719203</v>
       </c>
+      <c r="AL87" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM87" s="11" t="s">
         <v>58</v>
       </c>
@@ -11126,29 +11161,29 @@
       <c r="AT87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU87" s="11" t="s">
-        <v>58</v>
+      <c r="AU87" s="11">
+        <v>6544978</v>
       </c>
       <c r="AV87" s="11">
-        <v>6544978</v>
+        <v>4522442</v>
       </c>
       <c r="AW87" s="11">
-        <v>4522442</v>
+        <v>39279416</v>
       </c>
       <c r="AX87" s="11">
-        <v>39279416</v>
+        <v>3576190</v>
       </c>
       <c r="AY87" s="11">
-        <v>3576190</v>
-      </c>
-      <c r="AZ87" s="11">
         <v>28493421</v>
       </c>
-      <c r="BA87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB87" s="11">
+      <c r="AZ87" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA87" s="11">
         <v>14694805</v>
+      </c>
+      <c r="BB87" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.25">
@@ -11213,38 +11248,38 @@
       <c r="V88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="13" t="s">
-        <v>58</v>
+      <c r="W88" s="13">
+        <v>59760</v>
       </c>
       <c r="X88" s="13">
-        <v>59760</v>
+        <v>60393</v>
       </c>
       <c r="Y88" s="13">
-        <v>60393</v>
+        <v>67488</v>
       </c>
       <c r="Z88" s="13">
-        <v>67488</v>
+        <v>80598</v>
       </c>
       <c r="AA88" s="13">
-        <v>80598</v>
+        <v>115227</v>
       </c>
       <c r="AB88" s="13">
-        <v>115227</v>
+        <v>124746</v>
       </c>
       <c r="AC88" s="13">
-        <v>124746</v>
+        <v>123810</v>
       </c>
       <c r="AD88" s="13">
-        <v>123810</v>
+        <v>130687</v>
       </c>
       <c r="AE88" s="13">
-        <v>130687</v>
+        <v>126123</v>
       </c>
       <c r="AF88" s="13">
-        <v>126123</v>
-      </c>
-      <c r="AG88" s="13">
         <v>116614</v>
+      </c>
+      <c r="AG88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH88" s="13" t="s">
         <v>58</v>
@@ -11372,101 +11407,101 @@
       <c r="V89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W89" s="11" t="s">
-        <v>58</v>
+      <c r="W89" s="11">
+        <v>83413</v>
       </c>
       <c r="X89" s="11">
-        <v>83413</v>
+        <v>86563</v>
       </c>
       <c r="Y89" s="11">
-        <v>86563</v>
+        <v>89555</v>
       </c>
       <c r="Z89" s="11">
-        <v>89555</v>
+        <v>93427</v>
       </c>
       <c r="AA89" s="11">
-        <v>93427</v>
+        <v>108462</v>
       </c>
       <c r="AB89" s="11">
-        <v>108462</v>
+        <v>120637</v>
       </c>
       <c r="AC89" s="11">
-        <v>120637</v>
+        <v>130253</v>
       </c>
       <c r="AD89" s="11">
-        <v>130253</v>
+        <v>130624</v>
       </c>
       <c r="AE89" s="11">
-        <v>130624</v>
+        <v>129577</v>
       </c>
       <c r="AF89" s="11">
-        <v>129577</v>
+        <v>132439</v>
       </c>
       <c r="AG89" s="11">
-        <v>132439</v>
+        <v>134018</v>
       </c>
       <c r="AH89" s="11">
-        <v>134018</v>
+        <v>127005</v>
       </c>
       <c r="AI89" s="11">
-        <v>127005</v>
+        <v>152291</v>
       </c>
       <c r="AJ89" s="11">
-        <v>152291</v>
+        <v>142688</v>
       </c>
       <c r="AK89" s="11">
-        <v>142688</v>
+        <v>150791</v>
       </c>
       <c r="AL89" s="11">
-        <v>150791</v>
+        <v>158370</v>
       </c>
       <c r="AM89" s="11">
-        <v>158370</v>
+        <v>162315</v>
       </c>
       <c r="AN89" s="11">
-        <v>162315</v>
+        <v>160394</v>
       </c>
       <c r="AO89" s="11">
-        <v>160394</v>
+        <v>162147</v>
       </c>
       <c r="AP89" s="11">
-        <v>162147</v>
+        <v>162784</v>
       </c>
       <c r="AQ89" s="11">
-        <v>162784</v>
+        <v>171348</v>
       </c>
       <c r="AR89" s="11">
-        <v>171348</v>
+        <v>176766</v>
       </c>
       <c r="AS89" s="11">
-        <v>176766</v>
+        <v>187064</v>
       </c>
       <c r="AT89" s="11">
-        <v>187064</v>
+        <v>198626</v>
       </c>
       <c r="AU89" s="11">
-        <v>198626</v>
+        <v>217792</v>
       </c>
       <c r="AV89" s="11">
-        <v>217792</v>
+        <v>216717</v>
       </c>
       <c r="AW89" s="11">
-        <v>216717</v>
+        <v>222833</v>
       </c>
       <c r="AX89" s="11">
-        <v>222833</v>
+        <v>223898</v>
       </c>
       <c r="AY89" s="11">
-        <v>223898</v>
+        <v>221402</v>
       </c>
       <c r="AZ89" s="11">
-        <v>221402</v>
+        <v>235063</v>
       </c>
       <c r="BA89" s="11">
-        <v>235063</v>
+        <v>238564</v>
       </c>
       <c r="BB89" s="11">
-        <v>238564</v>
+        <v>249392</v>
       </c>
     </row>
     <row r="90" spans="2:54" x14ac:dyDescent="0.25">
@@ -11531,101 +11566,101 @@
       <c r="V90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W90" s="13" t="s">
-        <v>58</v>
+      <c r="W90" s="13">
+        <v>97969</v>
       </c>
       <c r="X90" s="13">
-        <v>97969</v>
+        <v>98174</v>
       </c>
       <c r="Y90" s="13">
-        <v>98174</v>
+        <v>103129</v>
       </c>
       <c r="Z90" s="13">
-        <v>103129</v>
+        <v>113721</v>
       </c>
       <c r="AA90" s="13">
-        <v>113721</v>
+        <v>120074</v>
       </c>
       <c r="AB90" s="13">
-        <v>120074</v>
+        <v>128807</v>
       </c>
       <c r="AC90" s="13">
-        <v>128807</v>
+        <v>128281</v>
       </c>
       <c r="AD90" s="13">
-        <v>128281</v>
+        <v>127320</v>
       </c>
       <c r="AE90" s="13">
-        <v>127320</v>
+        <v>136185</v>
       </c>
       <c r="AF90" s="13">
-        <v>136185</v>
+        <v>122291</v>
       </c>
       <c r="AG90" s="13">
-        <v>122291</v>
+        <v>126995</v>
       </c>
       <c r="AH90" s="13">
-        <v>126995</v>
+        <v>128537</v>
       </c>
       <c r="AI90" s="13">
-        <v>128537</v>
+        <v>134004</v>
       </c>
       <c r="AJ90" s="13">
-        <v>134004</v>
+        <v>133503</v>
       </c>
       <c r="AK90" s="13">
-        <v>133503</v>
+        <v>150978</v>
       </c>
       <c r="AL90" s="13">
-        <v>150978</v>
+        <v>169235</v>
       </c>
       <c r="AM90" s="13">
-        <v>169235</v>
+        <v>179996</v>
       </c>
       <c r="AN90" s="13">
-        <v>179996</v>
+        <v>178170</v>
       </c>
       <c r="AO90" s="13">
-        <v>178170</v>
+        <v>178151</v>
       </c>
       <c r="AP90" s="13">
-        <v>178151</v>
+        <v>179711</v>
       </c>
       <c r="AQ90" s="13">
-        <v>179711</v>
+        <v>191785</v>
       </c>
       <c r="AR90" s="13">
-        <v>191785</v>
+        <v>172716</v>
       </c>
       <c r="AS90" s="13">
-        <v>172716</v>
+        <v>184653</v>
       </c>
       <c r="AT90" s="13">
-        <v>184653</v>
+        <v>220548</v>
       </c>
       <c r="AU90" s="13">
-        <v>220548</v>
+        <v>245641</v>
       </c>
       <c r="AV90" s="13">
-        <v>245641</v>
+        <v>257123</v>
       </c>
       <c r="AW90" s="13">
-        <v>257123</v>
+        <v>270206</v>
       </c>
       <c r="AX90" s="13">
-        <v>270206</v>
+        <v>288576</v>
       </c>
       <c r="AY90" s="13">
-        <v>288576</v>
+        <v>306686</v>
       </c>
       <c r="AZ90" s="13">
-        <v>306686</v>
+        <v>307981</v>
       </c>
       <c r="BA90" s="13">
-        <v>307981</v>
+        <v>310532</v>
       </c>
       <c r="BB90" s="13">
-        <v>310532</v>
+        <v>328706</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.25">
@@ -11690,101 +11725,101 @@
       <c r="V91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W91" s="11" t="s">
-        <v>58</v>
+      <c r="W91" s="11">
+        <v>173652</v>
       </c>
       <c r="X91" s="11">
-        <v>173652</v>
+        <v>173644</v>
       </c>
       <c r="Y91" s="11">
-        <v>173644</v>
+        <v>173478</v>
       </c>
       <c r="Z91" s="11">
-        <v>173478</v>
+        <v>4</v>
       </c>
       <c r="AA91" s="11">
-        <v>4</v>
+        <v>173662</v>
       </c>
       <c r="AB91" s="11">
-        <v>173662</v>
+        <v>173488</v>
       </c>
       <c r="AC91" s="11">
-        <v>173488</v>
+        <v>173459</v>
       </c>
       <c r="AD91" s="11">
-        <v>173459</v>
+        <v>173621</v>
       </c>
       <c r="AE91" s="11">
-        <v>173621</v>
+        <v>173614</v>
       </c>
       <c r="AF91" s="11">
-        <v>173614</v>
+        <v>173636</v>
       </c>
       <c r="AG91" s="11">
-        <v>173636</v>
+        <v>108926</v>
       </c>
       <c r="AH91" s="11">
-        <v>108926</v>
+        <v>120183</v>
       </c>
       <c r="AI91" s="11">
-        <v>120183</v>
+        <v>122761</v>
       </c>
       <c r="AJ91" s="11">
-        <v>122761</v>
-      </c>
-      <c r="AK91" s="11">
         <v>117208</v>
       </c>
-      <c r="AL91" s="11" t="s">
-        <v>58</v>
+      <c r="AK91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL91" s="11">
+        <v>147757</v>
       </c>
       <c r="AM91" s="11">
-        <v>147757</v>
+        <v>144623</v>
       </c>
       <c r="AN91" s="11">
-        <v>144623</v>
+        <v>110274</v>
       </c>
       <c r="AO91" s="11">
-        <v>110274</v>
+        <v>246512</v>
       </c>
       <c r="AP91" s="11">
-        <v>246512</v>
-      </c>
-      <c r="AQ91" s="11">
         <v>256043</v>
       </c>
-      <c r="AR91" s="11" t="s">
-        <v>58</v>
+      <c r="AQ91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR91" s="11">
+        <v>269285</v>
       </c>
       <c r="AS91" s="11">
-        <v>269285</v>
+        <v>266932</v>
       </c>
       <c r="AT91" s="11">
-        <v>266932</v>
-      </c>
-      <c r="AU91" s="11">
         <v>265060</v>
       </c>
+      <c r="AU91" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AV91" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AW91" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY91" s="11">
+      <c r="AX91" s="11">
         <v>257143</v>
       </c>
-      <c r="AZ91" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA91" s="11">
+      <c r="AY91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ91" s="11">
         <v>313333</v>
       </c>
-      <c r="BB91" s="11" t="s">
-        <v>58</v>
+      <c r="BA91" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB91" s="11">
+        <v>148472</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.25">
@@ -11915,35 +11950,35 @@
       <c r="AR92" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS92" s="13" t="s">
-        <v>58</v>
+      <c r="AS92" s="13">
+        <v>101592</v>
       </c>
       <c r="AT92" s="13">
-        <v>101592</v>
+        <v>102398</v>
       </c>
       <c r="AU92" s="13">
-        <v>102398</v>
+        <v>105505</v>
       </c>
       <c r="AV92" s="13">
-        <v>105505</v>
+        <v>102982</v>
       </c>
       <c r="AW92" s="13">
-        <v>102982</v>
+        <v>105567</v>
       </c>
       <c r="AX92" s="13">
-        <v>105567</v>
+        <v>110541</v>
       </c>
       <c r="AY92" s="13">
-        <v>110541</v>
+        <v>113898</v>
       </c>
       <c r="AZ92" s="13">
-        <v>113898</v>
+        <v>116850</v>
       </c>
       <c r="BA92" s="13">
-        <v>116850</v>
+        <v>117478</v>
       </c>
       <c r="BB92" s="13">
-        <v>117478</v>
+        <v>118021</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/foroushgah/ofogh/product/monthly_seprated.xlsx
+++ b/database/industries/foroushgah/ofogh/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="92">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3335,8 +3335,8 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V11" s="13" t="n">
         <v>0</v>
@@ -3365,8 +3365,8 @@
       <c r="AD11" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE11" s="13" t="n">
-        <v>0</v>
+      <c r="AE11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF11" s="13" t="s">
         <v>58</v>
@@ -3377,11 +3377,11 @@
       <c r="AH11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ11" s="13" t="n">
-        <v>0</v>
+      <c r="AI11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK11" s="13" t="s">
         <v>58</v>
@@ -3389,14 +3389,14 @@
       <c r="AL11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM11" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN11" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="13" t="s">
-        <v>58</v>
+      <c r="AM11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO11" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP11" s="13" t="n">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>0</v>
+        <v>108159</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>108159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3494,8 +3494,8 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V12" s="16" t="n">
         <v>0</v>
@@ -3524,8 +3524,8 @@
       <c r="AD12" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE12" s="16" t="n">
-        <v>0</v>
+      <c r="AE12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF12" s="16" t="s">
         <v>58</v>
@@ -3536,11 +3536,11 @@
       <c r="AH12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ12" s="16" t="n">
-        <v>0</v>
+      <c r="AI12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK12" s="16" t="s">
         <v>58</v>
@@ -3548,14 +3548,14 @@
       <c r="AL12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM12" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN12" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="16" t="s">
-        <v>58</v>
+      <c r="AM12" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO12" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP12" s="16" t="n">
         <v>0</v>
@@ -3591,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>0</v>
+        <v>12309181</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>12309181</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,8 +3653,8 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V13" s="13" t="n">
         <v>0</v>
@@ -3683,8 +3683,8 @@
       <c r="AD13" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE13" s="13" t="n">
-        <v>0</v>
+      <c r="AE13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF13" s="13" t="s">
         <v>58</v>
@@ -3695,11 +3695,11 @@
       <c r="AH13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ13" s="13" t="n">
-        <v>0</v>
+      <c r="AI13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK13" s="13" t="s">
         <v>58</v>
@@ -3707,14 +3707,14 @@
       <c r="AL13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM13" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="13" t="s">
-        <v>58</v>
+      <c r="AM13" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP13" s="13" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>0</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>0</v>
+        <v>22388732</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>22388732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3812,8 +3812,8 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V14" s="16" t="n">
         <v>0</v>
@@ -3842,8 +3842,8 @@
       <c r="AD14" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE14" s="16" t="n">
-        <v>0</v>
+      <c r="AE14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF14" s="16" t="s">
         <v>58</v>
@@ -3854,11 +3854,11 @@
       <c r="AH14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ14" s="16" t="n">
-        <v>0</v>
+      <c r="AI14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK14" s="16" t="s">
         <v>58</v>
@@ -3866,14 +3866,14 @@
       <c r="AL14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM14" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN14" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="16" t="s">
-        <v>58</v>
+      <c r="AM14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO14" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP14" s="16" t="n">
         <v>0</v>
@@ -3909,10 +3909,10 @@
         <v>0</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>0</v>
+        <v>67469487</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>67469487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,8 +3971,8 @@
       <c r="T15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>58</v>
+      <c r="U15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V15" s="13" t="n">
         <v>0</v>
@@ -4001,8 +4001,8 @@
       <c r="AD15" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE15" s="13" t="n">
-        <v>0</v>
+      <c r="AE15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF15" s="13" t="s">
         <v>58</v>
@@ -4013,11 +4013,11 @@
       <c r="AH15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ15" s="13" t="n">
-        <v>0</v>
+      <c r="AI15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK15" s="13" t="s">
         <v>58</v>
@@ -4025,14 +4025,14 @@
       <c r="AL15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN15" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="13" t="s">
-        <v>58</v>
+      <c r="AM15" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO15" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP15" s="13" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
         <v>0</v>
       </c>
       <c r="BA15" s="13" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BB15" s="13" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4130,8 +4130,8 @@
       <c r="T16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>58</v>
+      <c r="U16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V16" s="16" t="n">
         <v>0</v>
@@ -4160,8 +4160,8 @@
       <c r="AD16" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE16" s="16" t="n">
-        <v>0</v>
+      <c r="AE16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF16" s="16" t="s">
         <v>58</v>
@@ -4172,11 +4172,11 @@
       <c r="AH16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ16" s="16" t="n">
-        <v>0</v>
+      <c r="AI16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK16" s="16" t="s">
         <v>58</v>
@@ -4184,14 +4184,14 @@
       <c r="AL16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM16" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN16" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="16" t="s">
-        <v>58</v>
+      <c r="AM16" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP16" s="16" t="n">
         <v>0</v>
@@ -4289,8 +4289,8 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="13" t="n">
         <v>0</v>
@@ -4319,8 +4319,8 @@
       <c r="AD17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE17" s="13" t="n">
-        <v>0</v>
+      <c r="AE17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>58</v>
@@ -4331,11 +4331,11 @@
       <c r="AH17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ17" s="13" t="n">
-        <v>0</v>
+      <c r="AI17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK17" s="13" t="s">
         <v>58</v>
@@ -4343,14 +4343,14 @@
       <c r="AL17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN17" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
+      <c r="AM17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP17" s="13" t="n">
         <v>0</v>
@@ -4386,10 +4386,10 @@
         <v>0</v>
       </c>
       <c r="BA17" s="13" t="n">
-        <v>0</v>
+        <v>2934695</v>
       </c>
       <c r="BB17" s="13" t="n">
-        <v>2934695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,8 +4448,8 @@
       <c r="T18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>58</v>
+      <c r="U18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V18" s="16" t="n">
         <v>0</v>
@@ -4478,8 +4478,8 @@
       <c r="AD18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE18" s="16" t="n">
-        <v>0</v>
+      <c r="AE18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF18" s="16" t="s">
         <v>58</v>
@@ -4490,11 +4490,11 @@
       <c r="AH18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ18" s="16" t="n">
-        <v>0</v>
+      <c r="AI18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK18" s="16" t="s">
         <v>58</v>
@@ -4502,14 +4502,14 @@
       <c r="AL18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN18" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="16" t="s">
-        <v>58</v>
+      <c r="AM18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AP18" s="16" t="n">
         <v>0</v>
@@ -4545,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="BA18" s="16" t="n">
-        <v>0</v>
+        <v>33180182</v>
       </c>
       <c r="BB18" s="16" t="n">
-        <v>33180182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4607,8 +4607,8 @@
       <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>58</v>
+      <c r="U19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="13" t="n">
         <v>0</v>
@@ -4637,8 +4637,8 @@
       <c r="AD19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" s="13" t="n">
-        <v>0</v>
+      <c r="AE19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF19" s="13" t="s">
         <v>58</v>
@@ -4649,11 +4649,11 @@
       <c r="AH19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ19" s="13" t="n">
-        <v>0</v>
+      <c r="AI19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK19" s="13" t="s">
         <v>58</v>
@@ -4661,14 +4661,14 @@
       <c r="AL19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN19" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="13" t="s">
-        <v>58</v>
+      <c r="AM19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AP19" s="13" t="n">
         <v>0</v>
@@ -4704,10 +4704,10 @@
         <v>0</v>
       </c>
       <c r="BA19" s="13" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="BB19" s="13" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,8 +4832,8 @@
       <c r="AP20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ20" s="16" t="s">
-        <v>58</v>
+      <c r="AQ20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AR20" s="16" t="n">
         <v>0</v>
@@ -4863,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="BA20" s="16" t="n">
-        <v>0</v>
+        <v>1121250</v>
       </c>
       <c r="BB20" s="16" t="n">
-        <v>1121250</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5020,10 +5020,10 @@
         <v>0</v>
       </c>
       <c r="BA21" s="18" t="n">
-        <v>0</v>
+        <v>139511780</v>
       </c>
       <c r="BB21" s="18" t="n">
-        <v>139511780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5351,8 +5351,8 @@
       <c r="T25" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U25" s="18" t="s">
-        <v>58</v>
+      <c r="U25" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V25" s="18" t="n">
         <v>0</v>
@@ -5605,10 +5605,10 @@
         <v>0</v>
       </c>
       <c r="BA26" s="22" t="n">
-        <v>0</v>
+        <v>139511780</v>
       </c>
       <c r="BB26" s="22" t="n">
-        <v>139511780</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,107 +6101,107 @@
       <c r="T33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="13" t="s">
-        <v>58</v>
+      <c r="U33" s="13" t="n">
+        <v>148020</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>148020</v>
+        <v>134579</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>134579</v>
+        <v>151045</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>151045</v>
+        <v>164685</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>164685</v>
+        <v>166231</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>166231</v>
+        <v>178115</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>178115</v>
+        <v>152155</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>152155</v>
+        <v>138295</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>138295</v>
+        <v>165676</v>
       </c>
       <c r="AD33" s="13" t="n">
-        <v>165676</v>
+        <v>97085</v>
       </c>
       <c r="AE33" s="13" t="n">
-        <v>97085</v>
+        <v>66837</v>
       </c>
       <c r="AF33" s="13" t="n">
-        <v>66837</v>
+        <v>329719</v>
       </c>
       <c r="AG33" s="13" t="n">
-        <v>329719</v>
+        <v>51105</v>
       </c>
       <c r="AH33" s="13" t="n">
-        <v>51105</v>
+        <v>49099</v>
       </c>
       <c r="AI33" s="13" t="n">
-        <v>49099</v>
+        <v>52153</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>52153</v>
+        <v>150750</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>150750</v>
+        <v>146185</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>146185</v>
+        <v>154809</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>154809</v>
+        <v>142001</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>142001</v>
+        <v>132760</v>
       </c>
       <c r="AO33" s="13" t="n">
-        <v>132760</v>
+        <v>101470</v>
       </c>
       <c r="AP33" s="13" t="n">
-        <v>101470</v>
+        <v>97236</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>97236</v>
+        <v>104540</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>104540</v>
+        <v>80012</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>80012</v>
+        <v>75815</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>75815</v>
+        <v>82855</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>82855</v>
+        <v>90743</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>90743</v>
+        <v>103275</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>103275</v>
+        <v>89151</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>89151</v>
+        <v>82208</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>82208</v>
+        <v>88774</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>88774</v>
+        <v>144915</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>144915</v>
+        <v>0</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>0</v>
+        <v>79890</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6260,107 +6260,107 @@
       <c r="T34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="16" t="s">
-        <v>58</v>
+      <c r="U34" s="16" t="n">
+        <v>12338105</v>
       </c>
       <c r="V34" s="16" t="n">
-        <v>12338105</v>
+        <v>14830812</v>
       </c>
       <c r="W34" s="16" t="n">
-        <v>14830812</v>
+        <v>12661600</v>
       </c>
       <c r="X34" s="16" t="n">
-        <v>12661600</v>
+        <v>11488044</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>11488044</v>
+        <v>11179961</v>
       </c>
       <c r="Z34" s="16" t="n">
-        <v>11179961</v>
+        <v>9351162</v>
       </c>
       <c r="AA34" s="16" t="n">
-        <v>9351162</v>
+        <v>8971867</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>8971867</v>
+        <v>9717055</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>9717055</v>
+        <v>11412688</v>
       </c>
       <c r="AD34" s="16" t="n">
-        <v>11412688</v>
+        <v>12624384</v>
       </c>
       <c r="AE34" s="16" t="n">
-        <v>12624384</v>
+        <v>13805974</v>
       </c>
       <c r="AF34" s="16" t="n">
-        <v>13805974</v>
+        <v>15961267</v>
       </c>
       <c r="AG34" s="16" t="n">
-        <v>15961267</v>
+        <v>17976227</v>
       </c>
       <c r="AH34" s="16" t="n">
-        <v>17976227</v>
+        <v>16154420</v>
       </c>
       <c r="AI34" s="16" t="n">
-        <v>16154420</v>
+        <v>16084035</v>
       </c>
       <c r="AJ34" s="16" t="n">
-        <v>16084035</v>
+        <v>13610934</v>
       </c>
       <c r="AK34" s="16" t="n">
-        <v>13610934</v>
+        <v>11101258</v>
       </c>
       <c r="AL34" s="16" t="n">
-        <v>11101258</v>
+        <v>11947247</v>
       </c>
       <c r="AM34" s="16" t="n">
-        <v>11947247</v>
+        <v>9825457</v>
       </c>
       <c r="AN34" s="16" t="n">
-        <v>9825457</v>
+        <v>9774660</v>
       </c>
       <c r="AO34" s="16" t="n">
-        <v>9774660</v>
+        <v>10634712</v>
       </c>
       <c r="AP34" s="16" t="n">
-        <v>10634712</v>
+        <v>12641007</v>
       </c>
       <c r="AQ34" s="16" t="n">
-        <v>12641007</v>
+        <v>13889100</v>
       </c>
       <c r="AR34" s="16" t="n">
-        <v>13889100</v>
+        <v>13916922</v>
       </c>
       <c r="AS34" s="16" t="n">
-        <v>13916922</v>
+        <v>14790107</v>
       </c>
       <c r="AT34" s="16" t="n">
-        <v>14790107</v>
+        <v>14444561</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>14444561</v>
+        <v>15479125</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>15479125</v>
+        <v>12622103</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>12622103</v>
+        <v>9181529</v>
       </c>
       <c r="AX34" s="16" t="n">
-        <v>9181529</v>
+        <v>8876590</v>
       </c>
       <c r="AY34" s="16" t="n">
-        <v>8876590</v>
+        <v>9697925</v>
       </c>
       <c r="AZ34" s="16" t="n">
-        <v>9697925</v>
+        <v>10032474</v>
       </c>
       <c r="BA34" s="16" t="n">
-        <v>10032474</v>
+        <v>0</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>0</v>
+        <v>13129729</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6419,107 +6419,107 @@
       <c r="T35" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U35" s="13" t="s">
-        <v>58</v>
+      <c r="U35" s="13" t="n">
+        <v>17206660</v>
       </c>
       <c r="V35" s="13" t="n">
-        <v>17206660</v>
+        <v>17568099</v>
       </c>
       <c r="W35" s="13" t="n">
-        <v>17568099</v>
+        <v>17706350</v>
       </c>
       <c r="X35" s="13" t="n">
-        <v>17706350</v>
+        <v>18388526</v>
       </c>
       <c r="Y35" s="13" t="n">
-        <v>18388526</v>
+        <v>20708554</v>
       </c>
       <c r="Z35" s="13" t="n">
-        <v>20708554</v>
+        <v>17183591</v>
       </c>
       <c r="AA35" s="13" t="n">
-        <v>17183591</v>
+        <v>16376941</v>
       </c>
       <c r="AB35" s="13" t="n">
-        <v>16376941</v>
+        <v>16376968</v>
       </c>
       <c r="AC35" s="13" t="n">
-        <v>16376968</v>
+        <v>21248616</v>
       </c>
       <c r="AD35" s="13" t="n">
-        <v>21248616</v>
+        <v>15281382</v>
       </c>
       <c r="AE35" s="13" t="n">
-        <v>15281382</v>
+        <v>17220459</v>
       </c>
       <c r="AF35" s="13" t="n">
-        <v>17220459</v>
+        <v>18912959</v>
       </c>
       <c r="AG35" s="13" t="n">
-        <v>18912959</v>
+        <v>20079295</v>
       </c>
       <c r="AH35" s="13" t="n">
-        <v>20079295</v>
+        <v>19301896</v>
       </c>
       <c r="AI35" s="13" t="n">
-        <v>19301896</v>
+        <v>20535799</v>
       </c>
       <c r="AJ35" s="13" t="n">
-        <v>20535799</v>
+        <v>17651054</v>
       </c>
       <c r="AK35" s="13" t="n">
-        <v>17651054</v>
+        <v>16965670</v>
       </c>
       <c r="AL35" s="13" t="n">
-        <v>16965670</v>
+        <v>17600543</v>
       </c>
       <c r="AM35" s="13" t="n">
-        <v>17600543</v>
+        <v>17329932</v>
       </c>
       <c r="AN35" s="13" t="n">
-        <v>17329932</v>
+        <v>17099020</v>
       </c>
       <c r="AO35" s="13" t="n">
-        <v>17099020</v>
+        <v>21483638</v>
       </c>
       <c r="AP35" s="13" t="n">
-        <v>21483638</v>
+        <v>13981098</v>
       </c>
       <c r="AQ35" s="13" t="n">
-        <v>13981098</v>
+        <v>22754245</v>
       </c>
       <c r="AR35" s="13" t="n">
-        <v>22754245</v>
+        <v>18090677</v>
       </c>
       <c r="AS35" s="13" t="n">
-        <v>18090677</v>
+        <v>14466236</v>
       </c>
       <c r="AT35" s="13" t="n">
-        <v>14466236</v>
+        <v>14758053</v>
       </c>
       <c r="AU35" s="13" t="n">
-        <v>14758053</v>
+        <v>15563697</v>
       </c>
       <c r="AV35" s="13" t="n">
-        <v>15563697</v>
+        <v>15348170</v>
       </c>
       <c r="AW35" s="13" t="n">
-        <v>15348170</v>
+        <v>14203833</v>
       </c>
       <c r="AX35" s="13" t="n">
-        <v>14203833</v>
+        <v>14533789</v>
       </c>
       <c r="AY35" s="13" t="n">
-        <v>14533789</v>
+        <v>16464210</v>
       </c>
       <c r="AZ35" s="13" t="n">
-        <v>16464210</v>
+        <v>16814303</v>
       </c>
       <c r="BA35" s="13" t="n">
-        <v>16814303</v>
+        <v>0</v>
       </c>
       <c r="BB35" s="13" t="n">
-        <v>0</v>
+        <v>13878808</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6578,107 +6578,107 @@
       <c r="T36" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U36" s="16" t="s">
-        <v>58</v>
+      <c r="U36" s="16" t="n">
+        <v>57571414</v>
       </c>
       <c r="V36" s="16" t="n">
-        <v>57571414</v>
+        <v>59646278</v>
       </c>
       <c r="W36" s="16" t="n">
-        <v>59646278</v>
+        <v>58140459</v>
       </c>
       <c r="X36" s="16" t="n">
-        <v>58140459</v>
+        <v>57773285</v>
       </c>
       <c r="Y36" s="16" t="n">
-        <v>57773285</v>
+        <v>64515930</v>
       </c>
       <c r="Z36" s="16" t="n">
-        <v>64515930</v>
+        <v>65714642</v>
       </c>
       <c r="AA36" s="16" t="n">
-        <v>65714642</v>
+        <v>62726377</v>
       </c>
       <c r="AB36" s="16" t="n">
-        <v>62726377</v>
+        <v>60609553</v>
       </c>
       <c r="AC36" s="16" t="n">
-        <v>60609553</v>
+        <v>67659907</v>
       </c>
       <c r="AD36" s="16" t="n">
-        <v>67659907</v>
+        <v>53457828</v>
       </c>
       <c r="AE36" s="16" t="n">
-        <v>53457828</v>
+        <v>66812305</v>
       </c>
       <c r="AF36" s="16" t="n">
-        <v>66812305</v>
+        <v>59614939</v>
       </c>
       <c r="AG36" s="16" t="n">
-        <v>59614939</v>
+        <v>58232320</v>
       </c>
       <c r="AH36" s="16" t="n">
-        <v>58232320</v>
+        <v>56946505</v>
       </c>
       <c r="AI36" s="16" t="n">
-        <v>56946505</v>
+        <v>71602593</v>
       </c>
       <c r="AJ36" s="16" t="n">
-        <v>71602593</v>
+        <v>57629702</v>
       </c>
       <c r="AK36" s="16" t="n">
-        <v>57629702</v>
+        <v>57386405</v>
       </c>
       <c r="AL36" s="16" t="n">
-        <v>57386405</v>
+        <v>66711181</v>
       </c>
       <c r="AM36" s="16" t="n">
-        <v>66711181</v>
+        <v>66548565</v>
       </c>
       <c r="AN36" s="16" t="n">
-        <v>66548565</v>
+        <v>63538266</v>
       </c>
       <c r="AO36" s="16" t="n">
-        <v>63538266</v>
+        <v>66380136</v>
       </c>
       <c r="AP36" s="16" t="n">
-        <v>66380136</v>
+        <v>52970275</v>
       </c>
       <c r="AQ36" s="16" t="n">
-        <v>52970275</v>
+        <v>67639588</v>
       </c>
       <c r="AR36" s="16" t="n">
-        <v>67639588</v>
+        <v>48804861</v>
       </c>
       <c r="AS36" s="16" t="n">
-        <v>48804861</v>
+        <v>47432831</v>
       </c>
       <c r="AT36" s="16" t="n">
-        <v>47432831</v>
+        <v>45354285</v>
       </c>
       <c r="AU36" s="16" t="n">
-        <v>45354285</v>
+        <v>48477286</v>
       </c>
       <c r="AV36" s="16" t="n">
-        <v>48477286</v>
+        <v>50169920</v>
       </c>
       <c r="AW36" s="16" t="n">
-        <v>50169920</v>
+        <v>45702718</v>
       </c>
       <c r="AX36" s="16" t="n">
-        <v>45702718</v>
+        <v>47416084</v>
       </c>
       <c r="AY36" s="16" t="n">
-        <v>47416084</v>
+        <v>51214725</v>
       </c>
       <c r="AZ36" s="16" t="n">
-        <v>51214725</v>
+        <v>59424541</v>
       </c>
       <c r="BA36" s="16" t="n">
-        <v>59424541</v>
+        <v>0</v>
       </c>
       <c r="BB36" s="16" t="n">
-        <v>0</v>
+        <v>50937504</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6737,8 +6737,8 @@
       <c r="T37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="13" t="s">
-        <v>58</v>
+      <c r="U37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="13" t="n">
         <v>0</v>
@@ -6767,8 +6767,8 @@
       <c r="AD37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE37" s="13" t="n">
-        <v>0</v>
+      <c r="AE37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF37" s="13" t="s">
         <v>58</v>
@@ -6779,20 +6779,20 @@
       <c r="AH37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ37" s="13" t="n">
+      <c r="AI37" s="13" t="n">
         <v>1656</v>
       </c>
+      <c r="AJ37" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK37" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AL37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM37" s="13" t="s">
-        <v>58</v>
+      <c r="AM37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN37" s="13" t="n">
         <v>0</v>
@@ -6810,28 +6810,28 @@
         <v>0</v>
       </c>
       <c r="AS37" s="13" t="n">
-        <v>0</v>
+        <v>1334</v>
       </c>
       <c r="AT37" s="13" t="n">
-        <v>1334</v>
+        <v>1114</v>
       </c>
       <c r="AU37" s="13" t="n">
-        <v>1114</v>
+        <v>7122</v>
       </c>
       <c r="AV37" s="13" t="n">
-        <v>7122</v>
+        <v>1260</v>
       </c>
       <c r="AW37" s="13" t="n">
-        <v>1260</v>
+        <v>152</v>
       </c>
       <c r="AX37" s="13" t="n">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="AY37" s="13" t="n">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="AZ37" s="13" t="n">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="BA37" s="13" t="n">
         <v>0</v>
@@ -6896,41 +6896,41 @@
       <c r="T38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U38" s="16" t="s">
-        <v>58</v>
+      <c r="U38" s="16" t="n">
+        <v>745530</v>
       </c>
       <c r="V38" s="16" t="n">
-        <v>745530</v>
+        <v>900893</v>
       </c>
       <c r="W38" s="16" t="n">
-        <v>900893</v>
+        <v>726292</v>
       </c>
       <c r="X38" s="16" t="n">
-        <v>726292</v>
+        <v>574826</v>
       </c>
       <c r="Y38" s="16" t="n">
-        <v>574826</v>
+        <v>283033</v>
       </c>
       <c r="Z38" s="16" t="n">
-        <v>283033</v>
+        <v>272393</v>
       </c>
       <c r="AA38" s="16" t="n">
-        <v>272393</v>
+        <v>210621</v>
       </c>
       <c r="AB38" s="16" t="n">
-        <v>210621</v>
+        <v>174080</v>
       </c>
       <c r="AC38" s="16" t="n">
-        <v>174080</v>
+        <v>121738</v>
       </c>
       <c r="AD38" s="16" t="n">
-        <v>121738</v>
+        <v>86250</v>
       </c>
       <c r="AE38" s="16" t="n">
-        <v>86250</v>
-      </c>
-      <c r="AF38" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AG38" s="16" t="s">
         <v>58</v>
@@ -6938,11 +6938,11 @@
       <c r="AH38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AI38" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ38" s="16" t="n">
-        <v>0</v>
+      <c r="AI38" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AK38" s="16" t="s">
         <v>58</v>
@@ -6950,8 +6950,8 @@
       <c r="AL38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AM38" s="16" t="s">
-        <v>58</v>
+      <c r="AM38" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AN38" s="16" t="n">
         <v>0</v>
@@ -7055,107 +7055,107 @@
       <c r="T39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="13" t="s">
-        <v>58</v>
+      <c r="U39" s="13" t="n">
+        <v>2541700</v>
       </c>
       <c r="V39" s="13" t="n">
-        <v>2541700</v>
+        <v>2635036</v>
       </c>
       <c r="W39" s="13" t="n">
-        <v>2635036</v>
+        <v>2593815</v>
       </c>
       <c r="X39" s="13" t="n">
-        <v>2593815</v>
+        <v>2611827</v>
       </c>
       <c r="Y39" s="13" t="n">
-        <v>2611827</v>
+        <v>2550881</v>
       </c>
       <c r="Z39" s="13" t="n">
-        <v>2550881</v>
+        <v>2391337</v>
       </c>
       <c r="AA39" s="13" t="n">
-        <v>2391337</v>
+        <v>2106565</v>
       </c>
       <c r="AB39" s="13" t="n">
-        <v>2106565</v>
+        <v>2095587</v>
       </c>
       <c r="AC39" s="13" t="n">
-        <v>2095587</v>
+        <v>2775670</v>
       </c>
       <c r="AD39" s="13" t="n">
-        <v>2775670</v>
+        <v>2242860</v>
       </c>
       <c r="AE39" s="13" t="n">
-        <v>2242860</v>
+        <v>2304370</v>
       </c>
       <c r="AF39" s="13" t="n">
-        <v>2304370</v>
+        <v>2639319</v>
       </c>
       <c r="AG39" s="13" t="n">
-        <v>2639319</v>
+        <v>2427523</v>
       </c>
       <c r="AH39" s="13" t="n">
-        <v>2427523</v>
+        <v>2562359</v>
       </c>
       <c r="AI39" s="13" t="n">
-        <v>2562359</v>
+        <v>2800216</v>
       </c>
       <c r="AJ39" s="13" t="n">
-        <v>2800216</v>
+        <v>2523846</v>
       </c>
       <c r="AK39" s="13" t="n">
-        <v>2523846</v>
+        <v>2331925</v>
       </c>
       <c r="AL39" s="13" t="n">
-        <v>2331925</v>
+        <v>2410115</v>
       </c>
       <c r="AM39" s="13" t="n">
-        <v>2410115</v>
+        <v>2330385</v>
       </c>
       <c r="AN39" s="13" t="n">
-        <v>2330385</v>
+        <v>2337703</v>
       </c>
       <c r="AO39" s="13" t="n">
-        <v>2337703</v>
+        <v>2605945</v>
       </c>
       <c r="AP39" s="13" t="n">
-        <v>2605945</v>
+        <v>1996719</v>
       </c>
       <c r="AQ39" s="13" t="n">
-        <v>1996719</v>
+        <v>2315970</v>
       </c>
       <c r="AR39" s="13" t="n">
-        <v>2315970</v>
+        <v>1876064</v>
       </c>
       <c r="AS39" s="13" t="n">
-        <v>1876064</v>
+        <v>1873813</v>
       </c>
       <c r="AT39" s="13" t="n">
-        <v>1873813</v>
+        <v>1952996</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>1952996</v>
+        <v>1989907</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>1989907</v>
+        <v>1940115</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>1940115</v>
+        <v>1852241</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>1852241</v>
+        <v>1802272</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>1802272</v>
+        <v>1983721</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>1983721</v>
+        <v>2551461</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>2551461</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="13" t="n">
-        <v>0</v>
+        <v>2271200</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7214,107 +7214,107 @@
       <c r="T40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>58</v>
+      <c r="U40" s="16" t="n">
+        <v>30339987</v>
       </c>
       <c r="V40" s="16" t="n">
-        <v>30339987</v>
+        <v>33185494</v>
       </c>
       <c r="W40" s="16" t="n">
-        <v>33185494</v>
+        <v>31092530</v>
       </c>
       <c r="X40" s="16" t="n">
-        <v>31092530</v>
+        <v>29467135</v>
       </c>
       <c r="Y40" s="16" t="n">
-        <v>29467135</v>
+        <v>30089287</v>
       </c>
       <c r="Z40" s="16" t="n">
-        <v>30089287</v>
+        <v>30598330</v>
       </c>
       <c r="AA40" s="16" t="n">
-        <v>30598330</v>
+        <v>28352398</v>
       </c>
       <c r="AB40" s="16" t="n">
-        <v>28352398</v>
+        <v>27728429</v>
       </c>
       <c r="AC40" s="16" t="n">
-        <v>27728429</v>
+        <v>29817853</v>
       </c>
       <c r="AD40" s="16" t="n">
-        <v>29817853</v>
+        <v>27253387</v>
       </c>
       <c r="AE40" s="16" t="n">
-        <v>27253387</v>
+        <v>31028661</v>
       </c>
       <c r="AF40" s="16" t="n">
-        <v>31028661</v>
+        <v>33228542</v>
       </c>
       <c r="AG40" s="16" t="n">
-        <v>33228542</v>
+        <v>33720402</v>
       </c>
       <c r="AH40" s="16" t="n">
-        <v>33720402</v>
+        <v>33519755</v>
       </c>
       <c r="AI40" s="16" t="n">
-        <v>33519755</v>
+        <v>33756058</v>
       </c>
       <c r="AJ40" s="16" t="n">
-        <v>33756058</v>
+        <v>29258226</v>
       </c>
       <c r="AK40" s="16" t="n">
-        <v>29258226</v>
+        <v>27508476</v>
       </c>
       <c r="AL40" s="16" t="n">
-        <v>27508476</v>
+        <v>27884234</v>
       </c>
       <c r="AM40" s="16" t="n">
-        <v>27884234</v>
+        <v>27053859</v>
       </c>
       <c r="AN40" s="16" t="n">
-        <v>27053859</v>
+        <v>27624335</v>
       </c>
       <c r="AO40" s="16" t="n">
-        <v>27624335</v>
+        <v>28596619</v>
       </c>
       <c r="AP40" s="16" t="n">
-        <v>28596619</v>
+        <v>27720113</v>
       </c>
       <c r="AQ40" s="16" t="n">
-        <v>27720113</v>
+        <v>35902084</v>
       </c>
       <c r="AR40" s="16" t="n">
-        <v>35902084</v>
+        <v>28405738</v>
       </c>
       <c r="AS40" s="16" t="n">
-        <v>28405738</v>
+        <v>27973099</v>
       </c>
       <c r="AT40" s="16" t="n">
-        <v>27973099</v>
+        <v>25968930</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>25968930</v>
+        <v>27613600</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>27613600</v>
+        <v>26757928</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>26757928</v>
+        <v>22485348</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>22485348</v>
+        <v>21782670</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>21782670</v>
+        <v>23835702</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>23835702</v>
+        <v>27280784</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>27280784</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="16" t="n">
-        <v>0</v>
+        <v>30502332</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7373,80 +7373,80 @@
       <c r="T41" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U41" s="13" t="s">
-        <v>58</v>
+      <c r="U41" s="13" t="n">
+        <v>5655</v>
       </c>
       <c r="V41" s="13" t="n">
-        <v>5655</v>
+        <v>5494</v>
       </c>
       <c r="W41" s="13" t="n">
-        <v>5494</v>
+        <v>4796</v>
       </c>
       <c r="X41" s="13" t="n">
-        <v>4796</v>
+        <v>161421120</v>
       </c>
       <c r="Y41" s="13" t="n">
-        <v>161421120</v>
+        <v>2597</v>
       </c>
       <c r="Z41" s="13" t="n">
-        <v>2597</v>
+        <v>2248</v>
       </c>
       <c r="AA41" s="13" t="n">
-        <v>2248</v>
+        <v>1914</v>
       </c>
       <c r="AB41" s="13" t="n">
-        <v>1914</v>
+        <v>2085</v>
       </c>
       <c r="AC41" s="13" t="n">
-        <v>2085</v>
+        <v>2759</v>
       </c>
       <c r="AD41" s="13" t="n">
-        <v>2759</v>
+        <v>2822</v>
       </c>
       <c r="AE41" s="13" t="n">
-        <v>2822</v>
+        <v>111810</v>
       </c>
       <c r="AF41" s="13" t="n">
-        <v>111810</v>
+        <v>106030</v>
       </c>
       <c r="AG41" s="13" t="n">
-        <v>106030</v>
+        <v>57510</v>
       </c>
       <c r="AH41" s="13" t="n">
-        <v>57510</v>
+        <v>25041</v>
       </c>
       <c r="AI41" s="13" t="n">
-        <v>25041</v>
+        <v>0</v>
       </c>
       <c r="AJ41" s="13" t="n">
-        <v>0</v>
+        <v>6443</v>
       </c>
       <c r="AK41" s="13" t="n">
-        <v>6443</v>
+        <v>5988</v>
       </c>
       <c r="AL41" s="13" t="n">
-        <v>5988</v>
+        <v>9023</v>
       </c>
       <c r="AM41" s="13" t="n">
-        <v>9023</v>
+        <v>215</v>
       </c>
       <c r="AN41" s="13" t="n">
-        <v>215</v>
+        <v>1117</v>
       </c>
       <c r="AO41" s="13" t="n">
-        <v>1117</v>
+        <v>0</v>
       </c>
       <c r="AP41" s="13" t="n">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="AQ41" s="13" t="n">
-        <v>713</v>
+        <v>251</v>
       </c>
       <c r="AR41" s="13" t="n">
-        <v>251</v>
+        <v>83</v>
       </c>
       <c r="AS41" s="13" t="n">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="AT41" s="13" t="n">
         <v>0</v>
@@ -7455,22 +7455,22 @@
         <v>0</v>
       </c>
       <c r="AV41" s="13" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AW41" s="13" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AX41" s="13" t="n">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="AY41" s="13" t="n">
-        <v>600</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="13" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="BA41" s="13" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="13" t="n">
         <v>0</v>
@@ -7598,41 +7598,41 @@
       <c r="AP42" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ42" s="16" t="s">
-        <v>58</v>
+      <c r="AQ42" s="16" t="n">
+        <v>201266</v>
       </c>
       <c r="AR42" s="16" t="n">
-        <v>201266</v>
+        <v>395223</v>
       </c>
       <c r="AS42" s="16" t="n">
-        <v>395223</v>
+        <v>507987</v>
       </c>
       <c r="AT42" s="16" t="n">
-        <v>507987</v>
+        <v>824330</v>
       </c>
       <c r="AU42" s="16" t="n">
-        <v>824330</v>
+        <v>1346724</v>
       </c>
       <c r="AV42" s="16" t="n">
-        <v>1346724</v>
+        <v>901773</v>
       </c>
       <c r="AW42" s="16" t="n">
-        <v>901773</v>
+        <v>744313</v>
       </c>
       <c r="AX42" s="16" t="n">
-        <v>744313</v>
+        <v>809954</v>
       </c>
       <c r="AY42" s="16" t="n">
-        <v>809954</v>
+        <v>981146</v>
       </c>
       <c r="AZ42" s="16" t="n">
-        <v>981146</v>
+        <v>991745</v>
       </c>
       <c r="BA42" s="16" t="n">
-        <v>991745</v>
+        <v>0</v>
       </c>
       <c r="BB42" s="16" t="n">
-        <v>0</v>
+        <v>1496262</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7690,106 +7690,106 @@
         <v>0</v>
       </c>
       <c r="U43" s="18" t="n">
-        <v>0</v>
+        <v>120897071</v>
       </c>
       <c r="V43" s="18" t="n">
-        <v>120897071</v>
+        <v>128906685</v>
       </c>
       <c r="W43" s="18" t="n">
-        <v>128906685</v>
+        <v>123076887</v>
       </c>
       <c r="X43" s="18" t="n">
-        <v>123076887</v>
+        <v>281889448</v>
       </c>
       <c r="Y43" s="18" t="n">
-        <v>281889448</v>
+        <v>129496474</v>
       </c>
       <c r="Z43" s="18" t="n">
-        <v>129496474</v>
+        <v>125691818</v>
       </c>
       <c r="AA43" s="18" t="n">
-        <v>125691818</v>
+        <v>118898838</v>
       </c>
       <c r="AB43" s="18" t="n">
-        <v>118898838</v>
+        <v>116842052</v>
       </c>
       <c r="AC43" s="18" t="n">
-        <v>116842052</v>
+        <v>133204907</v>
       </c>
       <c r="AD43" s="18" t="n">
-        <v>133204907</v>
+        <v>111045998</v>
       </c>
       <c r="AE43" s="18" t="n">
-        <v>111045998</v>
+        <v>131350416</v>
       </c>
       <c r="AF43" s="18" t="n">
-        <v>131350416</v>
+        <v>130792775</v>
       </c>
       <c r="AG43" s="18" t="n">
-        <v>130792775</v>
+        <v>132544382</v>
       </c>
       <c r="AH43" s="18" t="n">
-        <v>132544382</v>
+        <v>128559075</v>
       </c>
       <c r="AI43" s="18" t="n">
-        <v>128559075</v>
+        <v>144832510</v>
       </c>
       <c r="AJ43" s="18" t="n">
-        <v>144832510</v>
+        <v>120830955</v>
       </c>
       <c r="AK43" s="18" t="n">
-        <v>120830955</v>
+        <v>115445907</v>
       </c>
       <c r="AL43" s="18" t="n">
-        <v>115445907</v>
+        <v>126717152</v>
       </c>
       <c r="AM43" s="18" t="n">
-        <v>126717152</v>
+        <v>123230414</v>
       </c>
       <c r="AN43" s="18" t="n">
-        <v>123230414</v>
+        <v>120507861</v>
       </c>
       <c r="AO43" s="18" t="n">
-        <v>120507861</v>
+        <v>129802520</v>
       </c>
       <c r="AP43" s="18" t="n">
-        <v>129802520</v>
+        <v>109407161</v>
       </c>
       <c r="AQ43" s="18" t="n">
-        <v>109407161</v>
+        <v>142807044</v>
       </c>
       <c r="AR43" s="18" t="n">
-        <v>142807044</v>
+        <v>111569580</v>
       </c>
       <c r="AS43" s="18" t="n">
-        <v>111569580</v>
+        <v>107121222</v>
       </c>
       <c r="AT43" s="18" t="n">
-        <v>107121222</v>
+        <v>103387124</v>
       </c>
       <c r="AU43" s="18" t="n">
-        <v>103387124</v>
+        <v>110568204</v>
       </c>
       <c r="AV43" s="18" t="n">
-        <v>110568204</v>
+        <v>107844579</v>
       </c>
       <c r="AW43" s="18" t="n">
-        <v>107844579</v>
+        <v>94259285</v>
       </c>
       <c r="AX43" s="18" t="n">
-        <v>94259285</v>
+        <v>95304167</v>
       </c>
       <c r="AY43" s="18" t="n">
-        <v>95304167</v>
+        <v>104266511</v>
       </c>
       <c r="AZ43" s="18" t="n">
-        <v>104266511</v>
+        <v>117240452</v>
       </c>
       <c r="BA43" s="18" t="n">
-        <v>117240452</v>
+        <v>0</v>
       </c>
       <c r="BB43" s="18" t="n">
-        <v>0</v>
+        <v>112295725</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8117,8 +8117,8 @@
       <c r="T47" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U47" s="18" t="s">
-        <v>58</v>
+      <c r="U47" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V47" s="18" t="n">
         <v>0</v>
@@ -8331,8 +8331,8 @@
       <c r="T49" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U49" s="18" t="s">
-        <v>58</v>
+      <c r="U49" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V49" s="18" t="n">
         <v>0</v>
@@ -8489,106 +8489,106 @@
         <v>0</v>
       </c>
       <c r="U50" s="22" t="n">
-        <v>0</v>
+        <v>120897071</v>
       </c>
       <c r="V50" s="22" t="n">
-        <v>120897071</v>
+        <v>128906685</v>
       </c>
       <c r="W50" s="22" t="n">
-        <v>128906685</v>
+        <v>123076887</v>
       </c>
       <c r="X50" s="22" t="n">
-        <v>123076887</v>
+        <v>281889448</v>
       </c>
       <c r="Y50" s="22" t="n">
-        <v>281889448</v>
+        <v>129496474</v>
       </c>
       <c r="Z50" s="22" t="n">
-        <v>129496474</v>
+        <v>125691818</v>
       </c>
       <c r="AA50" s="22" t="n">
-        <v>125691818</v>
+        <v>118898838</v>
       </c>
       <c r="AB50" s="22" t="n">
-        <v>118898838</v>
+        <v>116842052</v>
       </c>
       <c r="AC50" s="22" t="n">
-        <v>116842052</v>
+        <v>133204907</v>
       </c>
       <c r="AD50" s="22" t="n">
-        <v>133204907</v>
+        <v>111045998</v>
       </c>
       <c r="AE50" s="22" t="n">
-        <v>111045998</v>
+        <v>131350416</v>
       </c>
       <c r="AF50" s="22" t="n">
-        <v>131350416</v>
+        <v>130792775</v>
       </c>
       <c r="AG50" s="22" t="n">
-        <v>130792775</v>
+        <v>132544382</v>
       </c>
       <c r="AH50" s="22" t="n">
-        <v>132544382</v>
+        <v>128559075</v>
       </c>
       <c r="AI50" s="22" t="n">
-        <v>128559075</v>
+        <v>144832510</v>
       </c>
       <c r="AJ50" s="22" t="n">
-        <v>144832510</v>
+        <v>120830955</v>
       </c>
       <c r="AK50" s="22" t="n">
-        <v>120830955</v>
+        <v>115445907</v>
       </c>
       <c r="AL50" s="22" t="n">
-        <v>115445907</v>
+        <v>126717152</v>
       </c>
       <c r="AM50" s="22" t="n">
-        <v>126717152</v>
+        <v>123230414</v>
       </c>
       <c r="AN50" s="22" t="n">
-        <v>123230414</v>
+        <v>120507861</v>
       </c>
       <c r="AO50" s="22" t="n">
-        <v>120507861</v>
+        <v>129802520</v>
       </c>
       <c r="AP50" s="22" t="n">
-        <v>129802520</v>
+        <v>109407161</v>
       </c>
       <c r="AQ50" s="22" t="n">
-        <v>109407161</v>
+        <v>142807044</v>
       </c>
       <c r="AR50" s="22" t="n">
-        <v>142807044</v>
+        <v>111569580</v>
       </c>
       <c r="AS50" s="22" t="n">
-        <v>111569580</v>
+        <v>107121222</v>
       </c>
       <c r="AT50" s="22" t="n">
-        <v>107121222</v>
+        <v>103387124</v>
       </c>
       <c r="AU50" s="22" t="n">
-        <v>103387124</v>
+        <v>110568204</v>
       </c>
       <c r="AV50" s="22" t="n">
-        <v>110568204</v>
+        <v>107844579</v>
       </c>
       <c r="AW50" s="22" t="n">
-        <v>107844579</v>
+        <v>94259285</v>
       </c>
       <c r="AX50" s="22" t="n">
-        <v>94259285</v>
+        <v>95304167</v>
       </c>
       <c r="AY50" s="22" t="n">
-        <v>95304167</v>
+        <v>104266511</v>
       </c>
       <c r="AZ50" s="22" t="n">
-        <v>104266511</v>
+        <v>117240452</v>
       </c>
       <c r="BA50" s="22" t="n">
-        <v>117240452</v>
+        <v>0</v>
       </c>
       <c r="BB50" s="22" t="n">
-        <v>0</v>
+        <v>112295725</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9081,107 +9081,107 @@
       <c r="T57" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U57" s="13" t="s">
-        <v>58</v>
+      <c r="U57" s="13" t="n">
+        <v>19257</v>
       </c>
       <c r="V57" s="13" t="n">
-        <v>19257</v>
+        <v>19091</v>
       </c>
       <c r="W57" s="13" t="n">
-        <v>19091</v>
+        <v>21686</v>
       </c>
       <c r="X57" s="13" t="n">
-        <v>21686</v>
+        <v>25120</v>
       </c>
       <c r="Y57" s="13" t="n">
-        <v>25120</v>
+        <v>28085</v>
       </c>
       <c r="Z57" s="13" t="n">
-        <v>28085</v>
+        <v>31177</v>
       </c>
       <c r="AA57" s="13" t="n">
-        <v>31177</v>
+        <v>26729</v>
       </c>
       <c r="AB57" s="13" t="n">
-        <v>26729</v>
+        <v>24057</v>
       </c>
       <c r="AC57" s="13" t="n">
-        <v>24057</v>
+        <v>29822</v>
       </c>
       <c r="AD57" s="13" t="n">
-        <v>29822</v>
+        <v>16880</v>
       </c>
       <c r="AE57" s="13" t="n">
-        <v>16880</v>
+        <v>11091</v>
       </c>
       <c r="AF57" s="13" t="n">
-        <v>11091</v>
+        <v>19898</v>
       </c>
       <c r="AG57" s="13" t="n">
-        <v>19898</v>
+        <v>22155</v>
       </c>
       <c r="AH57" s="13" t="n">
-        <v>22155</v>
+        <v>21017</v>
       </c>
       <c r="AI57" s="13" t="n">
-        <v>21017</v>
+        <v>29361</v>
       </c>
       <c r="AJ57" s="13" t="n">
-        <v>29361</v>
+        <v>30583</v>
       </c>
       <c r="AK57" s="13" t="n">
-        <v>30583</v>
+        <v>29217</v>
       </c>
       <c r="AL57" s="13" t="n">
-        <v>29217</v>
+        <v>32352</v>
       </c>
       <c r="AM57" s="13" t="n">
-        <v>32352</v>
+        <v>30611</v>
       </c>
       <c r="AN57" s="13" t="n">
-        <v>30611</v>
+        <v>28504</v>
       </c>
       <c r="AO57" s="13" t="n">
-        <v>28504</v>
+        <v>25982</v>
       </c>
       <c r="AP57" s="13" t="n">
-        <v>25982</v>
+        <v>21147</v>
       </c>
       <c r="AQ57" s="13" t="n">
-        <v>21147</v>
+        <v>24586</v>
       </c>
       <c r="AR57" s="13" t="n">
-        <v>24586</v>
+        <v>20484</v>
       </c>
       <c r="AS57" s="13" t="n">
-        <v>20484</v>
+        <v>22006</v>
       </c>
       <c r="AT57" s="13" t="n">
-        <v>22006</v>
+        <v>22320</v>
       </c>
       <c r="AU57" s="13" t="n">
-        <v>22320</v>
+        <v>24122</v>
       </c>
       <c r="AV57" s="13" t="n">
-        <v>24122</v>
+        <v>26782</v>
       </c>
       <c r="AW57" s="13" t="n">
-        <v>26782</v>
+        <v>24834</v>
       </c>
       <c r="AX57" s="13" t="n">
-        <v>24834</v>
+        <v>23821</v>
       </c>
       <c r="AY57" s="13" t="n">
-        <v>23821</v>
+        <v>29723</v>
       </c>
       <c r="AZ57" s="13" t="n">
-        <v>29723</v>
+        <v>47070</v>
       </c>
       <c r="BA57" s="13" t="n">
-        <v>47070</v>
+        <v>35904</v>
       </c>
       <c r="BB57" s="13" t="n">
-        <v>35904</v>
+        <v>26876</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9240,107 +9240,107 @@
       <c r="T58" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U58" s="16" t="s">
-        <v>58</v>
+      <c r="U58" s="16" t="n">
+        <v>585002</v>
       </c>
       <c r="V58" s="16" t="n">
-        <v>585002</v>
+        <v>729611</v>
       </c>
       <c r="W58" s="16" t="n">
-        <v>729611</v>
+        <v>648355</v>
       </c>
       <c r="X58" s="16" t="n">
-        <v>648355</v>
+        <v>636887</v>
       </c>
       <c r="Y58" s="16" t="n">
-        <v>636887</v>
+        <v>670461</v>
       </c>
       <c r="Z58" s="16" t="n">
-        <v>670461</v>
+        <v>599483</v>
       </c>
       <c r="AA58" s="16" t="n">
-        <v>599483</v>
+        <v>583108</v>
       </c>
       <c r="AB58" s="16" t="n">
-        <v>583108</v>
+        <v>643083</v>
       </c>
       <c r="AC58" s="16" t="n">
-        <v>643083</v>
+        <v>756688</v>
       </c>
       <c r="AD58" s="16" t="n">
-        <v>756688</v>
+        <v>914139</v>
       </c>
       <c r="AE58" s="16" t="n">
-        <v>914139</v>
+        <v>1091281</v>
       </c>
       <c r="AF58" s="16" t="n">
-        <v>1091281</v>
+        <v>1359509</v>
       </c>
       <c r="AG58" s="16" t="n">
-        <v>1359509</v>
+        <v>1545280</v>
       </c>
       <c r="AH58" s="16" t="n">
-        <v>1545280</v>
+        <v>1508859</v>
       </c>
       <c r="AI58" s="16" t="n">
-        <v>1508859</v>
+        <v>1523560</v>
       </c>
       <c r="AJ58" s="16" t="n">
-        <v>1523560</v>
+        <v>1249471</v>
       </c>
       <c r="AK58" s="16" t="n">
-        <v>1249471</v>
+        <v>1017604</v>
       </c>
       <c r="AL58" s="16" t="n">
-        <v>1017604</v>
+        <v>1072647</v>
       </c>
       <c r="AM58" s="16" t="n">
-        <v>1072647</v>
+        <v>945572</v>
       </c>
       <c r="AN58" s="16" t="n">
-        <v>945572</v>
+        <v>938030</v>
       </c>
       <c r="AO58" s="16" t="n">
-        <v>938030</v>
+        <v>1011912</v>
       </c>
       <c r="AP58" s="16" t="n">
-        <v>1011912</v>
+        <v>1159348</v>
       </c>
       <c r="AQ58" s="16" t="n">
-        <v>1159348</v>
+        <v>1356891</v>
       </c>
       <c r="AR58" s="16" t="n">
-        <v>1356891</v>
+        <v>1526004</v>
       </c>
       <c r="AS58" s="16" t="n">
-        <v>1526004</v>
+        <v>1727081</v>
       </c>
       <c r="AT58" s="16" t="n">
-        <v>1727081</v>
+        <v>1710685</v>
       </c>
       <c r="AU58" s="16" t="n">
-        <v>1710685</v>
+        <v>1747365</v>
       </c>
       <c r="AV58" s="16" t="n">
-        <v>1747365</v>
+        <v>1436820</v>
       </c>
       <c r="AW58" s="16" t="n">
-        <v>1436820</v>
+        <v>1064517</v>
       </c>
       <c r="AX58" s="16" t="n">
-        <v>1064517</v>
+        <v>1047146</v>
       </c>
       <c r="AY58" s="16" t="n">
-        <v>1047146</v>
+        <v>1143177</v>
       </c>
       <c r="AZ58" s="16" t="n">
-        <v>1143177</v>
+        <v>1228545</v>
       </c>
       <c r="BA58" s="16" t="n">
-        <v>1228545</v>
+        <v>1557019</v>
       </c>
       <c r="BB58" s="16" t="n">
-        <v>1557019</v>
+        <v>1756633</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9399,107 +9399,107 @@
       <c r="T59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="13" t="s">
-        <v>58</v>
+      <c r="U59" s="13" t="n">
+        <v>2151811</v>
       </c>
       <c r="V59" s="13" t="n">
-        <v>2151811</v>
+        <v>2285483</v>
       </c>
       <c r="W59" s="13" t="n">
-        <v>2285483</v>
+        <v>2425327</v>
       </c>
       <c r="X59" s="13" t="n">
-        <v>2425327</v>
+        <v>2631987</v>
       </c>
       <c r="Y59" s="13" t="n">
-        <v>2631987</v>
+        <v>3093213</v>
       </c>
       <c r="Z59" s="13" t="n">
-        <v>3093213</v>
+        <v>2844327</v>
       </c>
       <c r="AA59" s="13" t="n">
-        <v>2844327</v>
+        <v>2898215</v>
       </c>
       <c r="AB59" s="13" t="n">
-        <v>2898215</v>
+        <v>2997082</v>
       </c>
       <c r="AC59" s="13" t="n">
-        <v>2997082</v>
+        <v>3925203</v>
       </c>
       <c r="AD59" s="13" t="n">
-        <v>3925203</v>
+        <v>2999325</v>
       </c>
       <c r="AE59" s="13" t="n">
-        <v>2999325</v>
+        <v>3449680</v>
       </c>
       <c r="AF59" s="13" t="n">
-        <v>3449680</v>
+        <v>3743355</v>
       </c>
       <c r="AG59" s="13" t="n">
-        <v>3743355</v>
+        <v>3920905</v>
       </c>
       <c r="AH59" s="13" t="n">
-        <v>3920905</v>
+        <v>3993741</v>
       </c>
       <c r="AI59" s="13" t="n">
-        <v>3993741</v>
+        <v>4439205</v>
       </c>
       <c r="AJ59" s="13" t="n">
-        <v>4439205</v>
+        <v>4062786</v>
       </c>
       <c r="AK59" s="13" t="n">
-        <v>4062786</v>
+        <v>4009310</v>
       </c>
       <c r="AL59" s="13" t="n">
-        <v>4009310</v>
+        <v>4211898</v>
       </c>
       <c r="AM59" s="13" t="n">
-        <v>4211898</v>
+        <v>4130260</v>
       </c>
       <c r="AN59" s="13" t="n">
-        <v>4130260</v>
+        <v>4061542</v>
       </c>
       <c r="AO59" s="13" t="n">
-        <v>4061542</v>
+        <v>5012506</v>
       </c>
       <c r="AP59" s="13" t="n">
-        <v>5012506</v>
+        <v>3503471</v>
       </c>
       <c r="AQ59" s="13" t="n">
-        <v>3503471</v>
+        <v>5722771</v>
       </c>
       <c r="AR59" s="13" t="n">
-        <v>5722771</v>
+        <v>4711193</v>
       </c>
       <c r="AS59" s="13" t="n">
-        <v>4711193</v>
+        <v>3967881</v>
       </c>
       <c r="AT59" s="13" t="n">
-        <v>3967881</v>
+        <v>4241702</v>
       </c>
       <c r="AU59" s="13" t="n">
-        <v>4241702</v>
+        <v>4603288</v>
       </c>
       <c r="AV59" s="13" t="n">
-        <v>4603288</v>
+        <v>4744859</v>
       </c>
       <c r="AW59" s="13" t="n">
-        <v>4744859</v>
+        <v>4443387</v>
       </c>
       <c r="AX59" s="13" t="n">
-        <v>4443387</v>
+        <v>4607831</v>
       </c>
       <c r="AY59" s="13" t="n">
-        <v>4607831</v>
+        <v>5307938</v>
       </c>
       <c r="AZ59" s="13" t="n">
-        <v>5307938</v>
+        <v>5428002</v>
       </c>
       <c r="BA59" s="13" t="n">
-        <v>5428002</v>
+        <v>7144435</v>
       </c>
       <c r="BB59" s="13" t="n">
-        <v>7144435</v>
+        <v>4803805</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9558,107 +9558,107 @@
       <c r="T60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>58</v>
+      <c r="U60" s="16" t="n">
+        <v>4990908</v>
       </c>
       <c r="V60" s="16" t="n">
-        <v>4990908</v>
+        <v>5265812</v>
       </c>
       <c r="W60" s="16" t="n">
-        <v>5265812</v>
+        <v>5900747</v>
       </c>
       <c r="X60" s="16" t="n">
-        <v>5900747</v>
+        <v>6504085</v>
       </c>
       <c r="Y60" s="16" t="n">
-        <v>6504085</v>
+        <v>7219003</v>
       </c>
       <c r="Z60" s="16" t="n">
-        <v>7219003</v>
+        <v>7311372</v>
       </c>
       <c r="AA60" s="16" t="n">
-        <v>7311372</v>
+        <v>6935743</v>
       </c>
       <c r="AB60" s="16" t="n">
-        <v>6935743</v>
+        <v>7296125</v>
       </c>
       <c r="AC60" s="16" t="n">
-        <v>7296125</v>
+        <v>8748094</v>
       </c>
       <c r="AD60" s="16" t="n">
-        <v>8748094</v>
+        <v>6509840</v>
       </c>
       <c r="AE60" s="16" t="n">
-        <v>6509840</v>
+        <v>8066608</v>
       </c>
       <c r="AF60" s="16" t="n">
-        <v>8066608</v>
+        <v>7626220</v>
       </c>
       <c r="AG60" s="16" t="n">
-        <v>7626220</v>
+        <v>7920911</v>
       </c>
       <c r="AH60" s="16" t="n">
-        <v>7920911</v>
+        <v>8360736</v>
       </c>
       <c r="AI60" s="16" t="n">
-        <v>8360736</v>
+        <v>10101834</v>
       </c>
       <c r="AJ60" s="16" t="n">
-        <v>10101834</v>
+        <v>8398934</v>
       </c>
       <c r="AK60" s="16" t="n">
-        <v>8398934</v>
+        <v>8499351</v>
       </c>
       <c r="AL60" s="16" t="n">
-        <v>8499351</v>
+        <v>9596331</v>
       </c>
       <c r="AM60" s="16" t="n">
-        <v>9596331</v>
+        <v>10347719</v>
       </c>
       <c r="AN60" s="16" t="n">
-        <v>10347719</v>
+        <v>10772289</v>
       </c>
       <c r="AO60" s="16" t="n">
-        <v>10772289</v>
+        <v>13235697</v>
       </c>
       <c r="AP60" s="16" t="n">
-        <v>13235697</v>
+        <v>9796097</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>9796097</v>
+        <v>14324572</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>14324572</v>
+        <v>13498000</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>13498000</v>
+        <v>14494598</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>14494598</v>
+        <v>14227007</v>
       </c>
       <c r="AU60" s="16" t="n">
-        <v>14227007</v>
+        <v>14823623</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>14823623</v>
+        <v>14758883</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>14758883</v>
+        <v>13660816</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>13660816</v>
+        <v>14326316</v>
       </c>
       <c r="AY60" s="16" t="n">
-        <v>14326316</v>
+        <v>16814363</v>
       </c>
       <c r="AZ60" s="16" t="n">
-        <v>16814363</v>
+        <v>18473690</v>
       </c>
       <c r="BA60" s="16" t="n">
-        <v>18473690</v>
+        <v>25748752</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>25748752</v>
+        <v>16902409</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9717,8 +9717,8 @@
       <c r="T61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="13" t="s">
-        <v>58</v>
+      <c r="U61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="13" t="n">
         <v>0</v>
@@ -9760,10 +9760,10 @@
         <v>0</v>
       </c>
       <c r="AI61" s="13" t="n">
-        <v>0</v>
+        <v>2755119</v>
       </c>
       <c r="AJ61" s="13" t="n">
-        <v>2755119</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="13" t="n">
         <v>0</v>
@@ -9787,37 +9787,37 @@
         <v>0</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>0</v>
+        <v>103535</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>103535</v>
+        <v>8731</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>8731</v>
+        <v>5038</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>5038</v>
+        <v>279748</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>279748</v>
+        <v>4506</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>4506</v>
+        <v>4331</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>4331</v>
+        <v>164511</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>164511</v>
+        <v>4526</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>4526</v>
+        <v>0</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>1187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9876,38 +9876,38 @@
       <c r="T62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="16" t="s">
-        <v>58</v>
+      <c r="U62" s="16" t="n">
+        <v>44553</v>
       </c>
       <c r="V62" s="16" t="n">
-        <v>44553</v>
+        <v>54408</v>
       </c>
       <c r="W62" s="16" t="n">
-        <v>54408</v>
+        <v>49016</v>
       </c>
       <c r="X62" s="16" t="n">
-        <v>49016</v>
+        <v>46330</v>
       </c>
       <c r="Y62" s="16" t="n">
-        <v>46330</v>
+        <v>32613</v>
       </c>
       <c r="Z62" s="16" t="n">
-        <v>32613</v>
+        <v>33980</v>
       </c>
       <c r="AA62" s="16" t="n">
-        <v>33980</v>
+        <v>26077</v>
       </c>
       <c r="AB62" s="16" t="n">
-        <v>26077</v>
+        <v>22750</v>
       </c>
       <c r="AC62" s="16" t="n">
-        <v>22750</v>
+        <v>15354</v>
       </c>
       <c r="AD62" s="16" t="n">
-        <v>15354</v>
+        <v>10058</v>
       </c>
       <c r="AE62" s="16" t="n">
-        <v>10058</v>
+        <v>0</v>
       </c>
       <c r="AF62" s="16" t="n">
         <v>0</v>
@@ -10035,107 +10035,107 @@
       <c r="T63" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U63" s="13" t="s">
-        <v>58</v>
+      <c r="U63" s="13" t="n">
+        <v>212010</v>
       </c>
       <c r="V63" s="13" t="n">
-        <v>212010</v>
+        <v>228097</v>
       </c>
       <c r="W63" s="13" t="n">
-        <v>228097</v>
+        <v>232289</v>
       </c>
       <c r="X63" s="13" t="n">
-        <v>232289</v>
+        <v>244016</v>
       </c>
       <c r="Y63" s="13" t="n">
-        <v>244016</v>
+        <v>276674</v>
       </c>
       <c r="Z63" s="13" t="n">
-        <v>276674</v>
+        <v>288483</v>
       </c>
       <c r="AA63" s="13" t="n">
-        <v>288483</v>
+        <v>274387</v>
       </c>
       <c r="AB63" s="13" t="n">
-        <v>274387</v>
+        <v>273734</v>
       </c>
       <c r="AC63" s="13" t="n">
-        <v>273734</v>
+        <v>359663</v>
       </c>
       <c r="AD63" s="13" t="n">
-        <v>359663</v>
+        <v>297043</v>
       </c>
       <c r="AE63" s="13" t="n">
-        <v>297043</v>
+        <v>308827</v>
       </c>
       <c r="AF63" s="13" t="n">
-        <v>308827</v>
+        <v>335207</v>
       </c>
       <c r="AG63" s="13" t="n">
-        <v>335207</v>
+        <v>369689</v>
       </c>
       <c r="AH63" s="13" t="n">
-        <v>369689</v>
+        <v>365617</v>
       </c>
       <c r="AI63" s="13" t="n">
-        <v>365617</v>
+        <v>422248</v>
       </c>
       <c r="AJ63" s="13" t="n">
-        <v>422248</v>
+        <v>399701</v>
       </c>
       <c r="AK63" s="13" t="n">
-        <v>399701</v>
+        <v>378506</v>
       </c>
       <c r="AL63" s="13" t="n">
-        <v>378506</v>
+        <v>386569</v>
       </c>
       <c r="AM63" s="13" t="n">
-        <v>386569</v>
+        <v>377865</v>
       </c>
       <c r="AN63" s="13" t="n">
-        <v>377865</v>
+        <v>380540</v>
       </c>
       <c r="AO63" s="13" t="n">
-        <v>380540</v>
+        <v>446524</v>
       </c>
       <c r="AP63" s="13" t="n">
-        <v>446524</v>
+        <v>352952</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>352952</v>
+        <v>433235</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>433235</v>
+        <v>372635</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>372635</v>
+        <v>408102</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>408102</v>
+        <v>423248</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>423248</v>
+        <v>443416</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>443416</v>
+        <v>434388</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>434388</v>
+        <v>410089</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>410089</v>
+        <v>423647</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>423647</v>
+        <v>473244</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>473244</v>
+        <v>636315</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>636315</v>
+        <v>733826</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>733826</v>
+        <v>599160</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10194,107 +10194,107 @@
       <c r="T64" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U64" s="16" t="s">
-        <v>58</v>
+      <c r="U64" s="16" t="n">
+        <v>2972383</v>
       </c>
       <c r="V64" s="16" t="n">
-        <v>2972383</v>
+        <v>3257940</v>
       </c>
       <c r="W64" s="16" t="n">
-        <v>3257940</v>
+        <v>3206542</v>
       </c>
       <c r="X64" s="16" t="n">
-        <v>3206542</v>
+        <v>3351039</v>
       </c>
       <c r="Y64" s="16" t="n">
-        <v>3351039</v>
+        <v>3612938</v>
       </c>
       <c r="Z64" s="16" t="n">
-        <v>3612938</v>
+        <v>3941276</v>
       </c>
       <c r="AA64" s="16" t="n">
-        <v>3941276</v>
+        <v>3637068</v>
       </c>
       <c r="AB64" s="16" t="n">
-        <v>3637068</v>
+        <v>3530372</v>
       </c>
       <c r="AC64" s="16" t="n">
-        <v>3530372</v>
+        <v>4060749</v>
       </c>
       <c r="AD64" s="16" t="n">
-        <v>4060749</v>
+        <v>3332831</v>
       </c>
       <c r="AE64" s="16" t="n">
-        <v>3332831</v>
+        <v>3940472</v>
       </c>
       <c r="AF64" s="16" t="n">
-        <v>3940472</v>
+        <v>4271109</v>
       </c>
       <c r="AG64" s="16" t="n">
-        <v>4271109</v>
+        <v>4518665</v>
       </c>
       <c r="AH64" s="16" t="n">
-        <v>4518665</v>
+        <v>4474989</v>
       </c>
       <c r="AI64" s="16" t="n">
-        <v>4474989</v>
+        <v>5096411</v>
       </c>
       <c r="AJ64" s="16" t="n">
-        <v>5096411</v>
+        <v>4951513</v>
       </c>
       <c r="AK64" s="16" t="n">
-        <v>4951513</v>
+        <v>4951413</v>
       </c>
       <c r="AL64" s="16" t="n">
-        <v>4951413</v>
+        <v>4968123</v>
       </c>
       <c r="AM64" s="16" t="n">
-        <v>4968123</v>
+        <v>4819676</v>
       </c>
       <c r="AN64" s="16" t="n">
-        <v>4819676</v>
+        <v>4964394</v>
       </c>
       <c r="AO64" s="16" t="n">
-        <v>4964394</v>
+        <v>5484395</v>
       </c>
       <c r="AP64" s="16" t="n">
-        <v>5484395</v>
+        <v>4787700</v>
       </c>
       <c r="AQ64" s="16" t="n">
-        <v>4787700</v>
+        <v>6629414</v>
       </c>
       <c r="AR64" s="16" t="n">
-        <v>6629414</v>
+        <v>6264816</v>
       </c>
       <c r="AS64" s="16" t="n">
-        <v>6264816</v>
+        <v>6871349</v>
       </c>
       <c r="AT64" s="16" t="n">
-        <v>6871349</v>
+        <v>6677201</v>
       </c>
       <c r="AU64" s="16" t="n">
-        <v>6677201</v>
+        <v>7461348</v>
       </c>
       <c r="AV64" s="16" t="n">
-        <v>7461348</v>
+        <v>7721704</v>
       </c>
       <c r="AW64" s="16" t="n">
-        <v>7721704</v>
+        <v>6895939</v>
       </c>
       <c r="AX64" s="16" t="n">
-        <v>6895939</v>
+        <v>6708641</v>
       </c>
       <c r="AY64" s="16" t="n">
-        <v>6708641</v>
+        <v>7401744</v>
       </c>
       <c r="AZ64" s="16" t="n">
-        <v>7401744</v>
+        <v>8967356</v>
       </c>
       <c r="BA64" s="16" t="n">
-        <v>8967356</v>
+        <v>12062839</v>
       </c>
       <c r="BB64" s="16" t="n">
-        <v>12062839</v>
+        <v>9870657</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10353,107 +10353,107 @@
       <c r="T65" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="13" t="s">
-        <v>58</v>
+      <c r="U65" s="13" t="n">
+        <v>982</v>
       </c>
       <c r="V65" s="13" t="n">
-        <v>982</v>
+        <v>954</v>
       </c>
       <c r="W65" s="13" t="n">
-        <v>954</v>
+        <v>832</v>
       </c>
       <c r="X65" s="13" t="n">
-        <v>832</v>
+        <v>629</v>
       </c>
       <c r="Y65" s="13" t="n">
-        <v>629</v>
+        <v>451</v>
       </c>
       <c r="Z65" s="13" t="n">
-        <v>451</v>
+        <v>390</v>
       </c>
       <c r="AA65" s="13" t="n">
-        <v>390</v>
+        <v>332</v>
       </c>
       <c r="AB65" s="13" t="n">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="AC65" s="13" t="n">
-        <v>362</v>
+        <v>479</v>
       </c>
       <c r="AD65" s="13" t="n">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="AE65" s="13" t="n">
-        <v>490</v>
+        <v>12179</v>
       </c>
       <c r="AF65" s="13" t="n">
-        <v>12179</v>
+        <v>12743</v>
       </c>
       <c r="AG65" s="13" t="n">
-        <v>12743</v>
+        <v>7060</v>
       </c>
       <c r="AH65" s="13" t="n">
-        <v>7060</v>
+        <v>2935</v>
       </c>
       <c r="AI65" s="13" t="n">
-        <v>2935</v>
+        <v>0</v>
       </c>
       <c r="AJ65" s="13" t="n">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="AK65" s="13" t="n">
-        <v>952</v>
+        <v>866</v>
       </c>
       <c r="AL65" s="13" t="n">
-        <v>866</v>
+        <v>995</v>
       </c>
       <c r="AM65" s="13" t="n">
-        <v>995</v>
+        <v>53</v>
       </c>
       <c r="AN65" s="13" t="n">
-        <v>53</v>
+        <v>286</v>
       </c>
       <c r="AO65" s="13" t="n">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="AP65" s="13" t="n">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="AQ65" s="13" t="n">
-        <v>192</v>
+        <v>67</v>
       </c>
       <c r="AR65" s="13" t="n">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="AS65" s="13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT65" s="13" t="n">
         <v>0</v>
       </c>
       <c r="AU65" s="13" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AV65" s="13" t="n">
         <v>9</v>
       </c>
       <c r="AW65" s="13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="13" t="n">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="AY65" s="13" t="n">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="AZ65" s="13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="BA65" s="13" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="BB65" s="13" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10578,41 +10578,41 @@
       <c r="AP66" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ66" s="16" t="s">
-        <v>58</v>
+      <c r="AQ66" s="16" t="n">
+        <v>20447</v>
       </c>
       <c r="AR66" s="16" t="n">
-        <v>20447</v>
+        <v>40470</v>
       </c>
       <c r="AS66" s="16" t="n">
-        <v>40470</v>
+        <v>53595</v>
       </c>
       <c r="AT66" s="16" t="n">
-        <v>53595</v>
+        <v>84891</v>
       </c>
       <c r="AU66" s="16" t="n">
-        <v>84891</v>
+        <v>142170</v>
       </c>
       <c r="AV66" s="16" t="n">
-        <v>142170</v>
+        <v>99683</v>
       </c>
       <c r="AW66" s="16" t="n">
-        <v>99683</v>
+        <v>84776</v>
       </c>
       <c r="AX66" s="16" t="n">
-        <v>84776</v>
+        <v>94643</v>
       </c>
       <c r="AY66" s="16" t="n">
-        <v>94643</v>
+        <v>115263</v>
       </c>
       <c r="AZ66" s="16" t="n">
-        <v>115263</v>
+        <v>117047</v>
       </c>
       <c r="BA66" s="16" t="n">
-        <v>117047</v>
+        <v>140480</v>
       </c>
       <c r="BB66" s="16" t="n">
-        <v>140480</v>
+        <v>188916</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10670,106 +10670,106 @@
         <v>0</v>
       </c>
       <c r="U67" s="18" t="n">
-        <v>0</v>
+        <v>10976906</v>
       </c>
       <c r="V67" s="18" t="n">
-        <v>10976906</v>
+        <v>11841396</v>
       </c>
       <c r="W67" s="18" t="n">
-        <v>11841396</v>
+        <v>12484794</v>
       </c>
       <c r="X67" s="18" t="n">
-        <v>12484794</v>
+        <v>13440093</v>
       </c>
       <c r="Y67" s="18" t="n">
-        <v>13440093</v>
+        <v>14933438</v>
       </c>
       <c r="Z67" s="18" t="n">
-        <v>14933438</v>
+        <v>15050488</v>
       </c>
       <c r="AA67" s="18" t="n">
-        <v>15050488</v>
+        <v>14381659</v>
       </c>
       <c r="AB67" s="18" t="n">
-        <v>14381659</v>
+        <v>14787565</v>
       </c>
       <c r="AC67" s="18" t="n">
-        <v>14787565</v>
+        <v>17896052</v>
       </c>
       <c r="AD67" s="18" t="n">
-        <v>17896052</v>
+        <v>14080606</v>
       </c>
       <c r="AE67" s="18" t="n">
-        <v>14080606</v>
+        <v>16880138</v>
       </c>
       <c r="AF67" s="18" t="n">
-        <v>16880138</v>
+        <v>17368041</v>
       </c>
       <c r="AG67" s="18" t="n">
-        <v>17368041</v>
+        <v>18304665</v>
       </c>
       <c r="AH67" s="18" t="n">
-        <v>18304665</v>
+        <v>18727894</v>
       </c>
       <c r="AI67" s="18" t="n">
-        <v>18727894</v>
+        <v>24367738</v>
       </c>
       <c r="AJ67" s="18" t="n">
-        <v>24367738</v>
+        <v>19093940</v>
       </c>
       <c r="AK67" s="18" t="n">
-        <v>19093940</v>
+        <v>18886267</v>
       </c>
       <c r="AL67" s="18" t="n">
-        <v>18886267</v>
+        <v>20268915</v>
       </c>
       <c r="AM67" s="18" t="n">
-        <v>20268915</v>
+        <v>20651756</v>
       </c>
       <c r="AN67" s="18" t="n">
-        <v>20651756</v>
+        <v>21145585</v>
       </c>
       <c r="AO67" s="18" t="n">
-        <v>21145585</v>
+        <v>25217016</v>
       </c>
       <c r="AP67" s="18" t="n">
-        <v>25217016</v>
+        <v>19620907</v>
       </c>
       <c r="AQ67" s="18" t="n">
-        <v>19620907</v>
+        <v>28511983</v>
       </c>
       <c r="AR67" s="18" t="n">
-        <v>28511983</v>
+        <v>26537159</v>
       </c>
       <c r="AS67" s="18" t="n">
-        <v>26537159</v>
+        <v>27553343</v>
       </c>
       <c r="AT67" s="18" t="n">
-        <v>27553343</v>
+        <v>27392092</v>
       </c>
       <c r="AU67" s="18" t="n">
-        <v>27392092</v>
+        <v>29525089</v>
       </c>
       <c r="AV67" s="18" t="n">
-        <v>29525089</v>
+        <v>29227634</v>
       </c>
       <c r="AW67" s="18" t="n">
-        <v>29227634</v>
+        <v>26588689</v>
       </c>
       <c r="AX67" s="18" t="n">
-        <v>26588689</v>
+        <v>27396744</v>
       </c>
       <c r="AY67" s="18" t="n">
-        <v>27396744</v>
+        <v>31289978</v>
       </c>
       <c r="AZ67" s="18" t="n">
-        <v>31289978</v>
+        <v>34898059</v>
       </c>
       <c r="BA67" s="18" t="n">
-        <v>34898059</v>
+        <v>47424467</v>
       </c>
       <c r="BB67" s="18" t="n">
-        <v>47424467</v>
+        <v>34148456</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11099,8 +11099,8 @@
       <c r="T71" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U71" s="18" t="s">
-        <v>58</v>
+      <c r="U71" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V71" s="23" t="n">
         <v>0</v>
@@ -11315,8 +11315,8 @@
       <c r="T73" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U73" s="18" t="s">
-        <v>58</v>
+      <c r="U73" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V73" s="23" t="n">
         <v>0</v>
@@ -11531,8 +11531,8 @@
       <c r="T75" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U75" s="13" t="s">
-        <v>58</v>
+      <c r="U75" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V75" s="13" t="n">
         <v>0</v>
@@ -11689,106 +11689,106 @@
         <v>0</v>
       </c>
       <c r="U76" s="22" t="n">
-        <v>0</v>
+        <v>10976906</v>
       </c>
       <c r="V76" s="22" t="n">
-        <v>10976906</v>
+        <v>11841396</v>
       </c>
       <c r="W76" s="22" t="n">
-        <v>11841396</v>
+        <v>12484794</v>
       </c>
       <c r="X76" s="22" t="n">
-        <v>12484794</v>
+        <v>13440093</v>
       </c>
       <c r="Y76" s="22" t="n">
-        <v>13440093</v>
+        <v>14933438</v>
       </c>
       <c r="Z76" s="22" t="n">
-        <v>14933438</v>
+        <v>15050488</v>
       </c>
       <c r="AA76" s="22" t="n">
-        <v>15050488</v>
+        <v>14381659</v>
       </c>
       <c r="AB76" s="22" t="n">
-        <v>14381659</v>
+        <v>14787565</v>
       </c>
       <c r="AC76" s="22" t="n">
-        <v>14787565</v>
+        <v>17896052</v>
       </c>
       <c r="AD76" s="22" t="n">
-        <v>17896052</v>
+        <v>14080606</v>
       </c>
       <c r="AE76" s="22" t="n">
-        <v>14080606</v>
+        <v>16880138</v>
       </c>
       <c r="AF76" s="22" t="n">
-        <v>16880138</v>
+        <v>17368041</v>
       </c>
       <c r="AG76" s="22" t="n">
-        <v>17368041</v>
+        <v>18304665</v>
       </c>
       <c r="AH76" s="22" t="n">
-        <v>18304665</v>
+        <v>18727894</v>
       </c>
       <c r="AI76" s="22" t="n">
-        <v>18727894</v>
+        <v>24367738</v>
       </c>
       <c r="AJ76" s="22" t="n">
-        <v>24367738</v>
+        <v>19093940</v>
       </c>
       <c r="AK76" s="22" t="n">
-        <v>19093940</v>
+        <v>18886267</v>
       </c>
       <c r="AL76" s="22" t="n">
-        <v>18886267</v>
+        <v>20268915</v>
       </c>
       <c r="AM76" s="22" t="n">
-        <v>20268915</v>
+        <v>20651756</v>
       </c>
       <c r="AN76" s="22" t="n">
-        <v>20651756</v>
+        <v>21145585</v>
       </c>
       <c r="AO76" s="22" t="n">
-        <v>21145585</v>
+        <v>25217016</v>
       </c>
       <c r="AP76" s="22" t="n">
-        <v>25217016</v>
+        <v>19620907</v>
       </c>
       <c r="AQ76" s="22" t="n">
-        <v>19620907</v>
+        <v>28511983</v>
       </c>
       <c r="AR76" s="22" t="n">
-        <v>28511983</v>
+        <v>26537159</v>
       </c>
       <c r="AS76" s="22" t="n">
-        <v>26537159</v>
+        <v>27553343</v>
       </c>
       <c r="AT76" s="22" t="n">
-        <v>27553343</v>
+        <v>27392092</v>
       </c>
       <c r="AU76" s="22" t="n">
-        <v>27392092</v>
+        <v>29525089</v>
       </c>
       <c r="AV76" s="22" t="n">
-        <v>29525089</v>
+        <v>29227634</v>
       </c>
       <c r="AW76" s="22" t="n">
-        <v>29227634</v>
+        <v>26588689</v>
       </c>
       <c r="AX76" s="22" t="n">
-        <v>26588689</v>
+        <v>27396744</v>
       </c>
       <c r="AY76" s="22" t="n">
-        <v>27396744</v>
+        <v>31289978</v>
       </c>
       <c r="AZ76" s="22" t="n">
-        <v>31289978</v>
+        <v>34898059</v>
       </c>
       <c r="BA76" s="22" t="n">
-        <v>34898059</v>
+        <v>47424467</v>
       </c>
       <c r="BB76" s="22" t="n">
-        <v>47424467</v>
+        <v>34148456</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12281,107 +12281,107 @@
       <c r="T83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U83" s="13" t="s">
-        <v>58</v>
+      <c r="U83" s="13" t="n">
+        <v>130097</v>
       </c>
       <c r="V83" s="13" t="n">
-        <v>130097</v>
+        <v>141857</v>
       </c>
       <c r="W83" s="13" t="n">
-        <v>141857</v>
+        <v>143573</v>
       </c>
       <c r="X83" s="13" t="n">
-        <v>143573</v>
+        <v>152534</v>
       </c>
       <c r="Y83" s="13" t="n">
-        <v>152534</v>
+        <v>168952</v>
       </c>
       <c r="Z83" s="13" t="n">
-        <v>168952</v>
+        <v>175039</v>
       </c>
       <c r="AA83" s="13" t="n">
-        <v>175039</v>
+        <v>175670</v>
       </c>
       <c r="AB83" s="13" t="n">
-        <v>175670</v>
+        <v>173954</v>
       </c>
       <c r="AC83" s="13" t="n">
-        <v>173954</v>
+        <v>180002</v>
       </c>
       <c r="AD83" s="13" t="n">
-        <v>180002</v>
+        <v>173868</v>
       </c>
       <c r="AE83" s="13" t="n">
-        <v>173868</v>
+        <v>165941</v>
       </c>
       <c r="AF83" s="13" t="n">
-        <v>165941</v>
+        <v>60348</v>
       </c>
       <c r="AG83" s="13" t="n">
-        <v>60348</v>
+        <v>433519</v>
       </c>
       <c r="AH83" s="13" t="n">
-        <v>433519</v>
+        <v>428054</v>
       </c>
       <c r="AI83" s="13" t="n">
-        <v>428054</v>
+        <v>562978</v>
       </c>
       <c r="AJ83" s="13" t="n">
-        <v>562978</v>
+        <v>202872</v>
       </c>
       <c r="AK83" s="13" t="n">
-        <v>202872</v>
+        <v>199863</v>
       </c>
       <c r="AL83" s="13" t="n">
-        <v>199863</v>
+        <v>208980</v>
       </c>
       <c r="AM83" s="13" t="n">
-        <v>208980</v>
+        <v>215569</v>
       </c>
       <c r="AN83" s="13" t="n">
-        <v>215569</v>
+        <v>214703</v>
       </c>
       <c r="AO83" s="13" t="n">
-        <v>214703</v>
+        <v>256056</v>
       </c>
       <c r="AP83" s="13" t="n">
-        <v>256056</v>
+        <v>217481</v>
       </c>
       <c r="AQ83" s="13" t="n">
-        <v>217481</v>
+        <v>235183</v>
       </c>
       <c r="AR83" s="13" t="n">
-        <v>235183</v>
+        <v>256012</v>
       </c>
       <c r="AS83" s="13" t="n">
-        <v>256012</v>
+        <v>290259</v>
       </c>
       <c r="AT83" s="13" t="n">
-        <v>290259</v>
+        <v>269386</v>
       </c>
       <c r="AU83" s="13" t="n">
-        <v>269386</v>
+        <v>265828</v>
       </c>
       <c r="AV83" s="13" t="n">
-        <v>265828</v>
+        <v>259327</v>
       </c>
       <c r="AW83" s="13" t="n">
-        <v>259327</v>
+        <v>278561</v>
       </c>
       <c r="AX83" s="13" t="n">
-        <v>278561</v>
+        <v>289765</v>
       </c>
       <c r="AY83" s="13" t="n">
-        <v>289765</v>
+        <v>334817</v>
       </c>
       <c r="AZ83" s="13" t="n">
-        <v>334817</v>
-      </c>
-      <c r="BA83" s="13" t="n">
         <v>324811</v>
       </c>
-      <c r="BB83" s="13" t="s">
-        <v>58</v>
+      <c r="BA83" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB83" s="13" t="n">
+        <v>336413</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12440,107 +12440,107 @@
       <c r="T84" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U84" s="16" t="s">
-        <v>58</v>
+      <c r="U84" s="16" t="n">
+        <v>47414</v>
       </c>
       <c r="V84" s="16" t="n">
-        <v>47414</v>
+        <v>49196</v>
       </c>
       <c r="W84" s="16" t="n">
-        <v>49196</v>
+        <v>51206</v>
       </c>
       <c r="X84" s="16" t="n">
-        <v>51206</v>
+        <v>55439</v>
       </c>
       <c r="Y84" s="16" t="n">
-        <v>55439</v>
+        <v>59970</v>
       </c>
       <c r="Z84" s="16" t="n">
-        <v>59970</v>
+        <v>64108</v>
       </c>
       <c r="AA84" s="16" t="n">
-        <v>64108</v>
+        <v>64993</v>
       </c>
       <c r="AB84" s="16" t="n">
-        <v>64993</v>
+        <v>66181</v>
       </c>
       <c r="AC84" s="16" t="n">
-        <v>66181</v>
+        <v>66302</v>
       </c>
       <c r="AD84" s="16" t="n">
-        <v>66302</v>
+        <v>72411</v>
       </c>
       <c r="AE84" s="16" t="n">
-        <v>72411</v>
+        <v>79044</v>
       </c>
       <c r="AF84" s="16" t="n">
-        <v>79044</v>
+        <v>85176</v>
       </c>
       <c r="AG84" s="16" t="n">
-        <v>85176</v>
+        <v>85962</v>
       </c>
       <c r="AH84" s="16" t="n">
-        <v>85962</v>
+        <v>93402</v>
       </c>
       <c r="AI84" s="16" t="n">
-        <v>93402</v>
+        <v>94725</v>
       </c>
       <c r="AJ84" s="16" t="n">
-        <v>94725</v>
+        <v>91799</v>
       </c>
       <c r="AK84" s="16" t="n">
-        <v>91799</v>
+        <v>91666</v>
       </c>
       <c r="AL84" s="16" t="n">
-        <v>91666</v>
+        <v>89782</v>
       </c>
       <c r="AM84" s="16" t="n">
-        <v>89782</v>
+        <v>96237</v>
       </c>
       <c r="AN84" s="16" t="n">
-        <v>96237</v>
+        <v>95965</v>
       </c>
       <c r="AO84" s="16" t="n">
-        <v>95965</v>
+        <v>95152</v>
       </c>
       <c r="AP84" s="16" t="n">
-        <v>95152</v>
+        <v>91713</v>
       </c>
       <c r="AQ84" s="16" t="n">
-        <v>91713</v>
+        <v>97695</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>97695</v>
+        <v>109651</v>
       </c>
       <c r="AS84" s="16" t="n">
-        <v>109651</v>
+        <v>116773</v>
       </c>
       <c r="AT84" s="16" t="n">
-        <v>116773</v>
+        <v>118431</v>
       </c>
       <c r="AU84" s="16" t="n">
-        <v>118431</v>
+        <v>112885</v>
       </c>
       <c r="AV84" s="16" t="n">
-        <v>112885</v>
+        <v>113834</v>
       </c>
       <c r="AW84" s="16" t="n">
-        <v>113834</v>
+        <v>115941</v>
       </c>
       <c r="AX84" s="16" t="n">
-        <v>115941</v>
+        <v>117967</v>
       </c>
       <c r="AY84" s="16" t="n">
-        <v>117967</v>
+        <v>117879</v>
       </c>
       <c r="AZ84" s="16" t="n">
-        <v>117879</v>
-      </c>
-      <c r="BA84" s="16" t="n">
         <v>122457</v>
       </c>
-      <c r="BB84" s="16" t="s">
-        <v>58</v>
+      <c r="BA84" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB84" s="16" t="n">
+        <v>133791</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12599,107 +12599,107 @@
       <c r="T85" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U85" s="13" t="s">
-        <v>58</v>
+      <c r="U85" s="13" t="n">
+        <v>125057</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>125057</v>
+        <v>130093</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>130093</v>
+        <v>136975</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>136975</v>
+        <v>143132</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>143132</v>
+        <v>149369</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>149369</v>
+        <v>165526</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>165526</v>
+        <v>176969</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>176969</v>
+        <v>183006</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>183006</v>
+        <v>184727</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>184727</v>
+        <v>196273</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>196273</v>
+        <v>200325</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>200325</v>
+        <v>197925</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>197925</v>
+        <v>195271</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>195271</v>
+        <v>206909</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>206909</v>
+        <v>216169</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>216169</v>
+        <v>230172</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>230172</v>
+        <v>236319</v>
       </c>
       <c r="AL85" s="13" t="n">
-        <v>236319</v>
+        <v>239305</v>
       </c>
       <c r="AM85" s="13" t="n">
-        <v>239305</v>
+        <v>238331</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>238331</v>
+        <v>237531</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>237531</v>
+        <v>233317</v>
       </c>
       <c r="AP85" s="13" t="n">
-        <v>233317</v>
+        <v>250586</v>
       </c>
       <c r="AQ85" s="13" t="n">
-        <v>250586</v>
+        <v>251503</v>
       </c>
       <c r="AR85" s="13" t="n">
-        <v>251503</v>
+        <v>260421</v>
       </c>
       <c r="AS85" s="13" t="n">
-        <v>260421</v>
+        <v>274286</v>
       </c>
       <c r="AT85" s="13" t="n">
-        <v>274286</v>
+        <v>287416</v>
       </c>
       <c r="AU85" s="13" t="n">
-        <v>287416</v>
+        <v>295771</v>
       </c>
       <c r="AV85" s="13" t="n">
-        <v>295771</v>
+        <v>309148</v>
       </c>
       <c r="AW85" s="13" t="n">
-        <v>309148</v>
+        <v>312830</v>
       </c>
       <c r="AX85" s="13" t="n">
-        <v>312830</v>
+        <v>317043</v>
       </c>
       <c r="AY85" s="13" t="n">
-        <v>317043</v>
+        <v>322393</v>
       </c>
       <c r="AZ85" s="13" t="n">
-        <v>322393</v>
-      </c>
-      <c r="BA85" s="13" t="n">
         <v>322821</v>
       </c>
-      <c r="BB85" s="13" t="s">
-        <v>58</v>
+      <c r="BA85" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB85" s="13" t="n">
+        <v>346125</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12758,107 +12758,107 @@
       <c r="T86" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U86" s="16" t="s">
-        <v>58</v>
+      <c r="U86" s="16" t="n">
+        <v>86691</v>
       </c>
       <c r="V86" s="16" t="n">
-        <v>86691</v>
+        <v>88284</v>
       </c>
       <c r="W86" s="16" t="n">
-        <v>88284</v>
+        <v>101491</v>
       </c>
       <c r="X86" s="16" t="n">
-        <v>101491</v>
+        <v>112579</v>
       </c>
       <c r="Y86" s="16" t="n">
-        <v>112579</v>
+        <v>111895</v>
       </c>
       <c r="Z86" s="16" t="n">
-        <v>111895</v>
+        <v>111259</v>
       </c>
       <c r="AA86" s="16" t="n">
-        <v>111259</v>
+        <v>110571</v>
       </c>
       <c r="AB86" s="16" t="n">
-        <v>110571</v>
+        <v>120379</v>
       </c>
       <c r="AC86" s="16" t="n">
-        <v>120379</v>
+        <v>129295</v>
       </c>
       <c r="AD86" s="16" t="n">
-        <v>129295</v>
+        <v>121775</v>
       </c>
       <c r="AE86" s="16" t="n">
-        <v>121775</v>
+        <v>120735</v>
       </c>
       <c r="AF86" s="16" t="n">
-        <v>120735</v>
+        <v>127925</v>
       </c>
       <c r="AG86" s="16" t="n">
-        <v>127925</v>
+        <v>136023</v>
       </c>
       <c r="AH86" s="16" t="n">
-        <v>136023</v>
+        <v>146817</v>
       </c>
       <c r="AI86" s="16" t="n">
-        <v>146817</v>
+        <v>141082</v>
       </c>
       <c r="AJ86" s="16" t="n">
-        <v>141082</v>
+        <v>145740</v>
       </c>
       <c r="AK86" s="16" t="n">
-        <v>145740</v>
+        <v>148107</v>
       </c>
       <c r="AL86" s="16" t="n">
-        <v>148107</v>
+        <v>143849</v>
       </c>
       <c r="AM86" s="16" t="n">
-        <v>143849</v>
+        <v>155491</v>
       </c>
       <c r="AN86" s="16" t="n">
-        <v>155491</v>
+        <v>169540</v>
       </c>
       <c r="AO86" s="16" t="n">
-        <v>169540</v>
+        <v>199392</v>
       </c>
       <c r="AP86" s="16" t="n">
-        <v>199392</v>
+        <v>184936</v>
       </c>
       <c r="AQ86" s="16" t="n">
-        <v>184936</v>
+        <v>211778</v>
       </c>
       <c r="AR86" s="16" t="n">
-        <v>211778</v>
+        <v>276571</v>
       </c>
       <c r="AS86" s="16" t="n">
-        <v>276571</v>
+        <v>305582</v>
       </c>
       <c r="AT86" s="16" t="n">
-        <v>305582</v>
+        <v>313686</v>
       </c>
       <c r="AU86" s="16" t="n">
-        <v>313686</v>
+        <v>305785</v>
       </c>
       <c r="AV86" s="16" t="n">
-        <v>305785</v>
+        <v>294178</v>
       </c>
       <c r="AW86" s="16" t="n">
-        <v>294178</v>
+        <v>298906</v>
       </c>
       <c r="AX86" s="16" t="n">
-        <v>298906</v>
+        <v>302140</v>
       </c>
       <c r="AY86" s="16" t="n">
-        <v>302140</v>
+        <v>328311</v>
       </c>
       <c r="AZ86" s="16" t="n">
-        <v>328311</v>
-      </c>
-      <c r="BA86" s="16" t="n">
         <v>310876</v>
       </c>
-      <c r="BB86" s="16" t="s">
-        <v>58</v>
+      <c r="BA86" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB86" s="16" t="n">
+        <v>331826</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12959,12 +12959,12 @@
       <c r="AH87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AI87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ87" s="13" t="n">
+      <c r="AI87" s="13" t="n">
         <v>1663719203</v>
       </c>
+      <c r="AJ87" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AK87" s="13" t="s">
         <v>58</v>
       </c>
@@ -12989,29 +12989,29 @@
       <c r="AR87" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS87" s="13" t="s">
-        <v>58</v>
+      <c r="AS87" s="13" t="n">
+        <v>6544978</v>
       </c>
       <c r="AT87" s="13" t="n">
-        <v>6544978</v>
+        <v>4522442</v>
       </c>
       <c r="AU87" s="13" t="n">
-        <v>4522442</v>
+        <v>39279416</v>
       </c>
       <c r="AV87" s="13" t="n">
-        <v>39279416</v>
+        <v>3576190</v>
       </c>
       <c r="AW87" s="13" t="n">
-        <v>3576190</v>
-      </c>
-      <c r="AX87" s="13" t="n">
         <v>28493421</v>
       </c>
-      <c r="AY87" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ87" s="13" t="n">
+      <c r="AX87" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AY87" s="13" t="n">
         <v>14694805</v>
+      </c>
+      <c r="AZ87" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA87" s="13" t="s">
         <v>58</v>
@@ -13076,38 +13076,38 @@
       <c r="T88" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U88" s="16" t="s">
-        <v>58</v>
+      <c r="U88" s="16" t="n">
+        <v>59760</v>
       </c>
       <c r="V88" s="16" t="n">
-        <v>59760</v>
+        <v>60393</v>
       </c>
       <c r="W88" s="16" t="n">
-        <v>60393</v>
+        <v>67488</v>
       </c>
       <c r="X88" s="16" t="n">
-        <v>67488</v>
+        <v>80598</v>
       </c>
       <c r="Y88" s="16" t="n">
-        <v>80598</v>
+        <v>115227</v>
       </c>
       <c r="Z88" s="16" t="n">
-        <v>115227</v>
+        <v>124746</v>
       </c>
       <c r="AA88" s="16" t="n">
-        <v>124746</v>
+        <v>123810</v>
       </c>
       <c r="AB88" s="16" t="n">
-        <v>123810</v>
+        <v>130687</v>
       </c>
       <c r="AC88" s="16" t="n">
-        <v>130687</v>
+        <v>126123</v>
       </c>
       <c r="AD88" s="16" t="n">
-        <v>126123</v>
-      </c>
-      <c r="AE88" s="16" t="n">
         <v>116614</v>
+      </c>
+      <c r="AE88" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF88" s="16" t="s">
         <v>58</v>
@@ -13235,107 +13235,107 @@
       <c r="T89" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U89" s="13" t="s">
-        <v>58</v>
+      <c r="U89" s="13" t="n">
+        <v>83413</v>
       </c>
       <c r="V89" s="13" t="n">
-        <v>83413</v>
+        <v>86563</v>
       </c>
       <c r="W89" s="13" t="n">
-        <v>86563</v>
+        <v>89555</v>
       </c>
       <c r="X89" s="13" t="n">
-        <v>89555</v>
+        <v>93427</v>
       </c>
       <c r="Y89" s="13" t="n">
-        <v>93427</v>
+        <v>108462</v>
       </c>
       <c r="Z89" s="13" t="n">
-        <v>108462</v>
+        <v>120637</v>
       </c>
       <c r="AA89" s="13" t="n">
-        <v>120637</v>
+        <v>130253</v>
       </c>
       <c r="AB89" s="13" t="n">
-        <v>130253</v>
+        <v>130624</v>
       </c>
       <c r="AC89" s="13" t="n">
-        <v>130624</v>
+        <v>129577</v>
       </c>
       <c r="AD89" s="13" t="n">
-        <v>129577</v>
+        <v>132439</v>
       </c>
       <c r="AE89" s="13" t="n">
-        <v>132439</v>
+        <v>134018</v>
       </c>
       <c r="AF89" s="13" t="n">
-        <v>134018</v>
+        <v>127005</v>
       </c>
       <c r="AG89" s="13" t="n">
-        <v>127005</v>
+        <v>152291</v>
       </c>
       <c r="AH89" s="13" t="n">
-        <v>152291</v>
+        <v>142688</v>
       </c>
       <c r="AI89" s="13" t="n">
-        <v>142688</v>
+        <v>150791</v>
       </c>
       <c r="AJ89" s="13" t="n">
-        <v>150791</v>
+        <v>158370</v>
       </c>
       <c r="AK89" s="13" t="n">
-        <v>158370</v>
+        <v>162315</v>
       </c>
       <c r="AL89" s="13" t="n">
-        <v>162315</v>
+        <v>160394</v>
       </c>
       <c r="AM89" s="13" t="n">
-        <v>160394</v>
+        <v>162147</v>
       </c>
       <c r="AN89" s="13" t="n">
-        <v>162147</v>
+        <v>162784</v>
       </c>
       <c r="AO89" s="13" t="n">
-        <v>162784</v>
+        <v>171348</v>
       </c>
       <c r="AP89" s="13" t="n">
-        <v>171348</v>
+        <v>176766</v>
       </c>
       <c r="AQ89" s="13" t="n">
-        <v>176766</v>
+        <v>187064</v>
       </c>
       <c r="AR89" s="13" t="n">
-        <v>187064</v>
+        <v>198626</v>
       </c>
       <c r="AS89" s="13" t="n">
-        <v>198626</v>
+        <v>217792</v>
       </c>
       <c r="AT89" s="13" t="n">
-        <v>217792</v>
+        <v>216717</v>
       </c>
       <c r="AU89" s="13" t="n">
-        <v>216717</v>
+        <v>222833</v>
       </c>
       <c r="AV89" s="13" t="n">
-        <v>222833</v>
+        <v>223898</v>
       </c>
       <c r="AW89" s="13" t="n">
-        <v>223898</v>
+        <v>221402</v>
       </c>
       <c r="AX89" s="13" t="n">
-        <v>221402</v>
+        <v>235063</v>
       </c>
       <c r="AY89" s="13" t="n">
-        <v>235063</v>
+        <v>238564</v>
       </c>
       <c r="AZ89" s="13" t="n">
-        <v>238564</v>
-      </c>
-      <c r="BA89" s="13" t="n">
         <v>249392</v>
       </c>
-      <c r="BB89" s="13" t="s">
-        <v>58</v>
+      <c r="BA89" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB89" s="13" t="n">
+        <v>263808</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13394,107 +13394,107 @@
       <c r="T90" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U90" s="16" t="s">
-        <v>58</v>
+      <c r="U90" s="16" t="n">
+        <v>97969</v>
       </c>
       <c r="V90" s="16" t="n">
-        <v>97969</v>
+        <v>98174</v>
       </c>
       <c r="W90" s="16" t="n">
-        <v>98174</v>
+        <v>103129</v>
       </c>
       <c r="X90" s="16" t="n">
-        <v>103129</v>
+        <v>113721</v>
       </c>
       <c r="Y90" s="16" t="n">
-        <v>113721</v>
+        <v>120074</v>
       </c>
       <c r="Z90" s="16" t="n">
-        <v>120074</v>
+        <v>128807</v>
       </c>
       <c r="AA90" s="16" t="n">
-        <v>128807</v>
+        <v>128281</v>
       </c>
       <c r="AB90" s="16" t="n">
-        <v>128281</v>
+        <v>127320</v>
       </c>
       <c r="AC90" s="16" t="n">
-        <v>127320</v>
+        <v>136185</v>
       </c>
       <c r="AD90" s="16" t="n">
-        <v>136185</v>
+        <v>122291</v>
       </c>
       <c r="AE90" s="16" t="n">
-        <v>122291</v>
+        <v>126995</v>
       </c>
       <c r="AF90" s="16" t="n">
-        <v>126995</v>
+        <v>128537</v>
       </c>
       <c r="AG90" s="16" t="n">
-        <v>128537</v>
+        <v>134004</v>
       </c>
       <c r="AH90" s="16" t="n">
-        <v>134004</v>
+        <v>133503</v>
       </c>
       <c r="AI90" s="16" t="n">
-        <v>133503</v>
+        <v>150978</v>
       </c>
       <c r="AJ90" s="16" t="n">
-        <v>150978</v>
+        <v>169235</v>
       </c>
       <c r="AK90" s="16" t="n">
-        <v>169235</v>
+        <v>179996</v>
       </c>
       <c r="AL90" s="16" t="n">
-        <v>179996</v>
+        <v>178170</v>
       </c>
       <c r="AM90" s="16" t="n">
-        <v>178170</v>
+        <v>178151</v>
       </c>
       <c r="AN90" s="16" t="n">
-        <v>178151</v>
+        <v>179711</v>
       </c>
       <c r="AO90" s="16" t="n">
-        <v>179711</v>
+        <v>191785</v>
       </c>
       <c r="AP90" s="16" t="n">
-        <v>191785</v>
+        <v>172716</v>
       </c>
       <c r="AQ90" s="16" t="n">
-        <v>172716</v>
+        <v>184653</v>
       </c>
       <c r="AR90" s="16" t="n">
-        <v>184653</v>
+        <v>220548</v>
       </c>
       <c r="AS90" s="16" t="n">
-        <v>220548</v>
+        <v>245641</v>
       </c>
       <c r="AT90" s="16" t="n">
-        <v>245641</v>
+        <v>257123</v>
       </c>
       <c r="AU90" s="16" t="n">
-        <v>257123</v>
+        <v>270206</v>
       </c>
       <c r="AV90" s="16" t="n">
-        <v>270206</v>
+        <v>288576</v>
       </c>
       <c r="AW90" s="16" t="n">
-        <v>288576</v>
+        <v>306686</v>
       </c>
       <c r="AX90" s="16" t="n">
-        <v>306686</v>
+        <v>307981</v>
       </c>
       <c r="AY90" s="16" t="n">
-        <v>307981</v>
+        <v>310532</v>
       </c>
       <c r="AZ90" s="16" t="n">
-        <v>310532</v>
-      </c>
-      <c r="BA90" s="16" t="n">
         <v>328706</v>
       </c>
-      <c r="BB90" s="16" t="s">
-        <v>58</v>
+      <c r="BA90" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB90" s="16" t="n">
+        <v>323603</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13553,104 +13553,104 @@
       <c r="T91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U91" s="13" t="s">
-        <v>58</v>
+      <c r="U91" s="13" t="n">
+        <v>173652</v>
       </c>
       <c r="V91" s="13" t="n">
-        <v>173652</v>
+        <v>173644</v>
       </c>
       <c r="W91" s="13" t="n">
-        <v>173644</v>
+        <v>173478</v>
       </c>
       <c r="X91" s="13" t="n">
-        <v>173478</v>
+        <v>4</v>
       </c>
       <c r="Y91" s="13" t="n">
-        <v>4</v>
+        <v>173662</v>
       </c>
       <c r="Z91" s="13" t="n">
-        <v>173662</v>
+        <v>173488</v>
       </c>
       <c r="AA91" s="13" t="n">
-        <v>173488</v>
+        <v>173459</v>
       </c>
       <c r="AB91" s="13" t="n">
-        <v>173459</v>
+        <v>173621</v>
       </c>
       <c r="AC91" s="13" t="n">
-        <v>173621</v>
+        <v>173614</v>
       </c>
       <c r="AD91" s="13" t="n">
-        <v>173614</v>
+        <v>173636</v>
       </c>
       <c r="AE91" s="13" t="n">
-        <v>173636</v>
+        <v>108926</v>
       </c>
       <c r="AF91" s="13" t="n">
-        <v>108926</v>
+        <v>120183</v>
       </c>
       <c r="AG91" s="13" t="n">
-        <v>120183</v>
+        <v>122761</v>
       </c>
       <c r="AH91" s="13" t="n">
-        <v>122761</v>
-      </c>
-      <c r="AI91" s="13" t="n">
         <v>117208</v>
       </c>
-      <c r="AJ91" s="13" t="s">
-        <v>58</v>
+      <c r="AI91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ91" s="13" t="n">
+        <v>147757</v>
       </c>
       <c r="AK91" s="13" t="n">
-        <v>147757</v>
+        <v>144623</v>
       </c>
       <c r="AL91" s="13" t="n">
-        <v>144623</v>
+        <v>110274</v>
       </c>
       <c r="AM91" s="13" t="n">
-        <v>110274</v>
+        <v>246512</v>
       </c>
       <c r="AN91" s="13" t="n">
-        <v>246512</v>
-      </c>
-      <c r="AO91" s="13" t="n">
         <v>256043</v>
       </c>
-      <c r="AP91" s="13" t="s">
-        <v>58</v>
+      <c r="AO91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP91" s="13" t="n">
+        <v>269285</v>
       </c>
       <c r="AQ91" s="13" t="n">
-        <v>269285</v>
+        <v>266932</v>
       </c>
       <c r="AR91" s="13" t="n">
-        <v>266932</v>
-      </c>
-      <c r="AS91" s="13" t="n">
         <v>265060</v>
       </c>
+      <c r="AS91" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT91" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU91" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW91" s="13" t="n">
+      <c r="AV91" s="13" t="n">
         <v>257143</v>
       </c>
-      <c r="AX91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY91" s="13" t="n">
+      <c r="AW91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX91" s="13" t="n">
         <v>313333</v>
       </c>
-      <c r="AZ91" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA91" s="13" t="n">
+      <c r="AY91" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ91" s="13" t="n">
         <v>148472</v>
+      </c>
+      <c r="BA91" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB91" s="13" t="s">
         <v>58</v>
@@ -13778,41 +13778,41 @@
       <c r="AP92" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AQ92" s="16" t="s">
-        <v>58</v>
+      <c r="AQ92" s="16" t="n">
+        <v>101592</v>
       </c>
       <c r="AR92" s="16" t="n">
-        <v>101592</v>
+        <v>102398</v>
       </c>
       <c r="AS92" s="16" t="n">
-        <v>102398</v>
+        <v>105505</v>
       </c>
       <c r="AT92" s="16" t="n">
-        <v>105505</v>
+        <v>102982</v>
       </c>
       <c r="AU92" s="16" t="n">
-        <v>102982</v>
+        <v>105567</v>
       </c>
       <c r="AV92" s="16" t="n">
-        <v>105567</v>
+        <v>110541</v>
       </c>
       <c r="AW92" s="16" t="n">
-        <v>110541</v>
+        <v>113898</v>
       </c>
       <c r="AX92" s="16" t="n">
-        <v>113898</v>
+        <v>116850</v>
       </c>
       <c r="AY92" s="16" t="n">
-        <v>116850</v>
+        <v>117478</v>
       </c>
       <c r="AZ92" s="16" t="n">
-        <v>117478</v>
-      </c>
-      <c r="BA92" s="16" t="n">
         <v>118021</v>
       </c>
-      <c r="BB92" s="16" t="s">
-        <v>58</v>
+      <c r="BA92" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB92" s="16" t="n">
+        <v>126259</v>
       </c>
     </row>
   </sheetData>
